--- a/Code_python/Data/training/training_set.xlsx
+++ b/Code_python/Data/training/training_set.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matno\Desktop\Télecom\2A\MALIS\Project\GIT\MALIS-project\Code_python\Data\training\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EADF64C1-3650-466A-9370-E18F3BFB1C7F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4648825D-5826-4AF4-BA1D-23514C7A9F02}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,213 +20,129 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="62">
   <si>
     <t>Best date</t>
   </si>
   <si>
+    <t>2015-03-13</t>
+  </si>
+  <si>
+    <t>2015-03-11</t>
+  </si>
+  <si>
+    <t>2010-10-06</t>
+  </si>
+  <si>
+    <t>2015-01-23</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2008-10-27</t>
+  </si>
+  <si>
+    <t>2015-03-10</t>
+  </si>
+  <si>
+    <t>2008-10-24</t>
+  </si>
+  <si>
+    <t>2015-01-15</t>
+  </si>
+  <si>
+    <t>2008-10-22</t>
+  </si>
+  <si>
+    <t>2015-03-06</t>
+  </si>
+  <si>
+    <t>2008-12-17</t>
+  </si>
+  <si>
+    <t>2015-01-22</t>
+  </si>
+  <si>
+    <t>2015-08-24</t>
+  </si>
+  <si>
+    <t>2008-09-08</t>
+  </si>
+  <si>
+    <t>2008-12-16</t>
+  </si>
+  <si>
+    <t>2008-10-21</t>
+  </si>
+  <si>
+    <t>2009-03-18</t>
+  </si>
+  <si>
     <t>2008-10-08</t>
   </si>
   <si>
-    <t>2008-09-08</t>
+    <t>2008-08-08</t>
+  </si>
+  <si>
+    <t>2011-09-09</t>
+  </si>
+  <si>
+    <t>2011-10-27</t>
+  </si>
+  <si>
+    <t>2015-04-30</t>
+  </si>
+  <si>
+    <t>2008-10-31</t>
+  </si>
+  <si>
+    <t>2011-09-30</t>
+  </si>
+  <si>
+    <t>2009-05-20</t>
+  </si>
+  <si>
+    <t>2011-09-16</t>
+  </si>
+  <si>
+    <t>2008-12-11</t>
+  </si>
+  <si>
+    <t>2008-12-15</t>
+  </si>
+  <si>
+    <t>2010-04-30</t>
+  </si>
+  <si>
+    <t>2015-12-03</t>
+  </si>
+  <si>
+    <t>2020-03-19</t>
+  </si>
+  <si>
+    <t>2008-09-30</t>
   </si>
   <si>
     <t>2008-01-07</t>
   </si>
   <si>
-    <t>2008-08-08</t>
-  </si>
-  <si>
-    <t>2010-04-30</t>
-  </si>
-  <si>
-    <t>2009-03-18</t>
-  </si>
-  <si>
-    <t>2011-09-30</t>
-  </si>
-  <si>
-    <t>2015-12-03</t>
-  </si>
-  <si>
-    <t>2008-12-16</t>
-  </si>
-  <si>
-    <t>2008-09-30</t>
-  </si>
-  <si>
-    <t>2008-12-17</t>
-  </si>
-  <si>
-    <t>2008-12-11</t>
-  </si>
-  <si>
-    <t>2008-10-24</t>
-  </si>
-  <si>
-    <t>2020-03-19</t>
-  </si>
-  <si>
-    <t>2015-01-22</t>
-  </si>
-  <si>
-    <t>2011-09-09</t>
-  </si>
-  <si>
-    <t>2011-10-27</t>
+    <t>2015-04-28</t>
   </si>
   <si>
     <t>2008-11-14</t>
   </si>
   <si>
-    <t>2008-10-31</t>
-  </si>
-  <si>
-    <t>2015-04-30</t>
-  </si>
-  <si>
-    <t>2009-05-20</t>
-  </si>
-  <si>
-    <t>2008-10-21</t>
-  </si>
-  <si>
-    <t>2011-09-16</t>
-  </si>
-  <si>
-    <t>2008-12-15</t>
-  </si>
-  <si>
-    <t>2008-10-22</t>
-  </si>
-  <si>
-    <t>2010-06-04</t>
-  </si>
-  <si>
-    <t>2018-01-12</t>
-  </si>
-  <si>
-    <t>2015-01-23</t>
-  </si>
-  <si>
-    <t>2015-08-24</t>
-  </si>
-  <si>
-    <t>2015-03-06</t>
-  </si>
-  <si>
-    <t>2014-09-04</t>
-  </si>
-  <si>
-    <t>2010-05-18</t>
-  </si>
-  <si>
-    <t>2014-12-30</t>
-  </si>
-  <si>
-    <t>2009-05-29</t>
-  </si>
-  <si>
-    <t>2008-09-04</t>
-  </si>
-  <si>
-    <t>2015-03-11</t>
-  </si>
-  <si>
-    <t>2010-05-06</t>
-  </si>
-  <si>
-    <t>2020-03-06</t>
-  </si>
-  <si>
-    <t>2010-09-21</t>
-  </si>
-  <si>
-    <t>2015-11-06</t>
-  </si>
-  <si>
-    <t>2014-09-30</t>
-  </si>
-  <si>
-    <t>2008-10-27</t>
-  </si>
-  <si>
-    <t>2015-03-13</t>
-  </si>
-  <si>
-    <t>2010-05-14</t>
-  </si>
-  <si>
-    <t>2008-03-12</t>
-  </si>
-  <si>
-    <t>2011-03-18</t>
-  </si>
-  <si>
-    <t>2012-09-07</t>
-  </si>
-  <si>
-    <t>2015-01-15</t>
-  </si>
-  <si>
-    <t>2010-09-24</t>
-  </si>
-  <si>
-    <t>2008-09-10</t>
-  </si>
-  <si>
-    <t>2015-03-10</t>
-  </si>
-  <si>
-    <t>2010-10-05</t>
-  </si>
-  <si>
-    <t>2011-04-08</t>
-  </si>
-  <si>
-    <t>2010-09-30</t>
-  </si>
-  <si>
-    <t>2020-07-27</t>
-  </si>
-  <si>
-    <t>2012-09-14</t>
-  </si>
-  <si>
-    <t>2012-05-30</t>
-  </si>
-  <si>
-    <t>2008-03-14</t>
-  </si>
-  <si>
-    <t>2018-05-29</t>
-  </si>
-  <si>
-    <t>2020-07-30</t>
-  </si>
-  <si>
-    <t>2014-09-26</t>
-  </si>
-  <si>
-    <t>2010-10-06</t>
-  </si>
-  <si>
-    <t>2007-09-28</t>
-  </si>
-  <si>
-    <t>2007-11-07</t>
-  </si>
-  <si>
-    <t>2015-01-20</t>
-  </si>
-  <si>
-    <t>2015-01-16</t>
-  </si>
-  <si>
-    <t>2014-09-10</t>
-  </si>
-  <si>
-    <t>2014-09-08</t>
+    <t>2015-06-02</t>
+  </si>
+  <si>
+    <t>2010-11-22</t>
+  </si>
+  <si>
+    <t>2011-11-09</t>
+  </si>
+  <si>
+    <t>2009-01-09</t>
   </si>
   <si>
     <t>par1</t>
@@ -691,15 +607,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V82"/>
+  <dimension ref="A1:V77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="F75" sqref="F75"/>
-    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.44140625" customWidth="1"/>
+    <col min="1" max="1" width="21" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.3">
@@ -775,67 +689,67 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="C2" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="E2" t="s">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="J2" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="M2" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="N2" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="Q2" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="R2" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="S2" t="s">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="T2" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="U2" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="V2" t="s">
-        <v>89</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
@@ -843,4719 +757,5099 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="C3">
-        <v>51</v>
+        <v>88</v>
       </c>
       <c r="D3">
-        <v>3561.10009765625</v>
+        <v>4997.93994140625</v>
       </c>
       <c r="E3">
-        <v>5237.10986328125</v>
+        <v>11845.900390625</v>
       </c>
       <c r="F3">
-        <v>81.199996948242188</v>
+        <v>99.19000244140625</v>
       </c>
       <c r="G3">
-        <v>9437.23046875</v>
+        <v>17889.05078125</v>
       </c>
       <c r="H3">
-        <v>1.5050041675567629</v>
+        <v>1.0625976324081421</v>
       </c>
       <c r="I3">
-        <v>4605.2001953125</v>
+        <v>6761.10009765625</v>
       </c>
       <c r="J3">
-        <v>879.70001220703125</v>
+        <v>1158.199951171875</v>
       </c>
       <c r="K3">
-        <v>7935.4501953125</v>
+        <v>11589.1796875</v>
       </c>
       <c r="L3">
-        <v>1710.9599609375</v>
+        <v>4885.5400390625</v>
       </c>
       <c r="M3">
-        <v>10011.6396484375</v>
+        <v>19119.580078125</v>
       </c>
       <c r="N3">
-        <v>89.55999755859375</v>
+        <v>46.930000305175781</v>
       </c>
       <c r="O3">
-        <v>988.90997314453125</v>
+        <v>2064.56005859375</v>
       </c>
       <c r="P3">
-        <v>2853.699951171875</v>
+        <v>3649.4599609375</v>
       </c>
       <c r="Q3">
-        <v>239.44999694824219</v>
+        <v>395.79000854492188</v>
       </c>
       <c r="R3">
-        <v>3.473000049591064</v>
+        <v>2.1070001125335689</v>
       </c>
       <c r="S3">
-        <v>2.4179999828338619</v>
+        <v>1.58899998664856</v>
       </c>
       <c r="T3">
-        <v>6.8052000999450684</v>
+        <v>6.2519998550415039</v>
       </c>
       <c r="U3">
-        <v>110.19000244140619</v>
+        <v>121.302001953125</v>
       </c>
       <c r="V3">
-        <v>53.680000305175781</v>
+        <v>15.47000026702881</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4">
-        <v>48.5</v>
+        <v>12.5</v>
       </c>
       <c r="C4">
-        <v>51.5</v>
+        <v>87.5</v>
       </c>
       <c r="D4">
-        <v>4355.52001953125</v>
+        <v>4997.93994140625</v>
       </c>
       <c r="E4">
-        <v>6262.33984375</v>
+        <v>11845.900390625</v>
       </c>
       <c r="F4">
-        <v>78.720001220703125</v>
+        <v>99.19000244140625</v>
       </c>
       <c r="G4">
-        <v>11224.8701171875</v>
+        <v>17889.05078125</v>
       </c>
       <c r="H4">
-        <v>1.504890918731689</v>
+        <v>1.0625976324081421</v>
       </c>
       <c r="I4">
-        <v>5240.7001953125</v>
+        <v>6761.10009765625</v>
       </c>
       <c r="J4">
-        <v>811</v>
+        <v>1158.199951171875</v>
       </c>
       <c r="K4">
-        <v>11239.08984375</v>
+        <v>11589.1796875</v>
       </c>
       <c r="L4">
-        <v>2296.179931640625</v>
+        <v>4885.5400390625</v>
       </c>
       <c r="M4">
-        <v>12359.9296875</v>
+        <v>19119.580078125</v>
       </c>
       <c r="N4">
-        <v>107.75</v>
+        <v>46.930000305175781</v>
       </c>
       <c r="O4">
-        <v>1249.5</v>
+        <v>2064.56005859375</v>
       </c>
       <c r="P4">
-        <v>3215.43994140625</v>
+        <v>3649.4599609375</v>
       </c>
       <c r="Q4">
-        <v>274.3800048828125</v>
+        <v>395.79000854492188</v>
       </c>
       <c r="R4">
-        <v>3.7899999618530269</v>
+        <v>2.1070001125335689</v>
       </c>
       <c r="S4">
-        <v>3.125</v>
+        <v>1.58899998664856</v>
       </c>
       <c r="T4">
-        <v>6.8260002136230469</v>
+        <v>6.2519998550415039</v>
       </c>
       <c r="U4">
-        <v>108.48000335693359</v>
+        <v>121.302001953125</v>
       </c>
       <c r="V4">
-        <v>22.219999313354489</v>
+        <v>15.47000026702881</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5">
-        <v>48</v>
+        <v>13.5</v>
       </c>
       <c r="C5">
-        <v>52</v>
+        <v>86.5</v>
       </c>
       <c r="D5">
-        <v>5432</v>
+        <v>4900.3701171875</v>
       </c>
       <c r="E5">
-        <v>7810.81982421875</v>
+        <v>11531.5498046875</v>
       </c>
       <c r="F5">
-        <v>76.050003051757813</v>
+        <v>98.650001525878906</v>
       </c>
       <c r="G5">
-        <v>12801.150390625</v>
+        <v>17662.939453125</v>
       </c>
       <c r="H5">
-        <v>1.47520911693573</v>
+        <v>1.0709390640258789</v>
       </c>
       <c r="I5">
-        <v>6348.5</v>
+        <v>6702.7998046875</v>
       </c>
       <c r="J5">
-        <v>860.9000244140625</v>
+        <v>1162</v>
       </c>
       <c r="K5">
-        <v>15554.259765625</v>
+        <v>11468.01953125</v>
       </c>
       <c r="L5">
-        <v>2514.14990234375</v>
+        <v>4866.93994140625</v>
       </c>
       <c r="M5">
-        <v>14549.3798828125</v>
+        <v>18604.869140625</v>
       </c>
       <c r="N5">
-        <v>97.790000915527344</v>
+        <v>48.770000457763672</v>
       </c>
       <c r="O5">
-        <v>1414.069946289062</v>
+        <v>2044.68994140625</v>
       </c>
       <c r="P5">
-        <v>4268.43017578125</v>
+        <v>3574.97998046875</v>
       </c>
       <c r="Q5">
-        <v>352.239990234375</v>
+        <v>390.57000732421881</v>
       </c>
       <c r="R5">
-        <v>3.8929998874664311</v>
+        <v>2.151000022888184</v>
       </c>
       <c r="S5">
-        <v>3.2019999027252202</v>
+        <v>1.638000011444092</v>
       </c>
       <c r="T5">
-        <v>7.254000186920166</v>
+        <v>6.2519998550415039</v>
       </c>
       <c r="U5">
-        <v>108.5800018310547</v>
+        <v>121.05999755859381</v>
       </c>
       <c r="V5">
-        <v>24.620000839233398</v>
+        <v>16.440000534057621</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B6">
-        <v>47.5</v>
+        <v>14</v>
       </c>
       <c r="C6">
-        <v>52.5</v>
+        <v>86</v>
       </c>
       <c r="D6">
-        <v>4432.009765625</v>
+        <v>4900.3701171875</v>
       </c>
       <c r="E6">
-        <v>6537.5400390625</v>
+        <v>11531.5498046875</v>
       </c>
       <c r="F6">
-        <v>74.529998779296875</v>
+        <v>98.650001525878906</v>
       </c>
       <c r="G6">
-        <v>11432.08984375</v>
+        <v>17662.939453125</v>
       </c>
       <c r="H6">
-        <v>1.5334130525588989</v>
+        <v>1.0709390640258789</v>
       </c>
       <c r="I6">
-        <v>5477.5</v>
+        <v>6702.7998046875</v>
       </c>
       <c r="J6">
-        <v>868.79998779296875</v>
+        <v>1162</v>
       </c>
       <c r="K6">
-        <v>11877.41015625</v>
+        <v>11468.01953125</v>
       </c>
       <c r="L6">
-        <v>2356.840087890625</v>
+        <v>4866.93994140625</v>
       </c>
       <c r="M6">
-        <v>13026.5302734375</v>
+        <v>18604.869140625</v>
       </c>
       <c r="N6">
-        <v>119.90000152587891</v>
+        <v>48.770000457763672</v>
       </c>
       <c r="O6">
-        <v>1266.2900390625</v>
+        <v>2044.68994140625</v>
       </c>
       <c r="P6">
-        <v>3384.02001953125</v>
+        <v>3574.97998046875</v>
       </c>
       <c r="Q6">
-        <v>286.35000610351563</v>
+        <v>390.57000732421881</v>
       </c>
       <c r="R6">
-        <v>3.9470000267028809</v>
+        <v>2.151000022888184</v>
       </c>
       <c r="S6">
-        <v>3.1689999103546138</v>
+        <v>1.638000011444092</v>
       </c>
       <c r="T6">
-        <v>6.8667998313903809</v>
+        <v>6.2519998550415039</v>
       </c>
       <c r="U6">
-        <v>109.4199981689453</v>
+        <v>121.05999755859381</v>
       </c>
       <c r="V6">
-        <v>21.14999961853027</v>
+        <v>16.440000534057621</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B7">
-        <v>47</v>
+        <v>14.5</v>
       </c>
       <c r="C7">
-        <v>53</v>
+        <v>85.5</v>
       </c>
       <c r="D7">
-        <v>3829.639892578125</v>
+        <v>3750.8701171875</v>
       </c>
       <c r="E7">
-        <v>6155.56982421875</v>
+        <v>6248.81005859375</v>
       </c>
       <c r="F7">
-        <v>81.900001525878906</v>
+        <v>77.819999694824219</v>
       </c>
       <c r="G7">
-        <v>11168.23046875</v>
+        <v>10936.7900390625</v>
       </c>
       <c r="H7">
-        <v>1.326594233512878</v>
+        <v>1.3836042881011961</v>
       </c>
       <c r="I7">
-        <v>5617.7998046875</v>
+        <v>5635.7998046875</v>
       </c>
       <c r="J7">
-        <v>1180.099975585938</v>
+        <v>1339.099975585938</v>
       </c>
       <c r="K7">
-        <v>11989.9697265625</v>
+        <v>12901.509765625</v>
       </c>
       <c r="L7">
-        <v>2509.989990234375</v>
+        <v>2395.159912109375</v>
       </c>
       <c r="M7">
-        <v>11062.1201171875</v>
+        <v>9588.4697265625</v>
       </c>
       <c r="N7">
-        <v>85.580001831054688</v>
+        <v>82.599998474121094</v>
       </c>
       <c r="O7">
-        <v>1206.77001953125</v>
+        <v>1159.81005859375</v>
       </c>
       <c r="P7">
-        <v>2826.10009765625</v>
+        <v>2768.469970703125</v>
       </c>
       <c r="Q7">
-        <v>262.04000854492188</v>
+        <v>261.82000732421881</v>
       </c>
       <c r="R7">
-        <v>3.7460000514984131</v>
+        <v>2.404999971389771</v>
       </c>
       <c r="S7">
-        <v>2.503000020980835</v>
+        <v>1.138000011444092</v>
       </c>
       <c r="T7">
-        <v>6.8159999847412109</v>
+        <v>6.679999828338623</v>
       </c>
       <c r="U7">
-        <v>94.010002136230469</v>
+        <v>83.209999084472656</v>
       </c>
       <c r="V7">
-        <v>18.75</v>
+        <v>21.819999694824219</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B8">
-        <v>46.5</v>
+        <v>15</v>
       </c>
       <c r="C8">
-        <v>53.5</v>
+        <v>85</v>
       </c>
       <c r="D8">
-        <v>2805.139892578125</v>
+        <v>4588.490234375</v>
       </c>
       <c r="E8">
-        <v>4024.179931640625</v>
+        <v>10503.330078125</v>
       </c>
       <c r="F8">
-        <v>86.80999755859375</v>
+        <v>94.209999084472656</v>
       </c>
       <c r="G8">
-        <v>7395.7001953125</v>
+        <v>17812.5</v>
       </c>
       <c r="H8">
-        <v>1.3034070730209351</v>
+        <v>1.13464879989624</v>
       </c>
       <c r="I8">
-        <v>3857.10009765625</v>
+        <v>6796.60009765625</v>
       </c>
       <c r="J8">
-        <v>915.4000244140625</v>
+        <v>1299.800048828125</v>
       </c>
       <c r="K8">
-        <v>7643.240234375</v>
+        <v>12223.4404296875</v>
       </c>
       <c r="L8">
-        <v>1454.43994140625</v>
+        <v>4748.18994140625</v>
       </c>
       <c r="M8">
-        <v>8006.85986328125</v>
+        <v>17520.630859375</v>
       </c>
       <c r="N8">
-        <v>48.669998168945313</v>
+        <v>46.630001068115227</v>
       </c>
       <c r="O8">
-        <v>776.010009765625</v>
+        <v>2062.97998046875</v>
       </c>
       <c r="P8">
-        <v>2021.449951171875</v>
+        <v>3345.449951171875</v>
       </c>
       <c r="Q8">
-        <v>172.22999572753909</v>
+        <v>365.5</v>
       </c>
       <c r="R8">
-        <v>3.0069999694824219</v>
+        <v>1.820000052452087</v>
       </c>
       <c r="S8">
-        <v>1.973000049591064</v>
+        <v>1.327999949455261</v>
       </c>
       <c r="T8">
-        <v>6.8270998001098633</v>
+        <v>6.1989998817443848</v>
       </c>
       <c r="U8">
-        <v>98.769996643066406</v>
+        <v>118.7099990844727</v>
       </c>
       <c r="V8">
-        <v>41.139999389648438</v>
+        <v>16.79000091552734</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B9">
-        <v>46</v>
+        <v>15.5</v>
       </c>
       <c r="C9">
-        <v>54</v>
+        <v>84.5</v>
       </c>
       <c r="D9">
-        <v>3009.260009765625</v>
+        <v>4588.490234375</v>
       </c>
       <c r="E9">
-        <v>5602.5498046875</v>
+        <v>10503.330078125</v>
       </c>
       <c r="F9">
-        <v>77.959999084472656</v>
+        <v>94.209999084472656</v>
       </c>
       <c r="G9">
-        <v>11152.3203125</v>
+        <v>17812.5</v>
       </c>
       <c r="H9">
-        <v>1.3581973314285281</v>
+        <v>1.13464879989624</v>
       </c>
       <c r="I9">
-        <v>5196.7998046875</v>
+        <v>6796.60009765625</v>
       </c>
       <c r="J9">
-        <v>1620.800048828125</v>
+        <v>1299.800048828125</v>
       </c>
       <c r="K9">
-        <v>9188.2099609375</v>
+        <v>12223.4404296875</v>
       </c>
       <c r="L9">
-        <v>2444.77001953125</v>
+        <v>4748.18994140625</v>
       </c>
       <c r="M9">
-        <v>8713.91015625</v>
+        <v>17520.630859375</v>
       </c>
       <c r="N9">
-        <v>83.069999694824219</v>
+        <v>46.630001068115227</v>
       </c>
       <c r="O9">
-        <v>1159.930053710938</v>
+        <v>2062.97998046875</v>
       </c>
       <c r="P9">
-        <v>2204.929931640625</v>
+        <v>3345.449951171875</v>
       </c>
       <c r="Q9">
-        <v>228.63999938964841</v>
+        <v>365.5</v>
       </c>
       <c r="R9">
-        <v>1.950000047683716</v>
+        <v>1.820000052452087</v>
       </c>
       <c r="S9">
-        <v>0.96899998188018799</v>
+        <v>1.327999949455261</v>
       </c>
       <c r="T9">
-        <v>6.3874001502990723</v>
+        <v>6.1989998817443848</v>
       </c>
       <c r="U9">
-        <v>76.75</v>
+        <v>118.7099990844727</v>
       </c>
       <c r="V9">
-        <v>40.930000305175781</v>
+        <v>16.79000091552734</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B10">
-        <v>45.5</v>
+        <v>16</v>
       </c>
       <c r="C10">
-        <v>54.5</v>
+        <v>84</v>
       </c>
       <c r="D10">
-        <v>4895.64013671875</v>
+        <v>4375.3798828125</v>
       </c>
       <c r="E10">
-        <v>11173.7900390625</v>
+        <v>9446.8095703125</v>
       </c>
       <c r="F10">
-        <v>100.0100021362305</v>
+        <v>85.610000610351563</v>
       </c>
       <c r="G10">
-        <v>17741.5703125</v>
+        <v>17070.44921875</v>
       </c>
       <c r="H10">
-        <v>1.061199307441711</v>
+        <v>1.2690999507904051</v>
       </c>
       <c r="I10">
-        <v>6420.89990234375</v>
+        <v>6646.60009765625</v>
       </c>
       <c r="J10">
-        <v>1054.400024414062</v>
+        <v>1214.800048828125</v>
       </c>
       <c r="K10">
-        <v>9973.740234375</v>
+        <v>10409.6796875</v>
       </c>
       <c r="L10">
-        <v>5143.16015625</v>
+        <v>4512.64013671875</v>
       </c>
       <c r="M10">
-        <v>19894.630859375</v>
+        <v>16252.7197265625</v>
       </c>
       <c r="N10">
-        <v>40.150001525878913</v>
+        <v>94.339996337890625</v>
       </c>
       <c r="O10">
-        <v>2080.7099609375</v>
+        <v>1978.2099609375</v>
       </c>
       <c r="P10">
-        <v>3464.81005859375</v>
+        <v>3199.43994140625</v>
       </c>
       <c r="Q10">
-        <v>383.69000244140619</v>
+        <v>341.89999389648438</v>
       </c>
       <c r="R10">
-        <v>2.2060000896453862</v>
+        <v>2.5039999485015869</v>
       </c>
       <c r="S10">
-        <v>1.6640000343322749</v>
+        <v>1.7779999971389771</v>
       </c>
       <c r="T10">
-        <v>6.3888001441955566</v>
+        <v>6.1399998664855957</v>
       </c>
       <c r="U10">
-        <v>123.2200012207031</v>
+        <v>109.41200256347661</v>
       </c>
       <c r="V10">
-        <v>15.86999988555908</v>
+        <v>15.489999771118161</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B11">
-        <v>45</v>
+        <v>16.5</v>
       </c>
       <c r="C11">
-        <v>55</v>
+        <v>83.5</v>
       </c>
       <c r="D11">
-        <v>3186.429931640625</v>
+        <v>4375.3798828125</v>
       </c>
       <c r="E11">
-        <v>4663.35986328125</v>
+        <v>9446.8095703125</v>
       </c>
       <c r="F11">
-        <v>82.080001831054688</v>
+        <v>85.610000610351563</v>
       </c>
       <c r="G11">
-        <v>8565.650390625</v>
+        <v>17070.44921875</v>
       </c>
       <c r="H11">
-        <v>1.3696191310882571</v>
+        <v>1.2690999507904051</v>
       </c>
       <c r="I11">
-        <v>4277.60009765625</v>
+        <v>6646.60009765625</v>
       </c>
       <c r="J11">
-        <v>839</v>
+        <v>1214.800048828125</v>
       </c>
       <c r="K11">
-        <v>8001.2001953125</v>
+        <v>10409.6796875</v>
       </c>
       <c r="L11">
-        <v>1526.06005859375</v>
+        <v>4512.64013671875</v>
       </c>
       <c r="M11">
-        <v>8608.400390625</v>
+        <v>16252.7197265625</v>
       </c>
       <c r="N11">
-        <v>44.950000762939453</v>
+        <v>94.339996337890625</v>
       </c>
       <c r="O11">
-        <v>871.530029296875</v>
+        <v>1978.2099609375</v>
       </c>
       <c r="P11">
-        <v>2407</v>
+        <v>3199.43994140625</v>
       </c>
       <c r="Q11">
-        <v>197.1499938964844</v>
+        <v>341.89999389648438</v>
       </c>
       <c r="R11">
-        <v>2.499000072479248</v>
+        <v>2.5039999485015869</v>
       </c>
       <c r="S11">
-        <v>1.4859999418258669</v>
+        <v>1.7779999971389771</v>
       </c>
       <c r="T11">
-        <v>6.8393001556396484</v>
+        <v>6.1399998664855957</v>
       </c>
       <c r="U11">
-        <v>90.480003356933594</v>
+        <v>109.41200256347661</v>
       </c>
       <c r="V11">
-        <v>56.759998321533203</v>
+        <v>15.489999771118161</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B12">
-        <v>44.5</v>
+        <v>17</v>
       </c>
       <c r="C12">
-        <v>55.5</v>
+        <v>83</v>
       </c>
       <c r="D12">
-        <v>3850.739990234375</v>
+        <v>3035.3701171875</v>
       </c>
       <c r="E12">
-        <v>5728.2998046875</v>
+        <v>4143.4501953125</v>
       </c>
       <c r="F12">
-        <v>77.889999389648438</v>
+        <v>86.319999694824219</v>
       </c>
       <c r="G12">
-        <v>10371.580078125</v>
+        <v>8375.919921875</v>
       </c>
       <c r="H12">
-        <v>1.4394081830978389</v>
+        <v>1.263807058334351</v>
       </c>
       <c r="I12">
-        <v>4818.7998046875</v>
+        <v>3883.39990234375</v>
       </c>
       <c r="J12">
-        <v>904.79998779296875</v>
+        <v>742.79998779296875</v>
       </c>
       <c r="K12">
-        <v>8339.8203125</v>
+        <v>5699.02001953125</v>
       </c>
       <c r="L12">
-        <v>2033.68994140625</v>
+        <v>1528.119995117188</v>
       </c>
       <c r="M12">
-        <v>11565.7001953125</v>
+        <v>7568.35986328125</v>
       </c>
       <c r="N12">
-        <v>95.400001525878906</v>
+        <v>64.779998779296875</v>
       </c>
       <c r="O12">
-        <v>1113.780029296875</v>
+        <v>874.280029296875</v>
       </c>
       <c r="P12">
-        <v>2993.93994140625</v>
+        <v>2293.0400390625</v>
       </c>
       <c r="Q12">
-        <v>250.66999816894531</v>
+        <v>195.04200744628909</v>
       </c>
       <c r="R12">
-        <v>3.619999885559082</v>
+        <v>3.651999950408936</v>
       </c>
       <c r="S12">
-        <v>2.7409999370574951</v>
+        <v>2.5490000247955318</v>
       </c>
       <c r="T12">
-        <v>6.8351001739501953</v>
+        <v>6.8276000022888184</v>
       </c>
       <c r="U12">
-        <v>103.8399963378906</v>
+        <v>93.680000305175781</v>
       </c>
       <c r="V12">
-        <v>43.770000457763672</v>
+        <v>79.129997253417969</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B13">
-        <v>44</v>
+        <v>17.5</v>
       </c>
       <c r="C13">
-        <v>56</v>
+        <v>82.5</v>
       </c>
       <c r="D13">
-        <v>3281.820068359375</v>
+        <v>3035.3701171875</v>
       </c>
       <c r="E13">
-        <v>4768.7099609375</v>
+        <v>4143.4501953125</v>
       </c>
       <c r="F13">
-        <v>80.260002136230469</v>
+        <v>86.319999694824219</v>
       </c>
       <c r="G13">
-        <v>8921.91015625</v>
+        <v>8375.919921875</v>
       </c>
       <c r="H13">
-        <v>1.4063905477523799</v>
+        <v>1.263807058334351</v>
       </c>
       <c r="I13">
-        <v>4309.10009765625</v>
+        <v>3883.39990234375</v>
       </c>
       <c r="J13">
-        <v>854.4000244140625</v>
+        <v>742.79998779296875</v>
       </c>
       <c r="K13">
-        <v>8339.099609375</v>
+        <v>5699.02001953125</v>
       </c>
       <c r="L13">
-        <v>1568.880004882812</v>
+        <v>1528.119995117188</v>
       </c>
       <c r="M13">
-        <v>8658.2197265625</v>
+        <v>7568.35986328125</v>
       </c>
       <c r="N13">
-        <v>43.75</v>
+        <v>64.779998779296875</v>
       </c>
       <c r="O13">
-        <v>908.15997314453125</v>
+        <v>874.280029296875</v>
       </c>
       <c r="P13">
-        <v>2468.39990234375</v>
+        <v>2293.0400390625</v>
       </c>
       <c r="Q13">
-        <v>199.6499938964844</v>
+        <v>195.04200744628909</v>
       </c>
       <c r="R13">
-        <v>2.1670000553131099</v>
+        <v>3.651999950408936</v>
       </c>
       <c r="S13">
-        <v>1.296000003814697</v>
+        <v>2.5490000247955318</v>
       </c>
       <c r="T13">
-        <v>6.8350000381469727</v>
+        <v>6.8276000022888184</v>
       </c>
       <c r="U13">
-        <v>88.669998168945313</v>
+        <v>93.680000305175781</v>
       </c>
       <c r="V13">
-        <v>52</v>
+        <v>79.129997253417969</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B14">
-        <v>43.5</v>
+        <v>18</v>
       </c>
       <c r="C14">
-        <v>56.5</v>
+        <v>82</v>
       </c>
       <c r="D14">
-        <v>3309</v>
+        <v>4930.06005859375</v>
       </c>
       <c r="E14">
-        <v>4791.56005859375</v>
+        <v>11555.9697265625</v>
       </c>
       <c r="F14">
-        <v>85.459999084472656</v>
+        <v>97.779998779296875</v>
       </c>
       <c r="G14">
-        <v>8750.1298828125</v>
+        <v>17989.560546875</v>
       </c>
       <c r="H14">
-        <v>1.3015918731689451</v>
+        <v>1.0835762023925779</v>
       </c>
       <c r="I14">
-        <v>4367.2998046875</v>
+        <v>6876.5</v>
       </c>
       <c r="J14">
-        <v>803.4000244140625</v>
+        <v>1166.400024414062</v>
       </c>
       <c r="K14">
-        <v>8516.5</v>
+        <v>11642.6103515625</v>
       </c>
       <c r="L14">
-        <v>1548.469970703125</v>
+        <v>4899.509765625</v>
       </c>
       <c r="M14">
-        <v>8642.259765625</v>
+        <v>18891.009765625</v>
       </c>
       <c r="N14">
-        <v>44.049999237060547</v>
+        <v>50.080001831054688</v>
       </c>
       <c r="O14">
-        <v>898.3499755859375</v>
+        <v>2076.139892578125</v>
       </c>
       <c r="P14">
-        <v>2489</v>
+        <v>3605.81005859375</v>
       </c>
       <c r="Q14">
-        <v>204.8699951171875</v>
+        <v>393.30999755859381</v>
       </c>
       <c r="R14">
-        <v>2.6960000991821289</v>
+        <v>2.157999992370605</v>
       </c>
       <c r="S14">
-        <v>1.6189999580383301</v>
+        <v>1.620000004768372</v>
       </c>
       <c r="T14">
-        <v>6.8550000190734863</v>
+        <v>6.255000114440918</v>
       </c>
       <c r="U14">
-        <v>92.831001281738281</v>
+        <v>121.427001953125</v>
       </c>
       <c r="V14">
-        <v>55.080001831054688</v>
+        <v>16.469999313354489</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B15">
-        <v>43</v>
+        <v>18.5</v>
       </c>
       <c r="C15">
-        <v>57</v>
+        <v>81.5</v>
       </c>
       <c r="D15">
-        <v>3152.06005859375</v>
+        <v>4930.06005859375</v>
       </c>
       <c r="E15">
-        <v>4362.7900390625</v>
+        <v>11555.9697265625</v>
       </c>
       <c r="F15">
-        <v>84.980003356933594</v>
+        <v>97.779998779296875</v>
       </c>
       <c r="G15">
-        <v>8683.2099609375</v>
+        <v>17989.560546875</v>
       </c>
       <c r="H15">
-        <v>1.2941130399703979</v>
+        <v>1.0835762023925779</v>
       </c>
       <c r="I15">
-        <v>4087.800048828125</v>
+        <v>6876.5</v>
       </c>
       <c r="J15">
-        <v>715.29998779296875</v>
+        <v>1166.400024414062</v>
       </c>
       <c r="K15">
-        <v>6179.31005859375</v>
+        <v>11642.6103515625</v>
       </c>
       <c r="L15">
-        <v>1493.7900390625</v>
+        <v>4899.509765625</v>
       </c>
       <c r="M15">
-        <v>8391.0400390625</v>
+        <v>18891.009765625</v>
       </c>
       <c r="N15">
-        <v>69.419998168945313</v>
+        <v>50.080001831054688</v>
       </c>
       <c r="O15">
-        <v>895.219970703125</v>
+        <v>2076.139892578125</v>
       </c>
       <c r="P15">
-        <v>2416.31005859375</v>
+        <v>3605.81005859375</v>
       </c>
       <c r="Q15">
-        <v>206.44999694824219</v>
+        <v>393.30999755859381</v>
       </c>
       <c r="R15">
-        <v>3.4839999675750728</v>
+        <v>2.157999992370605</v>
       </c>
       <c r="S15">
-        <v>2.404000043869019</v>
+        <v>1.620000004768372</v>
       </c>
       <c r="T15">
-        <v>6.8155999183654794</v>
+        <v>6.255000114440918</v>
       </c>
       <c r="U15">
-        <v>97.5</v>
+        <v>121.427001953125</v>
       </c>
       <c r="V15">
-        <v>67.800003051757813</v>
+        <v>16.469999313354489</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B16">
-        <v>42.5</v>
+        <v>19</v>
       </c>
       <c r="C16">
-        <v>57.5</v>
+        <v>81</v>
       </c>
       <c r="D16">
-        <v>3833.989990234375</v>
+        <v>3152.06005859375</v>
       </c>
       <c r="E16">
-        <v>8495.9404296875</v>
+        <v>4362.7900390625</v>
       </c>
       <c r="F16">
-        <v>100.7900009155273</v>
+        <v>84.980003356933594</v>
       </c>
       <c r="G16">
-        <v>19830.009765625</v>
+        <v>8683.2099609375</v>
       </c>
       <c r="H16">
-        <v>1.094343304634094</v>
+        <v>1.2941130399703979</v>
       </c>
       <c r="I16">
-        <v>5080.60009765625</v>
+        <v>4087.800048828125</v>
       </c>
       <c r="J16">
-        <v>1481.5</v>
+        <v>715.29998779296875</v>
       </c>
       <c r="K16">
-        <v>8724.080078125</v>
+        <v>6179.31005859375</v>
       </c>
       <c r="L16">
-        <v>6996.4501953125</v>
+        <v>1493.7900390625</v>
       </c>
       <c r="M16">
-        <v>16995.76953125</v>
+        <v>8391.0400390625</v>
       </c>
       <c r="N16">
-        <v>22.29999923706055</v>
+        <v>69.419998168945313</v>
       </c>
       <c r="O16">
-        <v>2393.47998046875</v>
+        <v>895.219970703125</v>
       </c>
       <c r="P16">
-        <v>2388.93994140625</v>
+        <v>2416.31005859375</v>
       </c>
       <c r="Q16">
-        <v>277.510009765625</v>
+        <v>206.44999694824219</v>
       </c>
       <c r="R16">
-        <v>1.1369999647140501</v>
+        <v>3.4839999675750728</v>
       </c>
       <c r="S16">
-        <v>0.74299997091293335</v>
+        <v>2.404000043869019</v>
       </c>
       <c r="T16">
-        <v>7.0464000701904297</v>
+        <v>6.8155999183654794</v>
       </c>
       <c r="U16">
-        <v>108.4130020141602</v>
+        <v>97.5</v>
       </c>
       <c r="V16">
-        <v>80.620002746582031</v>
+        <v>67.800003051757813</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B17">
-        <v>42</v>
+        <v>19.5</v>
       </c>
       <c r="C17">
-        <v>58</v>
+        <v>80.5</v>
       </c>
       <c r="D17">
-        <v>4486.759765625</v>
+        <v>3152.06005859375</v>
       </c>
       <c r="E17">
-        <v>10300.259765625</v>
+        <v>4362.7900390625</v>
       </c>
       <c r="F17">
-        <v>92.889999389648438</v>
+        <v>84.980003356933594</v>
       </c>
       <c r="G17">
-        <v>17557.2890625</v>
+        <v>8683.2099609375</v>
       </c>
       <c r="H17">
-        <v>1.1616965532302861</v>
+        <v>1.2941130399703979</v>
       </c>
       <c r="I17">
-        <v>6728</v>
+        <v>4087.800048828125</v>
       </c>
       <c r="J17">
-        <v>1293.199951171875</v>
+        <v>715.29998779296875</v>
       </c>
       <c r="K17">
-        <v>12091.4697265625</v>
+        <v>6179.31005859375</v>
       </c>
       <c r="L17">
-        <v>4690.93017578125</v>
+        <v>1493.7900390625</v>
       </c>
       <c r="M17">
-        <v>17306.640625</v>
+        <v>8391.0400390625</v>
       </c>
       <c r="N17">
-        <v>47.349998474121087</v>
+        <v>69.419998168945313</v>
       </c>
       <c r="O17">
-        <v>2034.300048828125</v>
+        <v>895.219970703125</v>
       </c>
       <c r="P17">
-        <v>3270.39990234375</v>
+        <v>2416.31005859375</v>
       </c>
       <c r="Q17">
-        <v>358.92001342773438</v>
+        <v>206.44999694824219</v>
       </c>
       <c r="R17">
-        <v>1.939000010490417</v>
+        <v>3.4839999675750728</v>
       </c>
       <c r="S17">
-        <v>1.406000018119812</v>
+        <v>2.404000043869019</v>
       </c>
       <c r="T17">
-        <v>6.2017002105712891</v>
+        <v>6.8155999183654794</v>
       </c>
       <c r="U17">
-        <v>117.8399963378906</v>
+        <v>97.5</v>
       </c>
       <c r="V17">
-        <v>17.979999542236332</v>
+        <v>67.800003051757813</v>
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B18">
-        <v>41.5</v>
+        <v>20</v>
       </c>
       <c r="C18">
-        <v>58.5</v>
+        <v>80</v>
       </c>
       <c r="D18">
-        <v>3064.93994140625</v>
+        <v>4262.93994140625</v>
       </c>
       <c r="E18">
-        <v>5383.6298828125</v>
+        <v>9933.4501953125</v>
       </c>
       <c r="F18">
-        <v>76.160003662109375</v>
+        <v>92.160003662109375</v>
       </c>
       <c r="G18">
-        <v>11294.599609375</v>
+        <v>17436.30078125</v>
       </c>
       <c r="H18">
-        <v>1.3903951644897461</v>
+        <v>1.1783837080001831</v>
       </c>
       <c r="I18">
-        <v>5340.39990234375</v>
+        <v>6388.5</v>
       </c>
       <c r="J18">
-        <v>1858.099975585938</v>
+        <v>1231.5</v>
       </c>
       <c r="K18">
-        <v>10544.6201171875</v>
+        <v>12049.6904296875</v>
       </c>
       <c r="L18">
-        <v>2508.1201171875</v>
+        <v>4657.4599609375</v>
       </c>
       <c r="M18">
-        <v>8739.490234375</v>
+        <v>16872.94921875</v>
       </c>
       <c r="N18">
-        <v>88.769996643066406</v>
+        <v>48.599998474121087</v>
       </c>
       <c r="O18">
-        <v>1185.369995117188</v>
+        <v>2013.75</v>
       </c>
       <c r="P18">
-        <v>2154.199951171875</v>
+        <v>3112.3701171875</v>
       </c>
       <c r="Q18">
-        <v>229.80999755859381</v>
+        <v>341.5</v>
       </c>
       <c r="R18">
-        <v>2.0130000114440918</v>
+        <v>1.812999963760376</v>
       </c>
       <c r="S18">
-        <v>0.88400000333786011</v>
+        <v>1.2690000534057619</v>
       </c>
       <c r="T18">
-        <v>6.3776001930236816</v>
+        <v>6.1840000152587891</v>
       </c>
       <c r="U18">
-        <v>77.501998901367188</v>
+        <v>117.4390029907227</v>
       </c>
       <c r="V18">
-        <v>35.529998779296882</v>
+        <v>21.229999542236332</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B19">
-        <v>41</v>
+        <v>20.5</v>
       </c>
       <c r="C19">
-        <v>59</v>
+        <v>79.5</v>
       </c>
       <c r="D19">
-        <v>3300.719970703125</v>
+        <v>3380.010009765625</v>
       </c>
       <c r="E19">
-        <v>6222.75</v>
+        <v>4739.740234375</v>
       </c>
       <c r="F19">
-        <v>76.290000915527344</v>
+        <v>84.400001525878906</v>
       </c>
       <c r="G19">
-        <v>11872.0703125</v>
+        <v>9027.83984375</v>
       </c>
       <c r="H19">
-        <v>1.3872126340866091</v>
+        <v>1.3059432506561279</v>
       </c>
       <c r="I19">
-        <v>5553.2001953125</v>
+        <v>4229.7001953125</v>
       </c>
       <c r="J19">
-        <v>1717.800048828125</v>
+        <v>771.70001220703125</v>
       </c>
       <c r="K19">
-        <v>10096.4404296875</v>
+        <v>7188.93017578125</v>
       </c>
       <c r="L19">
-        <v>2720.590087890625</v>
+        <v>1671.22998046875</v>
       </c>
       <c r="M19">
-        <v>8779.400390625</v>
+        <v>9198.1396484375</v>
       </c>
       <c r="N19">
-        <v>90.980003356933594</v>
+        <v>71.470001220703125</v>
       </c>
       <c r="O19">
-        <v>1243.969970703125</v>
+        <v>951.66998291015625</v>
       </c>
       <c r="P19">
-        <v>2361.679931640625</v>
+        <v>2574.669921875</v>
       </c>
       <c r="Q19">
-        <v>240.17999267578119</v>
+        <v>219.19999694824219</v>
       </c>
       <c r="R19">
-        <v>2.2969999313354492</v>
+        <v>3.655999898910522</v>
       </c>
       <c r="S19">
-        <v>1.1499999761581421</v>
+        <v>2.5769999027252202</v>
       </c>
       <c r="T19">
-        <v>6.3404998779296884</v>
+        <v>6.8235001564025879</v>
       </c>
       <c r="U19">
-        <v>76.188003540039063</v>
+        <v>100.3300018310547</v>
       </c>
       <c r="V19">
-        <v>24.719999313354489</v>
+        <v>63.119998931884773</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B20">
-        <v>40.5</v>
+        <v>21</v>
       </c>
       <c r="C20">
-        <v>59.5</v>
+        <v>79</v>
       </c>
       <c r="D20">
-        <v>3370.860107421875</v>
+        <v>3380.010009765625</v>
       </c>
       <c r="E20">
-        <v>4723.2900390625</v>
+        <v>4739.740234375</v>
       </c>
       <c r="F20">
-        <v>86.339996337890625</v>
+        <v>84.400001525878906</v>
       </c>
       <c r="G20">
-        <v>8822.1904296875</v>
+        <v>9027.83984375</v>
       </c>
       <c r="H20">
-        <v>1.278805136680603</v>
+        <v>1.3059432506561279</v>
       </c>
       <c r="I20">
-        <v>4169.2001953125</v>
+        <v>4229.7001953125</v>
       </c>
       <c r="J20">
-        <v>726.5</v>
+        <v>771.70001220703125</v>
       </c>
       <c r="K20">
-        <v>7127.0400390625</v>
+        <v>7188.93017578125</v>
       </c>
       <c r="L20">
-        <v>1560.589965820312</v>
+        <v>1671.22998046875</v>
       </c>
       <c r="M20">
-        <v>8378.1298828125</v>
+        <v>9198.1396484375</v>
       </c>
       <c r="N20">
-        <v>59.389999389648438</v>
+        <v>71.470001220703125</v>
       </c>
       <c r="O20">
-        <v>904.3599853515625</v>
+        <v>951.66998291015625</v>
       </c>
       <c r="P20">
-        <v>2459.2099609375</v>
+        <v>2574.669921875</v>
       </c>
       <c r="Q20">
-        <v>203.24000549316409</v>
+        <v>219.19999694824219</v>
       </c>
       <c r="R20">
-        <v>3.752000093460083</v>
+        <v>3.655999898910522</v>
       </c>
       <c r="S20">
-        <v>2.3580000400543208</v>
+        <v>2.5769999027252202</v>
       </c>
       <c r="T20">
-        <v>6.820000171661377</v>
+        <v>6.8235001564025879</v>
       </c>
       <c r="U20">
-        <v>97.603996276855469</v>
+        <v>100.3300018310547</v>
       </c>
       <c r="V20">
-        <v>62.599998474121087</v>
+        <v>63.119998931884773</v>
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B21">
-        <v>40</v>
+        <v>21.5</v>
       </c>
       <c r="C21">
-        <v>60</v>
+        <v>78.5</v>
       </c>
       <c r="D21">
-        <v>3388.7900390625</v>
+        <v>4953.68017578125</v>
       </c>
       <c r="E21">
-        <v>4856.02001953125</v>
+        <v>11513.8896484375</v>
       </c>
       <c r="F21">
-        <v>84.959999084472656</v>
+        <v>96.360000610351563</v>
       </c>
       <c r="G21">
-        <v>9179.08984375</v>
+        <v>18135.720703125</v>
       </c>
       <c r="H21">
-        <v>1.2879958152771001</v>
+        <v>1.1033996343612671</v>
       </c>
       <c r="I21">
-        <v>4291.7001953125</v>
+        <v>6961.10009765625</v>
       </c>
       <c r="J21">
-        <v>731.4000244140625</v>
+        <v>1195</v>
       </c>
       <c r="K21">
-        <v>6589.56982421875</v>
+        <v>11619.919921875</v>
       </c>
       <c r="L21">
-        <v>1684.7099609375</v>
+        <v>4967.240234375</v>
       </c>
       <c r="M21">
-        <v>8958.2197265625</v>
+        <v>18814.849609375</v>
       </c>
       <c r="N21">
-        <v>65.580001831054688</v>
+        <v>50.889999389648438</v>
       </c>
       <c r="O21">
-        <v>953.1099853515625</v>
+        <v>2100.909912109375</v>
       </c>
       <c r="P21">
-        <v>2522.06005859375</v>
+        <v>3615</v>
       </c>
       <c r="Q21">
-        <v>216.55999755859381</v>
+        <v>393.6300048828125</v>
       </c>
       <c r="R21">
-        <v>3.8810000419616699</v>
+        <v>2.1099998950958252</v>
       </c>
       <c r="S21">
-        <v>2.7400000095367432</v>
+        <v>1.557999968528748</v>
       </c>
       <c r="T21">
-        <v>6.8281998634338379</v>
+        <v>6.2574000358581543</v>
       </c>
       <c r="U21">
-        <v>98.816001892089844</v>
+        <v>120.0660018920898</v>
       </c>
       <c r="V21">
-        <v>62.930000305175781</v>
+        <v>14.60999965667725</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B22">
-        <v>39.5</v>
+        <v>22</v>
       </c>
       <c r="C22">
-        <v>60.5</v>
+        <v>78</v>
       </c>
       <c r="D22">
-        <v>5040.509765625</v>
+        <v>3281.820068359375</v>
       </c>
       <c r="E22">
-        <v>11440.7900390625</v>
+        <v>4768.7099609375</v>
       </c>
       <c r="F22">
-        <v>95.209999084472656</v>
+        <v>80.260002136230469</v>
       </c>
       <c r="G22">
-        <v>18033.330078125</v>
+        <v>8921.91015625</v>
       </c>
       <c r="H22">
-        <v>1.1113210916519169</v>
+        <v>1.4063905477523799</v>
       </c>
       <c r="I22">
-        <v>6946.2998046875</v>
+        <v>4309.10009765625</v>
       </c>
       <c r="J22">
-        <v>1203.099975585938</v>
+        <v>854.4000244140625</v>
       </c>
       <c r="K22">
-        <v>14528.5302734375</v>
+        <v>8339.099609375</v>
       </c>
       <c r="L22">
-        <v>4996.990234375</v>
+        <v>1568.880004882812</v>
       </c>
       <c r="M22">
-        <v>19847.5</v>
+        <v>8658.2197265625</v>
       </c>
       <c r="N22">
-        <v>58.549999237060547</v>
+        <v>43.75</v>
       </c>
       <c r="O22">
-        <v>2105.52001953125</v>
+        <v>908.15997314453125</v>
       </c>
       <c r="P22">
-        <v>3609.510009765625</v>
+        <v>2468.39990234375</v>
       </c>
       <c r="Q22">
-        <v>397.42999267578119</v>
+        <v>199.6499938964844</v>
       </c>
       <c r="R22">
-        <v>2.033999919891357</v>
+        <v>2.1670000553131099</v>
       </c>
       <c r="S22">
-        <v>1.419000029563904</v>
+        <v>1.296000003814697</v>
       </c>
       <c r="T22">
-        <v>6.1901998519897461</v>
+        <v>6.8350000381469727</v>
       </c>
       <c r="U22">
-        <v>118.9759979248047</v>
+        <v>88.669998168945313</v>
       </c>
       <c r="V22">
-        <v>13.89000034332275</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B23">
-        <v>39</v>
+        <v>22.5</v>
       </c>
       <c r="C23">
-        <v>61</v>
+        <v>77.5</v>
       </c>
       <c r="D23">
-        <v>3262.360107421875</v>
+        <v>3281.820068359375</v>
       </c>
       <c r="E23">
-        <v>4954.35009765625</v>
+        <v>4768.7099609375</v>
       </c>
       <c r="F23">
-        <v>82.089996337890625</v>
+        <v>80.260002136230469</v>
       </c>
       <c r="G23">
-        <v>8471.8203125</v>
+        <v>8921.91015625</v>
       </c>
       <c r="H23">
-        <v>1.3632335662841799</v>
+        <v>1.4063905477523799</v>
       </c>
       <c r="I23">
-        <v>4482.2998046875</v>
+        <v>4309.10009765625</v>
       </c>
       <c r="J23">
-        <v>933</v>
+        <v>854.4000244140625</v>
       </c>
       <c r="K23">
-        <v>10085.16015625</v>
+        <v>8339.099609375</v>
       </c>
       <c r="L23">
-        <v>1743.599975585938</v>
+        <v>1568.880004882812</v>
       </c>
       <c r="M23">
-        <v>9372.7197265625</v>
+        <v>8658.2197265625</v>
       </c>
       <c r="N23">
-        <v>60.180000305175781</v>
+        <v>43.75</v>
       </c>
       <c r="O23">
-        <v>908.6199951171875</v>
+        <v>908.15997314453125</v>
       </c>
       <c r="P23">
-        <v>2454.800048828125</v>
+        <v>2468.39990234375</v>
       </c>
       <c r="Q23">
-        <v>210.36000061035159</v>
+        <v>199.6499938964844</v>
       </c>
       <c r="R23">
-        <v>3.2279999256134029</v>
+        <v>2.1670000553131099</v>
       </c>
       <c r="S23">
-        <v>2.0789999961853032</v>
+        <v>1.296000003814697</v>
       </c>
       <c r="T23">
-        <v>6.8148999214172363</v>
+        <v>6.8350000381469727</v>
       </c>
       <c r="U23">
-        <v>96.110000610351563</v>
+        <v>88.669998168945313</v>
       </c>
       <c r="V23">
-        <v>27.469999313354489</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B24">
-        <v>38.5</v>
+        <v>23</v>
       </c>
       <c r="C24">
-        <v>61.5</v>
+        <v>77</v>
       </c>
       <c r="D24">
-        <v>3536.800048828125</v>
+        <v>4486.759765625</v>
       </c>
       <c r="E24">
-        <v>4882.7998046875</v>
+        <v>10300.259765625</v>
       </c>
       <c r="F24">
-        <v>83.110000610351563</v>
+        <v>92.889999389648438</v>
       </c>
       <c r="G24">
-        <v>9262.7998046875</v>
+        <v>17557.2890625</v>
       </c>
       <c r="H24">
-        <v>1.3313983678817749</v>
+        <v>1.1616965532302861</v>
       </c>
       <c r="I24">
-        <v>4282.7001953125</v>
+        <v>6728</v>
       </c>
       <c r="J24">
-        <v>793.70001220703125</v>
+        <v>1293.199951171875</v>
       </c>
       <c r="K24">
-        <v>7620.68994140625</v>
+        <v>12091.4697265625</v>
       </c>
       <c r="L24">
-        <v>1741.839965820312</v>
+        <v>4690.93017578125</v>
       </c>
       <c r="M24">
-        <v>9139.259765625</v>
+        <v>17306.640625</v>
       </c>
       <c r="N24">
-        <v>75.620002746582031</v>
+        <v>47.349998474121087</v>
       </c>
       <c r="O24">
-        <v>980.4000244140625</v>
+        <v>2034.300048828125</v>
       </c>
       <c r="P24">
-        <v>2624.530029296875</v>
+        <v>3270.39990234375</v>
       </c>
       <c r="Q24">
-        <v>223.16999816894531</v>
+        <v>358.92001342773438</v>
       </c>
       <c r="R24">
-        <v>3.8210000991821289</v>
+        <v>1.939000010490417</v>
       </c>
       <c r="S24">
-        <v>2.7269999980926509</v>
+        <v>1.406000018119812</v>
       </c>
       <c r="T24">
-        <v>6.819699764251709</v>
+        <v>6.2017002105712891</v>
       </c>
       <c r="U24">
-        <v>101.9619979858398</v>
+        <v>117.8399963378906</v>
       </c>
       <c r="V24">
-        <v>52.950000762939453</v>
+        <v>17.979999542236332</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B25">
-        <v>38</v>
+        <v>23.5</v>
       </c>
       <c r="C25">
-        <v>62</v>
+        <v>76.5</v>
       </c>
       <c r="D25">
-        <v>3084.159912109375</v>
+        <v>4486.759765625</v>
       </c>
       <c r="E25">
-        <v>5607.509765625</v>
+        <v>10300.259765625</v>
       </c>
       <c r="F25">
-        <v>76.30999755859375</v>
+        <v>92.889999389648438</v>
       </c>
       <c r="G25">
-        <v>11433.7099609375</v>
+        <v>17557.2890625</v>
       </c>
       <c r="H25">
-        <v>1.386731743812561</v>
+        <v>1.1616965532302861</v>
       </c>
       <c r="I25">
-        <v>5337.5</v>
+        <v>6728</v>
       </c>
       <c r="J25">
-        <v>1768.5</v>
+        <v>1293.199951171875</v>
       </c>
       <c r="K25">
-        <v>10258.3798828125</v>
+        <v>12091.4697265625</v>
       </c>
       <c r="L25">
-        <v>2607.1201171875</v>
+        <v>4690.93017578125</v>
       </c>
       <c r="M25">
-        <v>8785.2802734375</v>
+        <v>17306.640625</v>
       </c>
       <c r="N25">
-        <v>89.110000610351563</v>
+        <v>47.349998474121087</v>
       </c>
       <c r="O25">
-        <v>1209.2099609375</v>
+        <v>2034.300048828125</v>
       </c>
       <c r="P25">
-        <v>2172.72998046875</v>
+        <v>3270.39990234375</v>
       </c>
       <c r="Q25">
-        <v>228.75999450683591</v>
+        <v>358.92001342773438</v>
       </c>
       <c r="R25">
-        <v>2.0859999656677251</v>
+        <v>1.939000010490417</v>
       </c>
       <c r="S25">
-        <v>0.94800001382827759</v>
+        <v>1.406000018119812</v>
       </c>
       <c r="T25">
-        <v>6.3738999366760254</v>
+        <v>6.2017002105712891</v>
       </c>
       <c r="U25">
-        <v>76.722000122070313</v>
+        <v>117.8399963378906</v>
       </c>
       <c r="V25">
-        <v>31.809999465942379</v>
+        <v>17.979999542236332</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26">
         <v>24</v>
       </c>
-      <c r="B26">
-        <v>37.5</v>
-      </c>
       <c r="C26">
-        <v>62.5</v>
+        <v>76</v>
       </c>
       <c r="D26">
-        <v>3258.25</v>
+        <v>4465.47998046875</v>
       </c>
       <c r="E26">
-        <v>4718.39013671875</v>
+        <v>9805.7197265625</v>
       </c>
       <c r="F26">
-        <v>83.709999084472656</v>
+        <v>94.860000610351563</v>
       </c>
       <c r="G26">
-        <v>8628.8095703125</v>
+        <v>16459.75</v>
       </c>
       <c r="H26">
-        <v>1.3439956903457639</v>
+        <v>1.1377987861633301</v>
       </c>
       <c r="I26">
-        <v>4280.39990234375</v>
+        <v>6187.7001953125</v>
       </c>
       <c r="J26">
-        <v>828</v>
+        <v>1164</v>
       </c>
       <c r="K26">
-        <v>8272.8798828125</v>
+        <v>9797.3798828125</v>
       </c>
       <c r="L26">
-        <v>1544.160034179688</v>
+        <v>4351.60986328125</v>
       </c>
       <c r="M26">
-        <v>8349.849609375</v>
+        <v>19075.05078125</v>
       </c>
       <c r="N26">
-        <v>46.770000457763672</v>
+        <v>40.299999237060547</v>
       </c>
       <c r="O26">
-        <v>881.07000732421875</v>
+        <v>1965.150024414062</v>
       </c>
       <c r="P26">
-        <v>2439.719970703125</v>
+        <v>3174.929931640625</v>
       </c>
       <c r="Q26">
-        <v>199.0899963378906</v>
+        <v>353.54998779296881</v>
       </c>
       <c r="R26">
-        <v>2.5820000171661381</v>
+        <v>1.9769999980926509</v>
       </c>
       <c r="S26">
-        <v>1.5659999847412109</v>
+        <v>1.3689999580383301</v>
       </c>
       <c r="T26">
-        <v>6.8362998962402344</v>
+        <v>6.3789000511169434</v>
       </c>
       <c r="U26">
-        <v>90.720001220703125</v>
+        <v>121.74400329589839</v>
       </c>
       <c r="V26">
-        <v>55.680000305175781</v>
+        <v>28.030000686645511</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B27">
-        <v>37</v>
+        <v>24.5</v>
       </c>
       <c r="C27">
-        <v>63</v>
+        <v>75.5</v>
       </c>
       <c r="D27">
-        <v>3380.010009765625</v>
+        <v>4355.52001953125</v>
       </c>
       <c r="E27">
-        <v>4739.740234375</v>
+        <v>6262.33984375</v>
       </c>
       <c r="F27">
-        <v>84.400001525878906</v>
+        <v>78.720001220703125</v>
       </c>
       <c r="G27">
-        <v>9027.83984375</v>
+        <v>11224.8701171875</v>
       </c>
       <c r="H27">
-        <v>1.3059432506561279</v>
+        <v>1.504890918731689</v>
       </c>
       <c r="I27">
-        <v>4229.7001953125</v>
+        <v>5240.7001953125</v>
       </c>
       <c r="J27">
-        <v>771.70001220703125</v>
+        <v>811</v>
       </c>
       <c r="K27">
-        <v>7188.93017578125</v>
+        <v>11239.08984375</v>
       </c>
       <c r="L27">
-        <v>1671.22998046875</v>
+        <v>2296.179931640625</v>
       </c>
       <c r="M27">
-        <v>9198.1396484375</v>
+        <v>12359.9296875</v>
       </c>
       <c r="N27">
-        <v>71.470001220703125</v>
+        <v>107.75</v>
       </c>
       <c r="O27">
-        <v>951.66998291015625</v>
+        <v>1249.5</v>
       </c>
       <c r="P27">
-        <v>2574.669921875</v>
+        <v>3215.43994140625</v>
       </c>
       <c r="Q27">
-        <v>219.19999694824219</v>
+        <v>274.3800048828125</v>
       </c>
       <c r="R27">
-        <v>3.655999898910522</v>
+        <v>3.7899999618530269</v>
       </c>
       <c r="S27">
-        <v>2.5769999027252202</v>
+        <v>3.125</v>
       </c>
       <c r="T27">
-        <v>6.8235001564025879</v>
+        <v>6.8260002136230469</v>
       </c>
       <c r="U27">
-        <v>100.3300018310547</v>
+        <v>108.48000335693359</v>
       </c>
       <c r="V27">
-        <v>63.119998931884773</v>
+        <v>22.219999313354489</v>
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="B28">
-        <v>36.5</v>
+        <v>25</v>
       </c>
       <c r="C28">
-        <v>63.5</v>
+        <v>75</v>
       </c>
       <c r="D28">
-        <v>3567.989990234375</v>
+        <v>4355.52001953125</v>
       </c>
       <c r="E28">
-        <v>6081.47021484375</v>
+        <v>6262.33984375</v>
       </c>
       <c r="F28">
-        <v>87.220001220703125</v>
+        <v>78.720001220703125</v>
       </c>
       <c r="G28">
-        <v>10249.6103515625</v>
+        <v>11224.8701171875</v>
       </c>
       <c r="H28">
-        <v>1.217092871665955</v>
+        <v>1.504890918731689</v>
       </c>
       <c r="I28">
-        <v>5211.2001953125</v>
+        <v>5240.7001953125</v>
       </c>
       <c r="J28">
-        <v>1207.599975585938</v>
+        <v>811</v>
       </c>
       <c r="K28">
-        <v>11373.580078125</v>
+        <v>11239.08984375</v>
       </c>
       <c r="L28">
-        <v>2257.050048828125</v>
+        <v>2296.179931640625</v>
       </c>
       <c r="M28">
-        <v>9909.240234375</v>
+        <v>12359.9296875</v>
       </c>
       <c r="N28">
-        <v>74.610000610351563</v>
+        <v>107.75</v>
       </c>
       <c r="O28">
-        <v>1098.430053710938</v>
+        <v>1249.5</v>
       </c>
       <c r="P28">
-        <v>2638.2099609375</v>
+        <v>3215.43994140625</v>
       </c>
       <c r="Q28">
-        <v>249.3699951171875</v>
+        <v>274.3800048828125</v>
       </c>
       <c r="R28">
-        <v>3.3380000591278081</v>
+        <v>3.7899999618530269</v>
       </c>
       <c r="S28">
-        <v>2.1070001125335689</v>
+        <v>3.125</v>
       </c>
       <c r="T28">
-        <v>6.8193001747131348</v>
+        <v>6.8260002136230469</v>
       </c>
       <c r="U28">
-        <v>92.593002319335938</v>
+        <v>108.48000335693359</v>
       </c>
       <c r="V28">
-        <v>32.930000305175781</v>
+        <v>22.219999313354489</v>
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="B29">
-        <v>36</v>
+        <v>25.5</v>
       </c>
       <c r="C29">
-        <v>64</v>
+        <v>74.5</v>
       </c>
       <c r="D29">
-        <v>5502.6298828125</v>
+        <v>3186.429931640625</v>
       </c>
       <c r="E29">
-        <v>13241.2802734375</v>
+        <v>4663.35986328125</v>
       </c>
       <c r="F29">
-        <v>91.849998474121094</v>
+        <v>82.080001831054688</v>
       </c>
       <c r="G29">
-        <v>25638.390625</v>
+        <v>8565.650390625</v>
       </c>
       <c r="H29">
-        <v>1.2042099237442021</v>
+        <v>1.3696191310882571</v>
       </c>
       <c r="I29">
-        <v>7762.89990234375</v>
+        <v>4277.60009765625</v>
       </c>
       <c r="J29">
-        <v>1327.800048828125</v>
+        <v>839</v>
       </c>
       <c r="K29">
-        <v>12381.1396484375</v>
+        <v>8001.2001953125</v>
       </c>
       <c r="L29">
-        <v>7208.169921875</v>
+        <v>1526.06005859375</v>
       </c>
       <c r="M29">
-        <v>23719.66015625</v>
+        <v>8608.400390625</v>
       </c>
       <c r="N29">
-        <v>63.569999694824219</v>
+        <v>44.950000762939453</v>
       </c>
       <c r="O29">
-        <v>2770.179931640625</v>
+        <v>871.530029296875</v>
       </c>
       <c r="P29">
-        <v>3597.18994140625</v>
+        <v>2407</v>
       </c>
       <c r="Q29">
-        <v>397.42001342773438</v>
+        <v>197.1499938964844</v>
       </c>
       <c r="R29">
-        <v>2.5480000972747798</v>
+        <v>2.499000072479248</v>
       </c>
       <c r="S29">
-        <v>2.3329999446868901</v>
+        <v>1.4859999418258669</v>
       </c>
       <c r="T29">
-        <v>6.4952998161315918</v>
+        <v>6.8393001556396484</v>
       </c>
       <c r="U29">
-        <v>111.28900146484381</v>
+        <v>90.480003356933594</v>
       </c>
       <c r="V29">
-        <v>9.7399997711181641</v>
+        <v>56.759998321533203</v>
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="B30">
-        <v>35.5</v>
+        <v>26</v>
       </c>
       <c r="C30">
-        <v>64.5</v>
+        <v>74</v>
       </c>
       <c r="D30">
-        <v>4588.490234375</v>
+        <v>3186.429931640625</v>
       </c>
       <c r="E30">
-        <v>10503.330078125</v>
+        <v>4663.35986328125</v>
       </c>
       <c r="F30">
-        <v>94.209999084472656</v>
+        <v>82.080001831054688</v>
       </c>
       <c r="G30">
-        <v>17812.5</v>
+        <v>8565.650390625</v>
       </c>
       <c r="H30">
-        <v>1.13464879989624</v>
+        <v>1.3696191310882571</v>
       </c>
       <c r="I30">
-        <v>6796.60009765625</v>
+        <v>4277.60009765625</v>
       </c>
       <c r="J30">
-        <v>1299.800048828125</v>
+        <v>839</v>
       </c>
       <c r="K30">
-        <v>12223.4404296875</v>
+        <v>8001.2001953125</v>
       </c>
       <c r="L30">
-        <v>4748.18994140625</v>
+        <v>1526.06005859375</v>
       </c>
       <c r="M30">
-        <v>17520.630859375</v>
+        <v>8608.400390625</v>
       </c>
       <c r="N30">
-        <v>46.630001068115227</v>
+        <v>44.950000762939453</v>
       </c>
       <c r="O30">
-        <v>2062.97998046875</v>
+        <v>871.530029296875</v>
       </c>
       <c r="P30">
-        <v>3345.449951171875</v>
+        <v>2407</v>
       </c>
       <c r="Q30">
-        <v>365.5</v>
+        <v>197.1499938964844</v>
       </c>
       <c r="R30">
-        <v>1.820000052452087</v>
+        <v>2.499000072479248</v>
       </c>
       <c r="S30">
-        <v>1.327999949455261</v>
+        <v>1.4859999418258669</v>
       </c>
       <c r="T30">
-        <v>6.1989998817443848</v>
+        <v>6.8393001556396484</v>
       </c>
       <c r="U30">
-        <v>118.7099990844727</v>
+        <v>90.480003356933594</v>
       </c>
       <c r="V30">
-        <v>16.79000091552734</v>
+        <v>56.759998321533203</v>
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B31">
-        <v>35</v>
+        <v>26.5</v>
       </c>
       <c r="C31">
-        <v>65</v>
+        <v>73.5</v>
       </c>
       <c r="D31">
-        <v>4465.47998046875</v>
+        <v>3536.800048828125</v>
       </c>
       <c r="E31">
-        <v>9805.7197265625</v>
+        <v>4882.7998046875</v>
       </c>
       <c r="F31">
-        <v>94.860000610351563</v>
+        <v>83.110000610351563</v>
       </c>
       <c r="G31">
-        <v>16459.75</v>
+        <v>9262.7998046875</v>
       </c>
       <c r="H31">
-        <v>1.1377987861633301</v>
+        <v>1.3313983678817749</v>
       </c>
       <c r="I31">
-        <v>6187.7001953125</v>
+        <v>4282.7001953125</v>
       </c>
       <c r="J31">
-        <v>1164</v>
+        <v>793.70001220703125</v>
       </c>
       <c r="K31">
-        <v>9797.3798828125</v>
+        <v>7620.68994140625</v>
       </c>
       <c r="L31">
-        <v>4351.60986328125</v>
+        <v>1741.839965820312</v>
       </c>
       <c r="M31">
-        <v>19075.05078125</v>
+        <v>9139.259765625</v>
       </c>
       <c r="N31">
-        <v>40.299999237060547</v>
+        <v>75.620002746582031</v>
       </c>
       <c r="O31">
-        <v>1965.150024414062</v>
+        <v>980.4000244140625</v>
       </c>
       <c r="P31">
-        <v>3174.929931640625</v>
+        <v>2624.530029296875</v>
       </c>
       <c r="Q31">
-        <v>353.54998779296881</v>
+        <v>223.16999816894531</v>
       </c>
       <c r="R31">
-        <v>1.9769999980926509</v>
+        <v>3.8210000991821289</v>
       </c>
       <c r="S31">
-        <v>1.3689999580383301</v>
+        <v>2.7269999980926509</v>
       </c>
       <c r="T31">
-        <v>6.3789000511169434</v>
+        <v>6.819699764251709</v>
       </c>
       <c r="U31">
-        <v>121.74400329589839</v>
+        <v>101.9619979858398</v>
       </c>
       <c r="V31">
-        <v>28.030000686645511</v>
+        <v>52.950000762939453</v>
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="B32">
-        <v>34.5</v>
+        <v>27</v>
       </c>
       <c r="C32">
-        <v>65.5</v>
+        <v>73</v>
       </c>
       <c r="D32">
-        <v>4953.68017578125</v>
+        <v>3536.800048828125</v>
       </c>
       <c r="E32">
-        <v>11513.8896484375</v>
+        <v>4882.7998046875</v>
       </c>
       <c r="F32">
-        <v>96.360000610351563</v>
+        <v>83.110000610351563</v>
       </c>
       <c r="G32">
-        <v>18135.720703125</v>
+        <v>9262.7998046875</v>
       </c>
       <c r="H32">
-        <v>1.1033996343612671</v>
+        <v>1.3313983678817749</v>
       </c>
       <c r="I32">
-        <v>6961.10009765625</v>
+        <v>4282.7001953125</v>
       </c>
       <c r="J32">
-        <v>1195</v>
+        <v>793.70001220703125</v>
       </c>
       <c r="K32">
-        <v>11619.919921875</v>
+        <v>7620.68994140625</v>
       </c>
       <c r="L32">
-        <v>4967.240234375</v>
+        <v>1741.839965820312</v>
       </c>
       <c r="M32">
-        <v>18814.849609375</v>
+        <v>9139.259765625</v>
       </c>
       <c r="N32">
-        <v>50.889999389648438</v>
+        <v>75.620002746582031</v>
       </c>
       <c r="O32">
-        <v>2100.909912109375</v>
+        <v>980.4000244140625</v>
       </c>
       <c r="P32">
-        <v>3615</v>
+        <v>2624.530029296875</v>
       </c>
       <c r="Q32">
-        <v>393.6300048828125</v>
+        <v>223.16999816894531</v>
       </c>
       <c r="R32">
-        <v>2.1099998950958252</v>
+        <v>3.8210000991821289</v>
       </c>
       <c r="S32">
-        <v>1.557999968528748</v>
+        <v>2.7269999980926509</v>
       </c>
       <c r="T32">
-        <v>6.2574000358581543</v>
+        <v>6.819699764251709</v>
       </c>
       <c r="U32">
-        <v>120.0660018920898</v>
+        <v>101.9619979858398</v>
       </c>
       <c r="V32">
-        <v>14.60999965667725</v>
+        <v>52.950000762939453</v>
       </c>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="B33">
-        <v>34</v>
+        <v>27.5</v>
       </c>
       <c r="C33">
-        <v>66</v>
+        <v>72.5</v>
       </c>
       <c r="D33">
-        <v>4409.16015625</v>
+        <v>4465.47998046875</v>
       </c>
       <c r="E33">
-        <v>9591.4296875</v>
+        <v>9805.7197265625</v>
       </c>
       <c r="F33">
-        <v>82.839996337890625</v>
+        <v>94.860000610351563</v>
       </c>
       <c r="G33">
-        <v>17083.609375</v>
+        <v>16459.75</v>
       </c>
       <c r="H33">
-        <v>1.314924359321594</v>
+        <v>1.1377987861633301</v>
       </c>
       <c r="I33">
-        <v>6873.60009765625</v>
+        <v>6187.7001953125</v>
       </c>
       <c r="J33">
-        <v>1268.699951171875</v>
+        <v>1164</v>
       </c>
       <c r="K33">
-        <v>11317.6796875</v>
+        <v>9797.3798828125</v>
       </c>
       <c r="L33">
-        <v>4581.52001953125</v>
+        <v>4351.60986328125</v>
       </c>
       <c r="M33">
-        <v>15701.6103515625</v>
+        <v>19075.05078125</v>
       </c>
       <c r="N33">
-        <v>95.069999694824219</v>
+        <v>40.299999237060547</v>
       </c>
       <c r="O33">
-        <v>2001.670043945312</v>
+        <v>1965.150024414062</v>
       </c>
       <c r="P33">
-        <v>3209.10009765625</v>
+        <v>3174.929931640625</v>
       </c>
       <c r="Q33">
-        <v>344.48001098632813</v>
+        <v>353.54998779296881</v>
       </c>
       <c r="R33">
-        <v>2.4000000953674321</v>
+        <v>1.9769999980926509</v>
       </c>
       <c r="S33">
-        <v>1.6640000343322749</v>
+        <v>1.3689999580383301</v>
       </c>
       <c r="T33">
-        <v>6.1311001777648926</v>
+        <v>6.3789000511169434</v>
       </c>
       <c r="U33">
-        <v>104.87400054931641</v>
+        <v>121.74400329589839</v>
       </c>
       <c r="V33">
-        <v>12.39999961853027</v>
+        <v>28.030000686645511</v>
       </c>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="B34">
-        <v>33.5</v>
+        <v>28</v>
       </c>
       <c r="C34">
-        <v>66.5</v>
+        <v>72</v>
       </c>
       <c r="D34">
-        <v>3601.3798828125</v>
+        <v>2805.139892578125</v>
       </c>
       <c r="E34">
-        <v>6144.080078125</v>
+        <v>4024.179931640625</v>
       </c>
       <c r="F34">
-        <v>86.220001220703125</v>
+        <v>86.80999755859375</v>
       </c>
       <c r="G34">
-        <v>10625.4501953125</v>
+        <v>7395.7001953125</v>
       </c>
       <c r="H34">
-        <v>1.2391266822814939</v>
+        <v>1.3034070730209351</v>
       </c>
       <c r="I34">
-        <v>5262.5</v>
+        <v>3857.10009765625</v>
       </c>
       <c r="J34">
-        <v>1214.300048828125</v>
+        <v>915.4000244140625</v>
       </c>
       <c r="K34">
-        <v>11280.7900390625</v>
+        <v>7643.240234375</v>
       </c>
       <c r="L34">
-        <v>2372.840087890625</v>
+        <v>1454.43994140625</v>
       </c>
       <c r="M34">
-        <v>10313.1396484375</v>
+        <v>8006.85986328125</v>
       </c>
       <c r="N34">
-        <v>70.5</v>
+        <v>48.669998168945313</v>
       </c>
       <c r="O34">
-        <v>1138.780029296875</v>
+        <v>776.010009765625</v>
       </c>
       <c r="P34">
-        <v>2655.8701171875</v>
+        <v>2021.449951171875</v>
       </c>
       <c r="Q34">
-        <v>248.08000183105469</v>
+        <v>172.22999572753909</v>
       </c>
       <c r="R34">
-        <v>3.4869999885559082</v>
+        <v>3.0069999694824219</v>
       </c>
       <c r="S34">
-        <v>2.2070000171661381</v>
+        <v>1.973000049591064</v>
       </c>
       <c r="T34">
-        <v>6.8175997734069824</v>
+        <v>6.8270998001098633</v>
       </c>
       <c r="U34">
-        <v>92.529998779296875</v>
+        <v>98.769996643066406</v>
       </c>
       <c r="V34">
-        <v>28.670000076293949</v>
+        <v>41.139999389648438</v>
       </c>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="B35">
-        <v>33</v>
+        <v>28.5</v>
       </c>
       <c r="C35">
-        <v>67</v>
+        <v>71.5</v>
       </c>
       <c r="D35">
-        <v>4293.89990234375</v>
+        <v>3561.10009765625</v>
       </c>
       <c r="E35">
-        <v>9883.099609375</v>
+        <v>5237.10986328125</v>
       </c>
       <c r="F35">
-        <v>90.19000244140625</v>
+        <v>81.199996948242188</v>
       </c>
       <c r="G35">
-        <v>18035.01953125</v>
+        <v>9437.23046875</v>
       </c>
       <c r="H35">
-        <v>1.215495109558105</v>
+        <v>1.5050041675567629</v>
       </c>
       <c r="I35">
-        <v>6633.5</v>
+        <v>4605.2001953125</v>
       </c>
       <c r="J35">
-        <v>1181.400024414062</v>
+        <v>879.70001220703125</v>
       </c>
       <c r="K35">
-        <v>12074.33984375</v>
+        <v>7935.4501953125</v>
       </c>
       <c r="L35">
-        <v>4793.60986328125</v>
+        <v>1710.9599609375</v>
       </c>
       <c r="M35">
-        <v>17702.119140625</v>
+        <v>10011.6396484375</v>
       </c>
       <c r="N35">
-        <v>53.720001220703118</v>
+        <v>89.55999755859375</v>
       </c>
       <c r="O35">
-        <v>2088.489990234375</v>
+        <v>988.90997314453125</v>
       </c>
       <c r="P35">
-        <v>3171.199951171875</v>
+        <v>2853.699951171875</v>
       </c>
       <c r="Q35">
-        <v>343.6400146484375</v>
+        <v>239.44999694824219</v>
       </c>
       <c r="R35">
-        <v>2.190000057220459</v>
+        <v>3.473000049591064</v>
       </c>
       <c r="S35">
-        <v>1.692000031471252</v>
+        <v>2.4179999828338619</v>
       </c>
       <c r="T35">
-        <v>6.2125000953674316</v>
+        <v>6.8052000999450684</v>
       </c>
       <c r="U35">
-        <v>120.620002746582</v>
+        <v>110.19000244140619</v>
       </c>
       <c r="V35">
-        <v>15.89999961853027</v>
+        <v>53.680000305175781</v>
       </c>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="B36">
-        <v>32.5</v>
+        <v>29</v>
       </c>
       <c r="C36">
-        <v>67.5</v>
+        <v>71</v>
       </c>
       <c r="D36">
-        <v>3306.429931640625</v>
+        <v>3561.10009765625</v>
       </c>
       <c r="E36">
-        <v>4964.91015625</v>
+        <v>5237.10986328125</v>
       </c>
       <c r="F36">
-        <v>80.540000915527344</v>
+        <v>81.199996948242188</v>
       </c>
       <c r="G36">
-        <v>8404.0400390625</v>
+        <v>9437.23046875</v>
       </c>
       <c r="H36">
-        <v>1.39308750629425</v>
+        <v>1.5050041675567629</v>
       </c>
       <c r="I36">
-        <v>4387.5</v>
+        <v>4605.2001953125</v>
       </c>
       <c r="J36">
-        <v>959.20001220703125</v>
+        <v>879.70001220703125</v>
       </c>
       <c r="K36">
-        <v>10314.8095703125</v>
+        <v>7935.4501953125</v>
       </c>
       <c r="L36">
-        <v>1756.260009765625</v>
+        <v>1710.9599609375</v>
       </c>
       <c r="M36">
-        <v>9478.2099609375</v>
+        <v>10011.6396484375</v>
       </c>
       <c r="N36">
-        <v>64.769996643066406</v>
+        <v>89.55999755859375</v>
       </c>
       <c r="O36">
-        <v>907.02001953125</v>
+        <v>988.90997314453125</v>
       </c>
       <c r="P36">
-        <v>2473.449951171875</v>
+        <v>2853.699951171875</v>
       </c>
       <c r="Q36">
-        <v>209.24000549316409</v>
+        <v>239.44999694824219</v>
       </c>
       <c r="R36">
-        <v>3.628000020980835</v>
+        <v>3.473000049591064</v>
       </c>
       <c r="S36">
-        <v>2.4539999961853032</v>
+        <v>2.4179999828338619</v>
       </c>
       <c r="T36">
-        <v>6.8182997703552246</v>
+        <v>6.8052000999450684</v>
       </c>
       <c r="U36">
-        <v>96.800003051757813</v>
+        <v>110.19000244140619</v>
       </c>
       <c r="V36">
-        <v>31.670000076293949</v>
+        <v>53.680000305175781</v>
       </c>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="B37">
-        <v>32</v>
+        <v>29.5</v>
       </c>
       <c r="C37">
-        <v>68</v>
+        <v>70.5</v>
       </c>
       <c r="D37">
-        <v>4444.47021484375</v>
+        <v>4432.009765625</v>
       </c>
       <c r="E37">
-        <v>6477.2001953125</v>
+        <v>6537.5400390625</v>
       </c>
       <c r="F37">
-        <v>78.069999694824219</v>
+        <v>74.529998779296875</v>
       </c>
       <c r="G37">
-        <v>11532.48046875</v>
+        <v>11432.08984375</v>
       </c>
       <c r="H37">
-        <v>1.4486455917358401</v>
+        <v>1.5334130525588989</v>
       </c>
       <c r="I37">
-        <v>5499.7001953125</v>
+        <v>5477.5</v>
       </c>
       <c r="J37">
-        <v>801.4000244140625</v>
+        <v>868.79998779296875</v>
       </c>
       <c r="K37">
-        <v>11077.2802734375</v>
+        <v>11877.41015625</v>
       </c>
       <c r="L37">
-        <v>2315.179931640625</v>
+        <v>2356.840087890625</v>
       </c>
       <c r="M37">
-        <v>12627.6396484375</v>
+        <v>13026.5302734375</v>
       </c>
       <c r="N37">
-        <v>109.40000152587891</v>
+        <v>119.90000152587891</v>
       </c>
       <c r="O37">
-        <v>1271.800048828125</v>
+        <v>1266.2900390625</v>
       </c>
       <c r="P37">
-        <v>3371.080078125</v>
+        <v>3384.02001953125</v>
       </c>
       <c r="Q37">
-        <v>285.58999633789063</v>
+        <v>286.35000610351563</v>
       </c>
       <c r="R37">
-        <v>3.6930000782012939</v>
+        <v>3.9470000267028809</v>
       </c>
       <c r="S37">
-        <v>2.934999942779541</v>
+        <v>3.1689999103546138</v>
       </c>
       <c r="T37">
-        <v>6.833899974822998</v>
+        <v>6.8667998313903809</v>
       </c>
       <c r="U37">
-        <v>108.3399963378906</v>
+        <v>109.4199981689453</v>
       </c>
       <c r="V37">
-        <v>22.020000457763668</v>
+        <v>21.14999961853027</v>
       </c>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="B38">
-        <v>31.5</v>
+        <v>30</v>
       </c>
       <c r="C38">
-        <v>68.5</v>
+        <v>70</v>
       </c>
       <c r="D38">
-        <v>4900.3701171875</v>
+        <v>4432.009765625</v>
       </c>
       <c r="E38">
-        <v>11531.5498046875</v>
+        <v>6537.5400390625</v>
       </c>
       <c r="F38">
-        <v>98.650001525878906</v>
+        <v>74.529998779296875</v>
       </c>
       <c r="G38">
-        <v>17662.939453125</v>
+        <v>11432.08984375</v>
       </c>
       <c r="H38">
-        <v>1.0709390640258789</v>
+        <v>1.5334130525588989</v>
       </c>
       <c r="I38">
-        <v>6702.7998046875</v>
+        <v>5477.5</v>
       </c>
       <c r="J38">
-        <v>1162</v>
+        <v>868.79998779296875</v>
       </c>
       <c r="K38">
-        <v>11468.01953125</v>
+        <v>11877.41015625</v>
       </c>
       <c r="L38">
-        <v>4866.93994140625</v>
+        <v>2356.840087890625</v>
       </c>
       <c r="M38">
-        <v>18604.869140625</v>
+        <v>13026.5302734375</v>
       </c>
       <c r="N38">
-        <v>48.770000457763672</v>
+        <v>119.90000152587891</v>
       </c>
       <c r="O38">
-        <v>2044.68994140625</v>
+        <v>1266.2900390625</v>
       </c>
       <c r="P38">
-        <v>3574.97998046875</v>
+        <v>3384.02001953125</v>
       </c>
       <c r="Q38">
-        <v>390.57000732421881</v>
+        <v>286.35000610351563</v>
       </c>
       <c r="R38">
-        <v>2.151000022888184</v>
+        <v>3.9470000267028809</v>
       </c>
       <c r="S38">
-        <v>1.638000011444092</v>
+        <v>3.1689999103546138</v>
       </c>
       <c r="T38">
-        <v>6.2519998550415039</v>
+        <v>6.8667998313903809</v>
       </c>
       <c r="U38">
-        <v>121.05999755859381</v>
+        <v>109.4199981689453</v>
       </c>
       <c r="V38">
-        <v>16.440000534057621</v>
+        <v>21.14999961853027</v>
       </c>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="B39">
-        <v>31</v>
+        <v>30.5</v>
       </c>
       <c r="C39">
-        <v>69</v>
+        <v>69.5</v>
       </c>
       <c r="D39">
-        <v>3583.75</v>
+        <v>2805.139892578125</v>
       </c>
       <c r="E39">
-        <v>5919.93994140625</v>
+        <v>4024.179931640625</v>
       </c>
       <c r="F39">
-        <v>84.160003662109375</v>
+        <v>86.80999755859375</v>
       </c>
       <c r="G39">
-        <v>10868.1201171875</v>
+        <v>7395.7001953125</v>
       </c>
       <c r="H39">
-        <v>1.2815911769866939</v>
+        <v>1.3034070730209351</v>
       </c>
       <c r="I39">
-        <v>5341.89990234375</v>
+        <v>3857.10009765625</v>
       </c>
       <c r="J39">
-        <v>1196.900024414062</v>
+        <v>915.4000244140625</v>
       </c>
       <c r="K39">
-        <v>11476.75</v>
+        <v>7643.240234375</v>
       </c>
       <c r="L39">
-        <v>2391.2099609375</v>
+        <v>1454.43994140625</v>
       </c>
       <c r="M39">
-        <v>10847.900390625</v>
+        <v>8006.85986328125</v>
       </c>
       <c r="N39">
-        <v>79.629997253417969</v>
+        <v>48.669998168945313</v>
       </c>
       <c r="O39">
-        <v>1164.380004882812</v>
+        <v>776.010009765625</v>
       </c>
       <c r="P39">
-        <v>2656.330078125</v>
+        <v>2021.449951171875</v>
       </c>
       <c r="Q39">
-        <v>249.4100036621094</v>
+        <v>172.22999572753909</v>
       </c>
       <c r="R39">
-        <v>3.5750000476837158</v>
+        <v>3.0069999694824219</v>
       </c>
       <c r="S39">
-        <v>2.312999963760376</v>
+        <v>1.973000049591064</v>
       </c>
       <c r="T39">
-        <v>6.8168001174926758</v>
+        <v>6.8270998001098633</v>
       </c>
       <c r="U39">
-        <v>93.768997192382813</v>
+        <v>98.769996643066406</v>
       </c>
       <c r="V39">
-        <v>25.879999160766602</v>
+        <v>41.139999389648438</v>
       </c>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B40">
-        <v>30.5</v>
+        <v>31</v>
       </c>
       <c r="C40">
-        <v>69.5</v>
+        <v>69</v>
       </c>
       <c r="D40">
-        <v>5253.81982421875</v>
+        <v>3064.93994140625</v>
       </c>
       <c r="E40">
-        <v>11694.5595703125</v>
+        <v>5383.6298828125</v>
       </c>
       <c r="F40">
-        <v>96.610000610351563</v>
+        <v>76.160003662109375</v>
       </c>
       <c r="G40">
-        <v>25457.2109375</v>
+        <v>11294.599609375</v>
       </c>
       <c r="H40">
-        <v>1.122384905815125</v>
+        <v>1.3903951644897461</v>
       </c>
       <c r="I40">
-        <v>6705.39990234375</v>
+        <v>5340.39990234375</v>
       </c>
       <c r="J40">
-        <v>1670.800048828125</v>
+        <v>1858.099975585938</v>
       </c>
       <c r="K40">
-        <v>10558.7197265625</v>
+        <v>10544.6201171875</v>
       </c>
       <c r="L40">
-        <v>8469.01953125</v>
+        <v>2508.1201171875</v>
       </c>
       <c r="M40">
-        <v>21009.80078125</v>
+        <v>8739.490234375</v>
       </c>
       <c r="N40">
-        <v>46.090000152587891</v>
+        <v>88.769996643066406</v>
       </c>
       <c r="O40">
-        <v>2954.199951171875</v>
+        <v>1185.369995117188</v>
       </c>
       <c r="P40">
-        <v>3347.830078125</v>
+        <v>2154.199951171875</v>
       </c>
       <c r="Q40">
-        <v>378.33999633789063</v>
+        <v>229.80999755859381</v>
       </c>
       <c r="R40">
-        <v>0.71399998664855957</v>
+        <v>2.0130000114440918</v>
       </c>
       <c r="S40">
-        <v>0.5339999794960022</v>
+        <v>0.88400000333786011</v>
       </c>
       <c r="T40">
-        <v>6.935999870300293</v>
+        <v>6.3776001930236816</v>
       </c>
       <c r="U40">
-        <v>106.26100158691411</v>
+        <v>77.501998901367188</v>
       </c>
       <c r="V40">
-        <v>48.930000305175781</v>
+        <v>35.529998779296882</v>
       </c>
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="B41">
-        <v>30</v>
+        <v>31.5</v>
       </c>
       <c r="C41">
-        <v>70</v>
+        <v>68.5</v>
       </c>
       <c r="D41">
-        <v>3781.739990234375</v>
+        <v>3064.93994140625</v>
       </c>
       <c r="E41">
-        <v>6281.06982421875</v>
+        <v>5383.6298828125</v>
       </c>
       <c r="F41">
-        <v>81.30999755859375</v>
+        <v>76.160003662109375</v>
       </c>
       <c r="G41">
-        <v>10753.3896484375</v>
+        <v>11294.599609375</v>
       </c>
       <c r="H41">
-        <v>1.3067454099655149</v>
+        <v>1.3903951644897461</v>
       </c>
       <c r="I41">
-        <v>5602.5</v>
+        <v>5340.39990234375</v>
       </c>
       <c r="J41">
-        <v>1272.400024414062</v>
+        <v>1858.099975585938</v>
       </c>
       <c r="K41">
-        <v>12240.240234375</v>
+        <v>10544.6201171875</v>
       </c>
       <c r="L41">
-        <v>2355.27001953125</v>
+        <v>2508.1201171875</v>
       </c>
       <c r="M41">
-        <v>9700.8798828125</v>
+        <v>8739.490234375</v>
       </c>
       <c r="N41">
-        <v>74.569999694824219</v>
+        <v>88.769996643066406</v>
       </c>
       <c r="O41">
-        <v>1142.819946289062</v>
+        <v>1185.369995117188</v>
       </c>
       <c r="P41">
-        <v>2799.77001953125</v>
+        <v>2154.199951171875</v>
       </c>
       <c r="Q41">
-        <v>266.10000610351563</v>
+        <v>229.80999755859381</v>
       </c>
       <c r="R41">
-        <v>2.6789999008178711</v>
+        <v>2.0130000114440918</v>
       </c>
       <c r="S41">
-        <v>1.391000032424927</v>
+        <v>0.88400000333786011</v>
       </c>
       <c r="T41">
-        <v>6.693699836730957</v>
+        <v>6.3776001930236816</v>
       </c>
       <c r="U41">
-        <v>85.720001220703125</v>
+        <v>77.501998901367188</v>
       </c>
       <c r="V41">
-        <v>21.54000091552734</v>
+        <v>35.529998779296882</v>
       </c>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="B42">
-        <v>29.5</v>
+        <v>32</v>
       </c>
       <c r="C42">
-        <v>70.5</v>
+        <v>68</v>
       </c>
       <c r="D42">
-        <v>4964.8798828125</v>
+        <v>3300.719970703125</v>
       </c>
       <c r="E42">
-        <v>10872.98046875</v>
+        <v>6222.75</v>
       </c>
       <c r="F42">
-        <v>97.949996948242188</v>
+        <v>76.290000915527344</v>
       </c>
       <c r="G42">
-        <v>17855.220703125</v>
+        <v>11872.0703125</v>
       </c>
       <c r="H42">
-        <v>1.088494658470154</v>
+        <v>1.3872126340866091</v>
       </c>
       <c r="I42">
-        <v>6364.89990234375</v>
+        <v>5553.2001953125</v>
       </c>
       <c r="J42">
-        <v>1105.199951171875</v>
+        <v>1717.800048828125</v>
       </c>
       <c r="K42">
-        <v>10545.3798828125</v>
+        <v>10096.4404296875</v>
       </c>
       <c r="L42">
-        <v>5124.0400390625</v>
+        <v>2720.590087890625</v>
       </c>
       <c r="M42">
-        <v>19194.33984375</v>
+        <v>8779.400390625</v>
       </c>
       <c r="N42">
-        <v>45.409999847412109</v>
+        <v>90.980003356933594</v>
       </c>
       <c r="O42">
-        <v>2098.60009765625</v>
+        <v>1243.969970703125</v>
       </c>
       <c r="P42">
-        <v>3440.340087890625</v>
+        <v>2361.679931640625</v>
       </c>
       <c r="Q42">
-        <v>378.010009765625</v>
+        <v>240.17999267578119</v>
       </c>
       <c r="R42">
-        <v>2.2290000915527339</v>
+        <v>2.2969999313354492</v>
       </c>
       <c r="S42">
-        <v>1.6310000419616699</v>
+        <v>1.1499999761581421</v>
       </c>
       <c r="T42">
-        <v>6.3362002372741699</v>
+        <v>6.3404998779296884</v>
       </c>
       <c r="U42">
-        <v>121.6949996948242</v>
+        <v>76.188003540039063</v>
       </c>
       <c r="V42">
-        <v>14.909999847412109</v>
+        <v>24.719999313354489</v>
       </c>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="B43">
-        <v>29</v>
+        <v>32.5</v>
       </c>
       <c r="C43">
-        <v>71</v>
+        <v>67.5</v>
       </c>
       <c r="D43">
-        <v>4375.3798828125</v>
+        <v>3300.719970703125</v>
       </c>
       <c r="E43">
-        <v>9446.8095703125</v>
+        <v>6222.75</v>
       </c>
       <c r="F43">
-        <v>85.610000610351563</v>
+        <v>76.290000915527344</v>
       </c>
       <c r="G43">
-        <v>17070.44921875</v>
+        <v>11872.0703125</v>
       </c>
       <c r="H43">
-        <v>1.2690999507904051</v>
+        <v>1.3872126340866091</v>
       </c>
       <c r="I43">
-        <v>6646.60009765625</v>
+        <v>5553.2001953125</v>
       </c>
       <c r="J43">
-        <v>1214.800048828125</v>
+        <v>1717.800048828125</v>
       </c>
       <c r="K43">
-        <v>10409.6796875</v>
+        <v>10096.4404296875</v>
       </c>
       <c r="L43">
-        <v>4512.64013671875</v>
+        <v>2720.590087890625</v>
       </c>
       <c r="M43">
-        <v>16252.7197265625</v>
+        <v>8779.400390625</v>
       </c>
       <c r="N43">
-        <v>94.339996337890625</v>
+        <v>90.980003356933594</v>
       </c>
       <c r="O43">
-        <v>1978.2099609375</v>
+        <v>1243.969970703125</v>
       </c>
       <c r="P43">
-        <v>3199.43994140625</v>
+        <v>2361.679931640625</v>
       </c>
       <c r="Q43">
-        <v>341.89999389648438</v>
+        <v>240.17999267578119</v>
       </c>
       <c r="R43">
-        <v>2.5039999485015869</v>
+        <v>2.2969999313354492</v>
       </c>
       <c r="S43">
-        <v>1.7779999971389771</v>
+        <v>1.1499999761581421</v>
       </c>
       <c r="T43">
-        <v>6.1399998664855957</v>
+        <v>6.3404998779296884</v>
       </c>
       <c r="U43">
-        <v>109.41200256347661</v>
+        <v>76.188003540039063</v>
       </c>
       <c r="V43">
-        <v>15.489999771118161</v>
+        <v>24.719999313354489</v>
       </c>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="B44">
-        <v>28.5</v>
+        <v>33</v>
       </c>
       <c r="C44">
-        <v>71.5</v>
+        <v>67</v>
       </c>
       <c r="D44">
-        <v>3035.3701171875</v>
+        <v>5040.509765625</v>
       </c>
       <c r="E44">
-        <v>4143.4501953125</v>
+        <v>11440.7900390625</v>
       </c>
       <c r="F44">
-        <v>86.319999694824219</v>
+        <v>95.209999084472656</v>
       </c>
       <c r="G44">
-        <v>8375.919921875</v>
+        <v>18033.330078125</v>
       </c>
       <c r="H44">
-        <v>1.263807058334351</v>
+        <v>1.1113210916519169</v>
       </c>
       <c r="I44">
-        <v>3883.39990234375</v>
+        <v>6946.2998046875</v>
       </c>
       <c r="J44">
-        <v>742.79998779296875</v>
+        <v>1203.099975585938</v>
       </c>
       <c r="K44">
-        <v>5699.02001953125</v>
+        <v>14528.5302734375</v>
       </c>
       <c r="L44">
-        <v>1528.119995117188</v>
+        <v>4996.990234375</v>
       </c>
       <c r="M44">
-        <v>7568.35986328125</v>
+        <v>19847.5</v>
       </c>
       <c r="N44">
-        <v>64.779998779296875</v>
+        <v>58.549999237060547</v>
       </c>
       <c r="O44">
-        <v>874.280029296875</v>
+        <v>2105.52001953125</v>
       </c>
       <c r="P44">
-        <v>2293.0400390625</v>
+        <v>3609.510009765625</v>
       </c>
       <c r="Q44">
-        <v>195.04200744628909</v>
+        <v>397.42999267578119</v>
       </c>
       <c r="R44">
-        <v>3.651999950408936</v>
+        <v>2.033999919891357</v>
       </c>
       <c r="S44">
-        <v>2.5490000247955318</v>
+        <v>1.419000029563904</v>
       </c>
       <c r="T44">
-        <v>6.8276000022888184</v>
+        <v>6.1901998519897461</v>
       </c>
       <c r="U44">
-        <v>93.680000305175781</v>
+        <v>118.9759979248047</v>
       </c>
       <c r="V44">
-        <v>79.129997253417969</v>
+        <v>13.89000034332275</v>
       </c>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="B45">
-        <v>28</v>
+        <v>33.5</v>
       </c>
       <c r="C45">
-        <v>72</v>
+        <v>66.5</v>
       </c>
       <c r="D45">
-        <v>4997.93994140625</v>
+        <v>5040.509765625</v>
       </c>
       <c r="E45">
-        <v>11845.900390625</v>
+        <v>11440.7900390625</v>
       </c>
       <c r="F45">
-        <v>99.19000244140625</v>
+        <v>95.209999084472656</v>
       </c>
       <c r="G45">
-        <v>17889.05078125</v>
+        <v>18033.330078125</v>
       </c>
       <c r="H45">
-        <v>1.0625976324081421</v>
+        <v>1.1113210916519169</v>
       </c>
       <c r="I45">
-        <v>6761.10009765625</v>
+        <v>6946.2998046875</v>
       </c>
       <c r="J45">
-        <v>1158.199951171875</v>
+        <v>1203.099975585938</v>
       </c>
       <c r="K45">
-        <v>11589.1796875</v>
+        <v>14528.5302734375</v>
       </c>
       <c r="L45">
-        <v>4885.5400390625</v>
+        <v>4996.990234375</v>
       </c>
       <c r="M45">
-        <v>19119.580078125</v>
+        <v>19847.5</v>
       </c>
       <c r="N45">
-        <v>46.930000305175781</v>
+        <v>58.549999237060547</v>
       </c>
       <c r="O45">
-        <v>2064.56005859375</v>
+        <v>2105.52001953125</v>
       </c>
       <c r="P45">
-        <v>3649.4599609375</v>
+        <v>3609.510009765625</v>
       </c>
       <c r="Q45">
-        <v>395.79000854492188</v>
+        <v>397.42999267578119</v>
       </c>
       <c r="R45">
-        <v>2.1070001125335689</v>
+        <v>2.033999919891357</v>
       </c>
       <c r="S45">
-        <v>1.58899998664856</v>
+        <v>1.419000029563904</v>
       </c>
       <c r="T45">
-        <v>6.2519998550415039</v>
+        <v>6.1901998519897461</v>
       </c>
       <c r="U45">
-        <v>121.302001953125</v>
+        <v>118.9759979248047</v>
       </c>
       <c r="V45">
-        <v>15.47000026702881</v>
+        <v>13.89000034332275</v>
       </c>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="B46">
-        <v>27.5</v>
+        <v>34</v>
       </c>
       <c r="C46">
-        <v>72.5</v>
+        <v>66</v>
       </c>
       <c r="D46">
-        <v>3706.77001953125</v>
+        <v>3388.7900390625</v>
       </c>
       <c r="E46">
-        <v>6226.490234375</v>
+        <v>4856.02001953125</v>
       </c>
       <c r="F46">
-        <v>85.360000610351563</v>
+        <v>84.959999084472656</v>
       </c>
       <c r="G46">
-        <v>10780.6796875</v>
+        <v>9179.08984375</v>
       </c>
       <c r="H46">
-        <v>1.253902673721313</v>
+        <v>1.2879958152771001</v>
       </c>
       <c r="I46">
-        <v>5433.7001953125</v>
+        <v>4291.7001953125</v>
       </c>
       <c r="J46">
-        <v>1227.400024414062</v>
+        <v>731.4000244140625</v>
       </c>
       <c r="K46">
-        <v>11632.5498046875</v>
+        <v>6589.56982421875</v>
       </c>
       <c r="L46">
-        <v>2373.8798828125</v>
+        <v>1684.7099609375</v>
       </c>
       <c r="M46">
-        <v>10453.400390625</v>
+        <v>8958.2197265625</v>
       </c>
       <c r="N46">
-        <v>73.989997863769531</v>
+        <v>65.580001831054688</v>
       </c>
       <c r="O46">
-        <v>1157.18994140625</v>
+        <v>953.1099853515625</v>
       </c>
       <c r="P46">
-        <v>2755.830078125</v>
+        <v>2522.06005859375</v>
       </c>
       <c r="Q46">
-        <v>256.3599853515625</v>
+        <v>216.55999755859381</v>
       </c>
       <c r="R46">
-        <v>3.502000093460083</v>
+        <v>3.8810000419616699</v>
       </c>
       <c r="S46">
-        <v>2.2049999237060551</v>
+        <v>2.7400000095367432</v>
       </c>
       <c r="T46">
-        <v>6.8165998458862296</v>
+        <v>6.8281998634338379</v>
       </c>
       <c r="U46">
-        <v>92.790000915527344</v>
+        <v>98.816001892089844</v>
       </c>
       <c r="V46">
-        <v>28.39999961853027</v>
+        <v>62.930000305175781</v>
       </c>
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="B47">
-        <v>27</v>
+        <v>34.5</v>
       </c>
       <c r="C47">
-        <v>73</v>
+        <v>65.5</v>
       </c>
       <c r="D47">
-        <v>4716.919921875</v>
+        <v>3009.260009765625</v>
       </c>
       <c r="E47">
-        <v>6574.52001953125</v>
+        <v>5602.5498046875</v>
       </c>
       <c r="F47">
-        <v>73.180000305175781</v>
+        <v>77.959999084472656</v>
       </c>
       <c r="G47">
-        <v>12148.6103515625</v>
+        <v>11152.3203125</v>
       </c>
       <c r="H47">
-        <v>1.534095287322998</v>
+        <v>1.3581973314285281</v>
       </c>
       <c r="I47">
-        <v>5690.39990234375</v>
+        <v>5196.7998046875</v>
       </c>
       <c r="J47">
-        <v>973.5999755859375</v>
+        <v>1620.800048828125</v>
       </c>
       <c r="K47">
-        <v>13030.8798828125</v>
+        <v>9188.2099609375</v>
       </c>
       <c r="L47">
-        <v>2259.969970703125</v>
+        <v>2444.77001953125</v>
       </c>
       <c r="M47">
-        <v>12841.8798828125</v>
+        <v>8713.91015625</v>
       </c>
       <c r="N47">
-        <v>108.65000152587891</v>
+        <v>83.069999694824219</v>
       </c>
       <c r="O47">
-        <v>1321.130004882812</v>
+        <v>1159.930053710938</v>
       </c>
       <c r="P47">
-        <v>3631.68994140625</v>
+        <v>2204.929931640625</v>
       </c>
       <c r="Q47">
-        <v>309.20999145507813</v>
+        <v>228.63999938964841</v>
       </c>
       <c r="R47">
-        <v>3.5559999942779541</v>
+        <v>1.950000047683716</v>
       </c>
       <c r="S47">
-        <v>2.5759999752044682</v>
+        <v>0.96899998188018799</v>
       </c>
       <c r="T47">
-        <v>7.0949997901916504</v>
+        <v>6.3874001502990723</v>
       </c>
       <c r="U47">
-        <v>103.26999664306641</v>
+        <v>76.75</v>
       </c>
       <c r="V47">
-        <v>26.389999389648441</v>
+        <v>40.930000305175781</v>
       </c>
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="B48">
-        <v>26.5</v>
+        <v>35</v>
       </c>
       <c r="C48">
-        <v>73.5</v>
+        <v>65</v>
       </c>
       <c r="D48">
-        <v>3807.510009765625</v>
+        <v>3009.260009765625</v>
       </c>
       <c r="E48">
-        <v>6715.169921875</v>
+        <v>5602.5498046875</v>
       </c>
       <c r="F48">
-        <v>76.05999755859375</v>
+        <v>77.959999084472656</v>
       </c>
       <c r="G48">
-        <v>11777.23046875</v>
+        <v>11152.3203125</v>
       </c>
       <c r="H48">
-        <v>1.40350878238678</v>
+        <v>1.3581973314285281</v>
       </c>
       <c r="I48">
-        <v>5696.10009765625</v>
+        <v>5196.7998046875</v>
       </c>
       <c r="J48">
-        <v>1406.400024414062</v>
+        <v>1620.800048828125</v>
       </c>
       <c r="K48">
-        <v>12557.5498046875</v>
+        <v>9188.2099609375</v>
       </c>
       <c r="L48">
-        <v>2665.5400390625</v>
+        <v>2444.77001953125</v>
       </c>
       <c r="M48">
-        <v>9083.9501953125</v>
+        <v>8713.91015625</v>
       </c>
       <c r="N48">
-        <v>101.7799987792969</v>
+        <v>83.069999694824219</v>
       </c>
       <c r="O48">
-        <v>1276.7099609375</v>
+        <v>1159.930053710938</v>
       </c>
       <c r="P48">
-        <v>2796.7099609375</v>
+        <v>2204.929931640625</v>
       </c>
       <c r="Q48">
-        <v>266.5</v>
+        <v>228.63999938964841</v>
       </c>
       <c r="R48">
-        <v>3.250999927520752</v>
+        <v>1.950000047683716</v>
       </c>
       <c r="S48">
-        <v>1.8990000486373899</v>
+        <v>0.96899998188018799</v>
       </c>
       <c r="T48">
-        <v>6.5636000633239746</v>
+        <v>6.3874001502990723</v>
       </c>
       <c r="U48">
-        <v>79.230003356933594</v>
+        <v>76.75</v>
       </c>
       <c r="V48">
-        <v>23.89999961853027</v>
+        <v>40.930000305175781</v>
       </c>
     </row>
     <row r="49" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="B49">
-        <v>26</v>
+        <v>35.5</v>
       </c>
       <c r="C49">
-        <v>74</v>
+        <v>64.5</v>
       </c>
       <c r="D49">
-        <v>3519.64990234375</v>
+        <v>3388.7900390625</v>
       </c>
       <c r="E49">
-        <v>7183.919921875</v>
+        <v>4856.02001953125</v>
       </c>
       <c r="F49">
-        <v>81.139999389648438</v>
+        <v>84.959999084472656</v>
       </c>
       <c r="G49">
-        <v>13289.5302734375</v>
+        <v>9179.08984375</v>
       </c>
       <c r="H49">
-        <v>1.2632642984390261</v>
+        <v>1.2879958152771001</v>
       </c>
       <c r="I49">
-        <v>5777.2998046875</v>
+        <v>4291.7001953125</v>
       </c>
       <c r="J49">
-        <v>1696.699951171875</v>
+        <v>731.4000244140625</v>
       </c>
       <c r="K49">
-        <v>9214.8896484375</v>
+        <v>6589.56982421875</v>
       </c>
       <c r="L49">
-        <v>3133.219970703125</v>
+        <v>1684.7099609375</v>
       </c>
       <c r="M49">
-        <v>8821.3701171875</v>
+        <v>8958.2197265625</v>
       </c>
       <c r="N49">
-        <v>94.699996948242188</v>
+        <v>65.580001831054688</v>
       </c>
       <c r="O49">
-        <v>1432.119995117188</v>
+        <v>953.1099853515625</v>
       </c>
       <c r="P49">
-        <v>2530.699951171875</v>
+        <v>2522.06005859375</v>
       </c>
       <c r="Q49">
-        <v>272.1099853515625</v>
+        <v>216.55999755859381</v>
       </c>
       <c r="R49">
-        <v>1.7259999513626101</v>
+        <v>3.8810000419616699</v>
       </c>
       <c r="S49">
-        <v>0.70300000905990601</v>
+        <v>2.7400000095367432</v>
       </c>
       <c r="T49">
-        <v>6.3432002067565918</v>
+        <v>6.8281998634338379</v>
       </c>
       <c r="U49">
-        <v>78.889999389648438</v>
+        <v>98.816001892089844</v>
       </c>
       <c r="V49">
-        <v>15.60000038146973</v>
+        <v>62.930000305175781</v>
       </c>
     </row>
     <row r="50" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="B50">
-        <v>25.5</v>
+        <v>36</v>
       </c>
       <c r="C50">
-        <v>74.5</v>
+        <v>64</v>
       </c>
       <c r="D50">
-        <v>4262.93994140625</v>
+        <v>3262.360107421875</v>
       </c>
       <c r="E50">
-        <v>9933.4501953125</v>
+        <v>4954.35009765625</v>
       </c>
       <c r="F50">
-        <v>92.160003662109375</v>
+        <v>82.089996337890625</v>
       </c>
       <c r="G50">
-        <v>17436.30078125</v>
+        <v>8471.8203125</v>
       </c>
       <c r="H50">
-        <v>1.1783837080001831</v>
+        <v>1.3632335662841799</v>
       </c>
       <c r="I50">
-        <v>6388.5</v>
+        <v>4482.2998046875</v>
       </c>
       <c r="J50">
-        <v>1231.5</v>
+        <v>933</v>
       </c>
       <c r="K50">
-        <v>12049.6904296875</v>
+        <v>10085.16015625</v>
       </c>
       <c r="L50">
-        <v>4657.4599609375</v>
+        <v>1743.599975585938</v>
       </c>
       <c r="M50">
-        <v>16872.94921875</v>
+        <v>9372.7197265625</v>
       </c>
       <c r="N50">
-        <v>48.599998474121087</v>
+        <v>60.180000305175781</v>
       </c>
       <c r="O50">
-        <v>2013.75</v>
+        <v>908.6199951171875</v>
       </c>
       <c r="P50">
-        <v>3112.3701171875</v>
+        <v>2454.800048828125</v>
       </c>
       <c r="Q50">
-        <v>341.5</v>
+        <v>210.36000061035159</v>
       </c>
       <c r="R50">
-        <v>1.812999963760376</v>
+        <v>3.2279999256134029</v>
       </c>
       <c r="S50">
-        <v>1.2690000534057619</v>
+        <v>2.0789999961853032</v>
       </c>
       <c r="T50">
-        <v>6.1840000152587891</v>
+        <v>6.8148999214172363</v>
       </c>
       <c r="U50">
-        <v>117.4390029907227</v>
+        <v>96.110000610351563</v>
       </c>
       <c r="V50">
-        <v>21.229999542236332</v>
+        <v>27.469999313354489</v>
       </c>
     </row>
     <row r="51" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="B51">
-        <v>25</v>
+        <v>36.5</v>
       </c>
       <c r="C51">
-        <v>75</v>
+        <v>63.5</v>
       </c>
       <c r="D51">
-        <v>3687.830078125</v>
+        <v>3262.360107421875</v>
       </c>
       <c r="E51">
-        <v>6173.89013671875</v>
+        <v>4954.35009765625</v>
       </c>
       <c r="F51">
-        <v>80.129997253417969</v>
+        <v>82.089996337890625</v>
       </c>
       <c r="G51">
-        <v>10664.3896484375</v>
+        <v>8471.8203125</v>
       </c>
       <c r="H51">
-        <v>1.3318061828613279</v>
+        <v>1.3632335662841799</v>
       </c>
       <c r="I51">
-        <v>5547.10009765625</v>
+        <v>4482.2998046875</v>
       </c>
       <c r="J51">
-        <v>1296</v>
+        <v>933</v>
       </c>
       <c r="K51">
-        <v>12182.830078125</v>
+        <v>10085.16015625</v>
       </c>
       <c r="L51">
-        <v>2356.260009765625</v>
+        <v>1743.599975585938</v>
       </c>
       <c r="M51">
-        <v>9435.0400390625</v>
+        <v>9372.7197265625</v>
       </c>
       <c r="N51">
-        <v>74.949996948242188</v>
+        <v>60.180000305175781</v>
       </c>
       <c r="O51">
-        <v>1131.68994140625</v>
+        <v>908.6199951171875</v>
       </c>
       <c r="P51">
-        <v>2731.739990234375</v>
+        <v>2454.800048828125</v>
       </c>
       <c r="Q51">
-        <v>260.89999389648438</v>
+        <v>210.36000061035159</v>
       </c>
       <c r="R51">
-        <v>2.5690000057220459</v>
+        <v>3.2279999256134029</v>
       </c>
       <c r="S51">
-        <v>1.325999975204468</v>
+        <v>2.0789999961853032</v>
       </c>
       <c r="T51">
-        <v>6.6939997673034668</v>
+        <v>6.8148999214172363</v>
       </c>
       <c r="U51">
-        <v>84.529998779296875</v>
+        <v>96.110000610351563</v>
       </c>
       <c r="V51">
-        <v>22.610000610351559</v>
+        <v>27.469999313354489</v>
       </c>
     </row>
     <row r="52" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="B52">
-        <v>24.5</v>
+        <v>37</v>
       </c>
       <c r="C52">
-        <v>75.5</v>
+        <v>63</v>
       </c>
       <c r="D52">
-        <v>4297.08984375</v>
+        <v>3084.159912109375</v>
       </c>
       <c r="E52">
-        <v>6225.2998046875</v>
+        <v>5607.509765625</v>
       </c>
       <c r="F52">
-        <v>79.519996643066406</v>
+        <v>76.30999755859375</v>
       </c>
       <c r="G52">
-        <v>11233.91015625</v>
+        <v>11433.7099609375</v>
       </c>
       <c r="H52">
-        <v>1.415007591247559</v>
+        <v>1.386731743812561</v>
       </c>
       <c r="I52">
-        <v>5415.60009765625</v>
+        <v>5337.5</v>
       </c>
       <c r="J52">
-        <v>776.5999755859375</v>
+        <v>1768.5</v>
       </c>
       <c r="K52">
-        <v>10627.6201171875</v>
+        <v>10258.3798828125</v>
       </c>
       <c r="L52">
-        <v>2232.2099609375</v>
+        <v>2607.1201171875</v>
       </c>
       <c r="M52">
-        <v>12249.1396484375</v>
+        <v>8785.2802734375</v>
       </c>
       <c r="N52">
-        <v>102.1999969482422</v>
+        <v>89.110000610351563</v>
       </c>
       <c r="O52">
-        <v>1227.5</v>
+        <v>1209.2099609375</v>
       </c>
       <c r="P52">
-        <v>3261.68994140625</v>
+        <v>2172.72998046875</v>
       </c>
       <c r="Q52">
-        <v>278.97000122070313</v>
+        <v>228.75999450683591</v>
       </c>
       <c r="R52">
-        <v>3.594000101089478</v>
+        <v>2.0859999656677251</v>
       </c>
       <c r="S52">
-        <v>2.8650000095367432</v>
+        <v>0.94800001382827759</v>
       </c>
       <c r="T52">
-        <v>6.828700065612793</v>
+        <v>6.3738999366760254</v>
       </c>
       <c r="U52">
-        <v>107.30999755859381</v>
+        <v>76.722000122070313</v>
       </c>
       <c r="V52">
-        <v>25.469999313354489</v>
+        <v>31.809999465942379</v>
       </c>
     </row>
     <row r="53" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="B53">
-        <v>24</v>
+        <v>37.5</v>
       </c>
       <c r="C53">
-        <v>76</v>
+        <v>62.5</v>
       </c>
       <c r="D53">
-        <v>4930.06005859375</v>
+        <v>3309</v>
       </c>
       <c r="E53">
-        <v>11555.9697265625</v>
+        <v>4791.56005859375</v>
       </c>
       <c r="F53">
-        <v>97.779998779296875</v>
+        <v>85.459999084472656</v>
       </c>
       <c r="G53">
-        <v>17989.560546875</v>
+        <v>8750.1298828125</v>
       </c>
       <c r="H53">
-        <v>1.0835762023925779</v>
+        <v>1.3015918731689451</v>
       </c>
       <c r="I53">
-        <v>6876.5</v>
+        <v>4367.2998046875</v>
       </c>
       <c r="J53">
-        <v>1166.400024414062</v>
+        <v>803.4000244140625</v>
       </c>
       <c r="K53">
-        <v>11642.6103515625</v>
+        <v>8516.5</v>
       </c>
       <c r="L53">
-        <v>4899.509765625</v>
+        <v>1548.469970703125</v>
       </c>
       <c r="M53">
-        <v>18891.009765625</v>
+        <v>8642.259765625</v>
       </c>
       <c r="N53">
-        <v>50.080001831054688</v>
+        <v>44.049999237060547</v>
       </c>
       <c r="O53">
-        <v>2076.139892578125</v>
+        <v>898.3499755859375</v>
       </c>
       <c r="P53">
-        <v>3605.81005859375</v>
+        <v>2489</v>
       </c>
       <c r="Q53">
-        <v>393.30999755859381</v>
+        <v>204.8699951171875</v>
       </c>
       <c r="R53">
-        <v>2.157999992370605</v>
+        <v>2.6960000991821289</v>
       </c>
       <c r="S53">
-        <v>1.620000004768372</v>
+        <v>1.6189999580383301</v>
       </c>
       <c r="T53">
-        <v>6.255000114440918</v>
+        <v>6.8550000190734863</v>
       </c>
       <c r="U53">
-        <v>121.427001953125</v>
+        <v>92.831001281738281</v>
       </c>
       <c r="V53">
-        <v>16.469999313354489</v>
+        <v>55.080001831054688</v>
       </c>
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="B54">
-        <v>23.5</v>
+        <v>38</v>
       </c>
       <c r="C54">
-        <v>76.5</v>
+        <v>62</v>
       </c>
       <c r="D54">
-        <v>3648.9599609375</v>
+        <v>3309</v>
       </c>
       <c r="E54">
-        <v>6132.1201171875</v>
+        <v>4791.56005859375</v>
       </c>
       <c r="F54">
-        <v>78.5</v>
+        <v>85.459999084472656</v>
       </c>
       <c r="G54">
-        <v>10752.7802734375</v>
+        <v>8750.1298828125</v>
       </c>
       <c r="H54">
-        <v>1.367502689361572</v>
+        <v>1.3015918731689451</v>
       </c>
       <c r="I54">
-        <v>5556</v>
+        <v>4367.2998046875</v>
       </c>
       <c r="J54">
-        <v>1312.900024414062</v>
+        <v>803.4000244140625</v>
       </c>
       <c r="K54">
-        <v>12541.3798828125</v>
+        <v>8516.5</v>
       </c>
       <c r="L54">
-        <v>2368.52001953125</v>
+        <v>1548.469970703125</v>
       </c>
       <c r="M54">
-        <v>9337.4296875</v>
+        <v>8642.259765625</v>
       </c>
       <c r="N54">
-        <v>81.370002746582031</v>
+        <v>44.049999237060547</v>
       </c>
       <c r="O54">
-        <v>1140.680053710938</v>
+        <v>898.3499755859375</v>
       </c>
       <c r="P54">
-        <v>2699.6298828125</v>
+        <v>2489</v>
       </c>
       <c r="Q54">
-        <v>257.35000610351563</v>
+        <v>204.8699951171875</v>
       </c>
       <c r="R54">
-        <v>2.4630000591278081</v>
+        <v>2.6960000991821289</v>
       </c>
       <c r="S54">
-        <v>1.2130000591278081</v>
+        <v>1.6189999580383301</v>
       </c>
       <c r="T54">
-        <v>6.679999828338623</v>
+        <v>6.8550000190734863</v>
       </c>
       <c r="U54">
-        <v>83.501998901367188</v>
+        <v>92.831001281738281</v>
       </c>
       <c r="V54">
-        <v>22.520000457763668</v>
+        <v>55.080001831054688</v>
       </c>
     </row>
     <row r="55" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="B55">
-        <v>23</v>
+        <v>38.5</v>
       </c>
       <c r="C55">
-        <v>77</v>
+        <v>61.5</v>
       </c>
       <c r="D55">
-        <v>4051.919921875</v>
+        <v>3084.159912109375</v>
       </c>
       <c r="E55">
-        <v>7226.7900390625</v>
+        <v>5607.509765625</v>
       </c>
       <c r="F55">
-        <v>75.580001831054688</v>
+        <v>76.30999755859375</v>
       </c>
       <c r="G55">
-        <v>12409.8701171875</v>
+        <v>11433.7099609375</v>
       </c>
       <c r="H55">
-        <v>1.430103659629822</v>
+        <v>1.386731743812561</v>
       </c>
       <c r="I55">
-        <v>6007.39990234375</v>
+        <v>5337.5</v>
       </c>
       <c r="J55">
-        <v>1457.599975585938</v>
+        <v>1768.5</v>
       </c>
       <c r="K55">
-        <v>13649.240234375</v>
+        <v>10258.3798828125</v>
       </c>
       <c r="L55">
-        <v>2806.2900390625</v>
+        <v>2607.1201171875</v>
       </c>
       <c r="M55">
-        <v>9586.169921875</v>
+        <v>8785.2802734375</v>
       </c>
       <c r="N55">
-        <v>110.3199996948242</v>
+        <v>89.110000610351563</v>
       </c>
       <c r="O55">
-        <v>1336.160034179688</v>
+        <v>1209.2099609375</v>
       </c>
       <c r="P55">
-        <v>2977.780029296875</v>
+        <v>2172.72998046875</v>
       </c>
       <c r="Q55">
-        <v>281.29998779296881</v>
+        <v>228.75999450683591</v>
       </c>
       <c r="R55">
-        <v>3.598000049591064</v>
+        <v>2.0859999656677251</v>
       </c>
       <c r="S55">
-        <v>2.3350000381469731</v>
+        <v>0.94800001382827759</v>
       </c>
       <c r="T55">
-        <v>6.5343999862670898</v>
+        <v>6.3738999366760254</v>
       </c>
       <c r="U55">
-        <v>84.959999084472656</v>
+        <v>76.722000122070313</v>
       </c>
       <c r="V55">
-        <v>16.510000228881839</v>
+        <v>31.809999465942379</v>
       </c>
     </row>
     <row r="56" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="B56">
-        <v>22.5</v>
+        <v>39</v>
       </c>
       <c r="C56">
-        <v>77.5</v>
+        <v>61</v>
       </c>
       <c r="D56">
-        <v>3711.9599609375</v>
+        <v>3258.25</v>
       </c>
       <c r="E56">
-        <v>6214.02001953125</v>
+        <v>4718.39013671875</v>
       </c>
       <c r="F56">
-        <v>78.790000915527344</v>
+        <v>83.709999084472656</v>
       </c>
       <c r="G56">
-        <v>10836.0400390625</v>
+        <v>8628.8095703125</v>
       </c>
       <c r="H56">
-        <v>1.3628062009811399</v>
+        <v>1.3439956903457639</v>
       </c>
       <c r="I56">
-        <v>5569.2998046875</v>
+        <v>4280.39990234375</v>
       </c>
       <c r="J56">
-        <v>1307.199951171875</v>
+        <v>828</v>
       </c>
       <c r="K56">
-        <v>12378.4296875</v>
+        <v>8272.8798828125</v>
       </c>
       <c r="L56">
-        <v>2390.9599609375</v>
+        <v>1544.160034179688</v>
       </c>
       <c r="M56">
-        <v>9554.830078125</v>
+        <v>8349.849609375</v>
       </c>
       <c r="N56">
-        <v>77.910003662109375</v>
+        <v>46.770000457763672</v>
       </c>
       <c r="O56">
-        <v>1145.969970703125</v>
+        <v>881.07000732421875</v>
       </c>
       <c r="P56">
-        <v>2743.52001953125</v>
+        <v>2439.719970703125</v>
       </c>
       <c r="Q56">
-        <v>260.54998779296881</v>
+        <v>199.0899963378906</v>
       </c>
       <c r="R56">
-        <v>2.476000070571899</v>
+        <v>2.5820000171661381</v>
       </c>
       <c r="S56">
-        <v>1.2580000162124629</v>
+        <v>1.5659999847412109</v>
       </c>
       <c r="T56">
-        <v>6.6809000968933114</v>
+        <v>6.8362998962402344</v>
       </c>
       <c r="U56">
-        <v>83.760002136230469</v>
+        <v>90.720001220703125</v>
       </c>
       <c r="V56">
-        <v>22.85000038146973</v>
+        <v>55.680000305175781</v>
       </c>
     </row>
     <row r="57" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="B57">
-        <v>22</v>
+        <v>39.5</v>
       </c>
       <c r="C57">
-        <v>78</v>
+        <v>60.5</v>
       </c>
       <c r="D57">
-        <v>4944.2998046875</v>
+        <v>3258.25</v>
       </c>
       <c r="E57">
-        <v>12865.75</v>
+        <v>4718.39013671875</v>
       </c>
       <c r="F57">
-        <v>94.349998474121094</v>
+        <v>83.709999084472656</v>
       </c>
       <c r="G57">
-        <v>26447.669921875</v>
+        <v>8628.8095703125</v>
       </c>
       <c r="H57">
-        <v>1.1652567386627199</v>
+        <v>1.3439956903457639</v>
       </c>
       <c r="I57">
-        <v>6123.7998046875</v>
+        <v>4280.39990234375</v>
       </c>
       <c r="J57">
-        <v>1901.699951171875</v>
+        <v>828</v>
       </c>
       <c r="K57">
-        <v>10166.26953125</v>
+        <v>8272.8798828125</v>
       </c>
       <c r="L57">
-        <v>10421.7001953125</v>
+        <v>1544.160034179688</v>
       </c>
       <c r="M57">
-        <v>22495.94921875</v>
+        <v>8349.849609375</v>
       </c>
       <c r="N57">
-        <v>41.259998321533203</v>
+        <v>46.770000457763672</v>
       </c>
       <c r="O57">
-        <v>3219.840087890625</v>
+        <v>881.07000732421875</v>
       </c>
       <c r="P57">
-        <v>3308.169921875</v>
+        <v>2439.719970703125</v>
       </c>
       <c r="Q57">
-        <v>366.67999267578119</v>
+        <v>199.0899963378906</v>
       </c>
       <c r="R57">
-        <v>0.57899999618530273</v>
+        <v>2.5820000171661381</v>
       </c>
       <c r="S57">
-        <v>0.26600000262260443</v>
+        <v>1.5659999847412109</v>
       </c>
       <c r="T57">
-        <v>7.0160999298095703</v>
+        <v>6.8362998962402344</v>
       </c>
       <c r="U57">
-        <v>105.9560012817383</v>
+        <v>90.720001220703125</v>
       </c>
       <c r="V57">
-        <v>26.60000038146973</v>
+        <v>55.680000305175781</v>
       </c>
     </row>
     <row r="58" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="B58">
-        <v>21.5</v>
+        <v>40</v>
       </c>
       <c r="C58">
-        <v>78.5</v>
+        <v>60</v>
       </c>
       <c r="D58">
-        <v>3573.300048828125</v>
+        <v>3829.639892578125</v>
       </c>
       <c r="E58">
-        <v>7397.97998046875</v>
+        <v>6155.56982421875</v>
       </c>
       <c r="F58">
-        <v>79.239997863769531</v>
+        <v>81.900001525878906</v>
       </c>
       <c r="G58">
-        <v>13540.400390625</v>
+        <v>11168.23046875</v>
       </c>
       <c r="H58">
-        <v>1.299376368522644</v>
+        <v>1.326594233512878</v>
       </c>
       <c r="I58">
-        <v>5819.89990234375</v>
+        <v>5617.7998046875</v>
       </c>
       <c r="J58">
-        <v>1771</v>
+        <v>1180.099975585938</v>
       </c>
       <c r="K58">
-        <v>9733.41015625</v>
+        <v>11989.9697265625</v>
       </c>
       <c r="L58">
-        <v>3166.239990234375</v>
+        <v>2509.989990234375</v>
       </c>
       <c r="M58">
-        <v>9097.919921875</v>
+        <v>11062.1201171875</v>
       </c>
       <c r="N58">
-        <v>98.040000915527344</v>
+        <v>85.580001831054688</v>
       </c>
       <c r="O58">
-        <v>1460.069946289062</v>
+        <v>1206.77001953125</v>
       </c>
       <c r="P58">
-        <v>2567.9599609375</v>
+        <v>2826.10009765625</v>
       </c>
       <c r="Q58">
-        <v>273.89999389648438</v>
+        <v>262.04000854492188</v>
       </c>
       <c r="R58">
-        <v>1.825999975204468</v>
+        <v>3.7460000514984131</v>
       </c>
       <c r="S58">
-        <v>0.69099998474121094</v>
+        <v>2.503000020980835</v>
       </c>
       <c r="T58">
-        <v>6.3301000595092773</v>
+        <v>6.8159999847412109</v>
       </c>
       <c r="U58">
-        <v>77.639999389648438</v>
+        <v>94.010002136230469</v>
       </c>
       <c r="V58">
-        <v>13.819999694824221</v>
+        <v>18.75</v>
       </c>
     </row>
     <row r="59" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="B59">
-        <v>21</v>
+        <v>40.5</v>
       </c>
       <c r="C59">
-        <v>79</v>
+        <v>59.5</v>
       </c>
       <c r="D59">
-        <v>3051.25</v>
+        <v>3829.639892578125</v>
       </c>
       <c r="E59">
-        <v>6360.7900390625</v>
+        <v>6155.56982421875</v>
       </c>
       <c r="F59">
-        <v>82.5</v>
+        <v>81.900001525878906</v>
       </c>
       <c r="G59">
-        <v>12579.01953125</v>
+        <v>11168.23046875</v>
       </c>
       <c r="H59">
-        <v>1.247816324234009</v>
+        <v>1.326594233512878</v>
       </c>
       <c r="I59">
-        <v>5391.10009765625</v>
+        <v>5617.7998046875</v>
       </c>
       <c r="J59">
-        <v>1553.900024414062</v>
+        <v>1180.099975585938</v>
       </c>
       <c r="K59">
-        <v>9776.6201171875</v>
+        <v>11989.9697265625</v>
       </c>
       <c r="L59">
-        <v>2847.27001953125</v>
+        <v>2509.989990234375</v>
       </c>
       <c r="M59">
-        <v>8637.9501953125</v>
+        <v>11062.1201171875</v>
       </c>
       <c r="N59">
-        <v>90.860000610351563</v>
+        <v>85.580001831054688</v>
       </c>
       <c r="O59">
-        <v>1331.25</v>
+        <v>1206.77001953125</v>
       </c>
       <c r="P59">
-        <v>2147.300048828125</v>
+        <v>2826.10009765625</v>
       </c>
       <c r="Q59">
-        <v>243.3500061035156</v>
+        <v>262.04000854492188</v>
       </c>
       <c r="R59">
-        <v>1.687999963760376</v>
+        <v>3.7460000514984131</v>
       </c>
       <c r="S59">
-        <v>0.74099999666213989</v>
+        <v>2.503000020980835</v>
       </c>
       <c r="T59">
-        <v>6.3414998054504386</v>
+        <v>6.8159999847412109</v>
       </c>
       <c r="U59">
-        <v>79.516998291015625</v>
+        <v>94.010002136230469</v>
       </c>
       <c r="V59">
-        <v>22.680000305175781</v>
+        <v>18.75</v>
       </c>
     </row>
     <row r="60" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="B60">
-        <v>20.5</v>
+        <v>41</v>
       </c>
       <c r="C60">
-        <v>79.5</v>
+        <v>59</v>
       </c>
       <c r="D60">
-        <v>4632.10986328125</v>
+        <v>4895.64013671875</v>
       </c>
       <c r="E60">
-        <v>6500.169921875</v>
+        <v>11173.7900390625</v>
       </c>
       <c r="F60">
-        <v>71.930000305175781</v>
+        <v>100.0100021362305</v>
       </c>
       <c r="G60">
-        <v>12146.3896484375</v>
+        <v>17741.5703125</v>
       </c>
       <c r="H60">
-        <v>1.562304735183716</v>
+        <v>1.061199307441711</v>
       </c>
       <c r="I60">
-        <v>5692.39990234375</v>
+        <v>6420.89990234375</v>
       </c>
       <c r="J60">
-        <v>993.9000244140625</v>
+        <v>1054.400024414062</v>
       </c>
       <c r="K60">
-        <v>12222.7197265625</v>
+        <v>9973.740234375</v>
       </c>
       <c r="L60">
-        <v>2271.2099609375</v>
+        <v>5143.16015625</v>
       </c>
       <c r="M60">
-        <v>12509.8095703125</v>
+        <v>19894.630859375</v>
       </c>
       <c r="N60">
-        <v>110.2399978637695</v>
+        <v>40.150001525878913</v>
       </c>
       <c r="O60">
-        <v>1316.050048828125</v>
+        <v>2080.7099609375</v>
       </c>
       <c r="P60">
-        <v>3599.909912109375</v>
+        <v>3464.81005859375</v>
       </c>
       <c r="Q60">
-        <v>307.45999145507813</v>
+        <v>383.69000244140619</v>
       </c>
       <c r="R60">
-        <v>3.4869999885559082</v>
+        <v>2.2060000896453862</v>
       </c>
       <c r="S60">
-        <v>2.4500000476837158</v>
+        <v>1.6640000343322749</v>
       </c>
       <c r="T60">
-        <v>7.0803999900817871</v>
+        <v>6.3888001441955566</v>
       </c>
       <c r="U60">
-        <v>100.6999969482422</v>
+        <v>123.2200012207031</v>
       </c>
       <c r="V60">
-        <v>27.309999465942379</v>
+        <v>15.86999988555908</v>
       </c>
     </row>
     <row r="61" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="B61">
-        <v>20</v>
+        <v>41.5</v>
       </c>
       <c r="C61">
-        <v>80</v>
+        <v>58.5</v>
       </c>
       <c r="D61">
-        <v>5466.47998046875</v>
+        <v>4895.64013671875</v>
       </c>
       <c r="E61">
-        <v>12786.150390625</v>
+        <v>11173.7900390625</v>
       </c>
       <c r="F61">
-        <v>94.410003662109375</v>
+        <v>100.0100021362305</v>
       </c>
       <c r="G61">
-        <v>24606.58984375</v>
+        <v>17741.5703125</v>
       </c>
       <c r="H61">
-        <v>1.162750124931335</v>
+        <v>1.061199307441711</v>
       </c>
       <c r="I61">
-        <v>7730.2998046875</v>
+        <v>6420.89990234375</v>
       </c>
       <c r="J61">
-        <v>1298.699951171875</v>
+        <v>1054.400024414062</v>
       </c>
       <c r="K61">
-        <v>12053</v>
+        <v>9973.740234375</v>
       </c>
       <c r="L61">
-        <v>7398.509765625</v>
+        <v>5143.16015625</v>
       </c>
       <c r="M61">
-        <v>22431.94921875</v>
+        <v>19894.630859375</v>
       </c>
       <c r="N61">
-        <v>66.489997863769531</v>
+        <v>40.150001525878913</v>
       </c>
       <c r="O61">
-        <v>2705.110107421875</v>
+        <v>2080.7099609375</v>
       </c>
       <c r="P61">
-        <v>3467.090087890625</v>
+        <v>3464.81005859375</v>
       </c>
       <c r="Q61">
-        <v>388.82000732421881</v>
+        <v>383.69000244140619</v>
       </c>
       <c r="R61">
-        <v>2.8789999485015869</v>
+        <v>2.2060000896453862</v>
       </c>
       <c r="S61">
-        <v>2.7049999237060551</v>
+        <v>1.6640000343322749</v>
       </c>
       <c r="T61">
-        <v>6.3892998695373544</v>
+        <v>6.3888001441955566</v>
       </c>
       <c r="U61">
-        <v>109.3870010375977</v>
+        <v>123.2200012207031</v>
       </c>
       <c r="V61">
-        <v>14.39000034332275</v>
+        <v>15.86999988555908</v>
       </c>
     </row>
     <row r="62" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="B62">
-        <v>19.5</v>
+        <v>42</v>
       </c>
       <c r="C62">
-        <v>80.5</v>
+        <v>58</v>
       </c>
       <c r="D62">
-        <v>4952.080078125</v>
+        <v>3833.989990234375</v>
       </c>
       <c r="E62">
-        <v>12762.1201171875</v>
+        <v>8495.9404296875</v>
       </c>
       <c r="F62">
-        <v>93.319999694824219</v>
+        <v>100.7900009155273</v>
       </c>
       <c r="G62">
-        <v>26367.419921875</v>
+        <v>19830.009765625</v>
       </c>
       <c r="H62">
-        <v>1.1786893606185911</v>
+        <v>1.094343304634094</v>
       </c>
       <c r="I62">
-        <v>6131.5</v>
+        <v>5080.60009765625</v>
       </c>
       <c r="J62">
-        <v>1963.400024414062</v>
+        <v>1481.5</v>
       </c>
       <c r="K62">
-        <v>10221.7998046875</v>
+        <v>8724.080078125</v>
       </c>
       <c r="L62">
-        <v>10450.1201171875</v>
+        <v>6996.4501953125</v>
       </c>
       <c r="M62">
-        <v>22489.240234375</v>
+        <v>16995.76953125</v>
       </c>
       <c r="N62">
-        <v>41.319999694824219</v>
+        <v>22.29999923706055</v>
       </c>
       <c r="O62">
-        <v>3231.760009765625</v>
+        <v>2393.47998046875</v>
       </c>
       <c r="P62">
-        <v>3300.610107421875</v>
+        <v>2388.93994140625</v>
       </c>
       <c r="Q62">
-        <v>367.89999389648438</v>
+        <v>277.510009765625</v>
       </c>
       <c r="R62">
-        <v>0.56099998950958252</v>
+        <v>1.1369999647140501</v>
       </c>
       <c r="S62">
-        <v>0.24199999868869779</v>
+        <v>0.74299997091293335</v>
       </c>
       <c r="T62">
-        <v>7.0002999305725098</v>
+        <v>7.0464000701904297</v>
       </c>
       <c r="U62">
-        <v>105.015998840332</v>
+        <v>108.4130020141602</v>
       </c>
       <c r="V62">
-        <v>25.04000091552734</v>
+        <v>80.620002746582031</v>
       </c>
     </row>
     <row r="63" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="B63">
-        <v>19</v>
+        <v>42.5</v>
       </c>
       <c r="C63">
-        <v>81</v>
+        <v>57.5</v>
       </c>
       <c r="D63">
-        <v>4361.3701171875</v>
+        <v>3850.739990234375</v>
       </c>
       <c r="E63">
-        <v>9500.5498046875</v>
+        <v>5728.2998046875</v>
       </c>
       <c r="F63">
-        <v>85.139999389648438</v>
+        <v>77.889999389648438</v>
       </c>
       <c r="G63">
-        <v>16948.619140625</v>
+        <v>10371.580078125</v>
       </c>
       <c r="H63">
-        <v>1.2757054567337041</v>
+        <v>1.4394081830978389</v>
       </c>
       <c r="I63">
-        <v>6639.7001953125</v>
+        <v>4818.7998046875</v>
       </c>
       <c r="J63">
-        <v>1214.099975585938</v>
+        <v>904.79998779296875</v>
       </c>
       <c r="K63">
-        <v>10547.2099609375</v>
+        <v>8339.8203125</v>
       </c>
       <c r="L63">
-        <v>4476.47998046875</v>
+        <v>2033.68994140625</v>
       </c>
       <c r="M63">
-        <v>16087.9501953125</v>
+        <v>11565.7001953125</v>
       </c>
       <c r="N63">
-        <v>92.470001220703125</v>
+        <v>95.400001525878906</v>
       </c>
       <c r="O63">
-        <v>1966.219970703125</v>
+        <v>1113.780029296875</v>
       </c>
       <c r="P63">
-        <v>3205.340087890625</v>
+        <v>2993.93994140625</v>
       </c>
       <c r="Q63">
-        <v>341.45999145507813</v>
+        <v>250.66999816894531</v>
       </c>
       <c r="R63">
-        <v>2.502000093460083</v>
+        <v>3.619999885559082</v>
       </c>
       <c r="S63">
-        <v>1.751999974250793</v>
+        <v>2.7409999370574951</v>
       </c>
       <c r="T63">
-        <v>6.125999927520752</v>
+        <v>6.8351001739501953</v>
       </c>
       <c r="U63">
-        <v>108.620002746582</v>
+        <v>103.8399963378906</v>
       </c>
       <c r="V63">
-        <v>15.77000045776367</v>
+        <v>43.770000457763672</v>
       </c>
     </row>
     <row r="64" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="B64">
-        <v>18.5</v>
+        <v>43</v>
       </c>
       <c r="C64">
-        <v>81.5</v>
+        <v>57</v>
       </c>
       <c r="D64">
-        <v>3750.8701171875</v>
+        <v>3850.739990234375</v>
       </c>
       <c r="E64">
-        <v>6248.81005859375</v>
+        <v>5728.2998046875</v>
       </c>
       <c r="F64">
-        <v>77.819999694824219</v>
+        <v>77.889999389648438</v>
       </c>
       <c r="G64">
-        <v>10936.7900390625</v>
+        <v>10371.580078125</v>
       </c>
       <c r="H64">
-        <v>1.3836042881011961</v>
+        <v>1.4394081830978389</v>
       </c>
       <c r="I64">
-        <v>5635.7998046875</v>
+        <v>4818.7998046875</v>
       </c>
       <c r="J64">
-        <v>1339.099975585938</v>
+        <v>904.79998779296875</v>
       </c>
       <c r="K64">
-        <v>12901.509765625</v>
+        <v>8339.8203125</v>
       </c>
       <c r="L64">
-        <v>2395.159912109375</v>
+        <v>2033.68994140625</v>
       </c>
       <c r="M64">
-        <v>9588.4697265625</v>
+        <v>11565.7001953125</v>
       </c>
       <c r="N64">
-        <v>82.599998474121094</v>
+        <v>95.400001525878906</v>
       </c>
       <c r="O64">
-        <v>1159.81005859375</v>
+        <v>1113.780029296875</v>
       </c>
       <c r="P64">
-        <v>2768.469970703125</v>
+        <v>2993.93994140625</v>
       </c>
       <c r="Q64">
-        <v>261.82000732421881</v>
+        <v>250.66999816894531</v>
       </c>
       <c r="R64">
-        <v>2.404999971389771</v>
+        <v>3.619999885559082</v>
       </c>
       <c r="S64">
-        <v>1.138000011444092</v>
+        <v>2.7409999370574951</v>
       </c>
       <c r="T64">
-        <v>6.679999828338623</v>
+        <v>6.8351001739501953</v>
       </c>
       <c r="U64">
-        <v>83.209999084472656</v>
+        <v>103.8399963378906</v>
       </c>
       <c r="V64">
-        <v>21.819999694824219</v>
+        <v>43.770000457763672</v>
       </c>
     </row>
     <row r="65" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="B65">
-        <v>18</v>
+        <v>43.5</v>
       </c>
       <c r="C65">
-        <v>82</v>
+        <v>56.5</v>
       </c>
       <c r="D65">
-        <v>5728.9501953125</v>
+        <v>5432</v>
       </c>
       <c r="E65">
-        <v>7850.93994140625</v>
+        <v>7810.81982421875</v>
       </c>
       <c r="F65">
-        <v>78.290000915527344</v>
+        <v>76.050003051757813</v>
       </c>
       <c r="G65">
-        <v>13912.9404296875</v>
+        <v>12801.150390625</v>
       </c>
       <c r="H65">
-        <v>1.4152077436447139</v>
+        <v>1.47520911693573</v>
       </c>
       <c r="I65">
-        <v>6486.39990234375</v>
+        <v>6348.5</v>
       </c>
       <c r="J65">
-        <v>733.70001220703125</v>
+        <v>860.9000244140625</v>
       </c>
       <c r="K65">
-        <v>16750.849609375</v>
+        <v>15554.259765625</v>
       </c>
       <c r="L65">
-        <v>2709.64990234375</v>
+        <v>2514.14990234375</v>
       </c>
       <c r="M65">
-        <v>16903.640625</v>
+        <v>14549.3798828125</v>
       </c>
       <c r="N65">
-        <v>83.25</v>
+        <v>97.790000915527344</v>
       </c>
       <c r="O65">
-        <v>1531.239990234375</v>
+        <v>1414.069946289062</v>
       </c>
       <c r="P65">
-        <v>4389.080078125</v>
+        <v>4268.43017578125</v>
       </c>
       <c r="Q65">
-        <v>377.76998901367188</v>
+        <v>352.239990234375</v>
       </c>
       <c r="R65">
-        <v>4.5450000762939453</v>
+        <v>3.8929998874664311</v>
       </c>
       <c r="S65">
-        <v>4.1939997673034668</v>
+        <v>3.2019999027252202</v>
       </c>
       <c r="T65">
-        <v>7.5043997764587402</v>
+        <v>7.254000186920166</v>
       </c>
       <c r="U65">
-        <v>115.5400009155273</v>
+        <v>108.5800018310547</v>
       </c>
       <c r="V65">
-        <v>17.229999542236332</v>
+        <v>24.620000839233398</v>
       </c>
     </row>
     <row r="66" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="B66">
-        <v>17.5</v>
+        <v>44</v>
       </c>
       <c r="C66">
-        <v>82.5</v>
+        <v>56</v>
       </c>
       <c r="D66">
-        <v>5737.6298828125</v>
+        <v>5432</v>
       </c>
       <c r="E66">
-        <v>7839.06005859375</v>
+        <v>7810.81982421875</v>
       </c>
       <c r="F66">
-        <v>75.569999694824219</v>
+        <v>76.050003051757813</v>
       </c>
       <c r="G66">
-        <v>13646.7197265625</v>
+        <v>12801.150390625</v>
       </c>
       <c r="H66">
-        <v>1.456091523170471</v>
+        <v>1.47520911693573</v>
       </c>
       <c r="I66">
-        <v>6474.89990234375</v>
+        <v>6348.5</v>
       </c>
       <c r="J66">
-        <v>830</v>
+        <v>860.9000244140625</v>
       </c>
       <c r="K66">
-        <v>18975.58984375</v>
+        <v>15554.259765625</v>
       </c>
       <c r="L66">
-        <v>2798.449951171875</v>
+        <v>2514.14990234375</v>
       </c>
       <c r="M66">
-        <v>16325.1796875</v>
+        <v>14549.3798828125</v>
       </c>
       <c r="N66">
-        <v>96.830001831054688</v>
+        <v>97.790000915527344</v>
       </c>
       <c r="O66">
-        <v>1515.4599609375</v>
+        <v>1414.069946289062</v>
       </c>
       <c r="P66">
-        <v>4416.990234375</v>
+        <v>4268.43017578125</v>
       </c>
       <c r="Q66">
-        <v>379.01998901367188</v>
+        <v>352.239990234375</v>
       </c>
       <c r="R66">
-        <v>4.3179998397827148</v>
+        <v>3.8929998874664311</v>
       </c>
       <c r="S66">
-        <v>3.910000085830688</v>
+        <v>3.2019999027252202</v>
       </c>
       <c r="T66">
-        <v>7.4457001686096191</v>
+        <v>7.254000186920166</v>
       </c>
       <c r="U66">
-        <v>114.6999969482422</v>
+        <v>108.5800018310547</v>
       </c>
       <c r="V66">
-        <v>23.14999961853027</v>
+        <v>24.620000839233398</v>
       </c>
     </row>
     <row r="67" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="B67">
-        <v>17</v>
+        <v>44.5</v>
       </c>
       <c r="C67">
-        <v>83</v>
+        <v>55.5</v>
       </c>
       <c r="D67">
-        <v>4406.9599609375</v>
+        <v>3833.989990234375</v>
       </c>
       <c r="E67">
-        <v>10278.5498046875</v>
+        <v>8495.9404296875</v>
       </c>
       <c r="F67">
-        <v>92.660003662109375</v>
+        <v>100.7900009155273</v>
       </c>
       <c r="G67">
-        <v>17516.9609375</v>
+        <v>19830.009765625</v>
       </c>
       <c r="H67">
-        <v>1.1597026586532591</v>
+        <v>1.094343304634094</v>
       </c>
       <c r="I67">
-        <v>6585.5</v>
+        <v>5080.60009765625</v>
       </c>
       <c r="J67">
-        <v>1278.900024414062</v>
+        <v>1481.5</v>
       </c>
       <c r="K67">
-        <v>11611.509765625</v>
+        <v>8724.080078125</v>
       </c>
       <c r="L67">
-        <v>4655.83984375</v>
+        <v>6996.4501953125</v>
       </c>
       <c r="M67">
-        <v>17071.650390625</v>
+        <v>16995.76953125</v>
       </c>
       <c r="N67">
-        <v>48.689998626708977</v>
+        <v>22.29999923706055</v>
       </c>
       <c r="O67">
-        <v>2020.760009765625</v>
+        <v>2393.47998046875</v>
       </c>
       <c r="P67">
-        <v>3229.340087890625</v>
+        <v>2388.93994140625</v>
       </c>
       <c r="Q67">
-        <v>353.739990234375</v>
+        <v>277.510009765625</v>
       </c>
       <c r="R67">
-        <v>1.8270000219345091</v>
+        <v>1.1369999647140501</v>
       </c>
       <c r="S67">
-        <v>1.3009999990463259</v>
+        <v>0.74299997091293335</v>
       </c>
       <c r="T67">
-        <v>6.2080001831054688</v>
+        <v>7.0464000701904297</v>
       </c>
       <c r="U67">
-        <v>117.7399978637695</v>
+        <v>108.4130020141602</v>
       </c>
       <c r="V67">
-        <v>20.069999694824219</v>
+        <v>80.620002746582031</v>
       </c>
     </row>
     <row r="68" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="B68">
-        <v>16.5</v>
+        <v>45</v>
       </c>
       <c r="C68">
-        <v>83.5</v>
+        <v>55</v>
       </c>
       <c r="D68">
-        <v>4303.5498046875</v>
+        <v>5256.7900390625</v>
       </c>
       <c r="E68">
-        <v>9985.509765625</v>
+        <v>12035.5595703125</v>
       </c>
       <c r="F68">
-        <v>92.099998474121094</v>
+        <v>96.790000915527344</v>
       </c>
       <c r="G68">
-        <v>17320</v>
+        <v>18035.900390625</v>
       </c>
       <c r="H68">
-        <v>1.1639004945755</v>
+        <v>1.0877013206481929</v>
       </c>
       <c r="I68">
-        <v>6498.7998046875</v>
+        <v>7104</v>
       </c>
       <c r="J68">
-        <v>1256.099975585938</v>
+        <v>1199.699951171875</v>
       </c>
       <c r="K68">
-        <v>12102.23046875</v>
+        <v>14749.7099609375</v>
       </c>
       <c r="L68">
-        <v>4566.3798828125</v>
+        <v>5063.259765625</v>
       </c>
       <c r="M68">
-        <v>16812.9609375</v>
+        <v>20068.650390625</v>
       </c>
       <c r="N68">
-        <v>46.349998474121087</v>
+        <v>56.650001525878913</v>
       </c>
       <c r="O68">
-        <v>1992.25</v>
+        <v>2108.35009765625</v>
       </c>
       <c r="P68">
-        <v>3147.530029296875</v>
+        <v>3765.25</v>
       </c>
       <c r="Q68">
-        <v>349.30999755859381</v>
+        <v>411.8699951171875</v>
       </c>
       <c r="R68">
-        <v>1.7150000333786011</v>
+        <v>1.9279999732971189</v>
       </c>
       <c r="S68">
-        <v>1.1759999990463259</v>
+        <v>1.3500000238418579</v>
       </c>
       <c r="T68">
-        <v>6.1774997711181641</v>
+        <v>6.2090001106262207</v>
       </c>
       <c r="U68">
-        <v>116.11199951171881</v>
+        <v>119.1320037841797</v>
       </c>
       <c r="V68">
-        <v>22.79999923706055</v>
+        <v>13.260000228881839</v>
       </c>
     </row>
     <row r="69" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="B69">
-        <v>16</v>
+        <v>45.5</v>
       </c>
       <c r="C69">
-        <v>84</v>
+        <v>54.5</v>
       </c>
       <c r="D69">
-        <v>4442.68994140625</v>
+        <v>5256.7900390625</v>
       </c>
       <c r="E69">
-        <v>9672.4501953125</v>
+        <v>12035.5595703125</v>
       </c>
       <c r="F69">
-        <v>84.139999389648438</v>
+        <v>96.790000915527344</v>
       </c>
       <c r="G69">
-        <v>17016.05078125</v>
+        <v>18035.900390625</v>
       </c>
       <c r="H69">
-        <v>1.29399585723877</v>
+        <v>1.0877013206481929</v>
       </c>
       <c r="I69">
-        <v>6829</v>
+        <v>7104</v>
       </c>
       <c r="J69">
-        <v>1256.699951171875</v>
+        <v>1199.699951171875</v>
       </c>
       <c r="K69">
-        <v>11301.7099609375</v>
+        <v>14749.7099609375</v>
       </c>
       <c r="L69">
-        <v>4554.14990234375</v>
+        <v>5063.259765625</v>
       </c>
       <c r="M69">
-        <v>15688.5498046875</v>
+        <v>20068.650390625</v>
       </c>
       <c r="N69">
-        <v>92.790000915527344</v>
+        <v>56.650001525878913</v>
       </c>
       <c r="O69">
-        <v>1988.410034179688</v>
+        <v>2108.35009765625</v>
       </c>
       <c r="P69">
-        <v>3241.340087890625</v>
+        <v>3765.25</v>
       </c>
       <c r="Q69">
-        <v>344.5</v>
+        <v>411.8699951171875</v>
       </c>
       <c r="R69">
-        <v>2.529000043869019</v>
+        <v>1.9279999732971189</v>
       </c>
       <c r="S69">
-        <v>1.779999971389771</v>
+        <v>1.3500000238418579</v>
       </c>
       <c r="T69">
-        <v>6.126500129699707</v>
+        <v>6.2090001106262207</v>
       </c>
       <c r="U69">
-        <v>106.1269989013672</v>
+        <v>119.1320037841797</v>
       </c>
       <c r="V69">
-        <v>13.35999965667725</v>
+        <v>13.260000228881839</v>
       </c>
     </row>
     <row r="70" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="B70">
-        <v>15.5</v>
+        <v>46</v>
       </c>
       <c r="C70">
-        <v>84.5</v>
+        <v>54</v>
       </c>
       <c r="D70">
-        <v>4484.39990234375</v>
+        <v>3370.860107421875</v>
       </c>
       <c r="E70">
-        <v>9767.900390625</v>
+        <v>4723.2900390625</v>
       </c>
       <c r="F70">
-        <v>83.800003051757813</v>
+        <v>86.339996337890625</v>
       </c>
       <c r="G70">
-        <v>17131.7109375</v>
+        <v>8822.1904296875</v>
       </c>
       <c r="H70">
-        <v>1.2952026128768921</v>
+        <v>1.278805136680603</v>
       </c>
       <c r="I70">
-        <v>6855.10009765625</v>
+        <v>4169.2001953125</v>
       </c>
       <c r="J70">
-        <v>1268.400024414062</v>
+        <v>726.5</v>
       </c>
       <c r="K70">
-        <v>11414.4296875</v>
+        <v>7127.0400390625</v>
       </c>
       <c r="L70">
-        <v>4579.06005859375</v>
+        <v>1560.589965820312</v>
       </c>
       <c r="M70">
-        <v>15718.1298828125</v>
+        <v>8378.1298828125</v>
       </c>
       <c r="N70">
-        <v>93.489997863769531</v>
+        <v>59.389999389648438</v>
       </c>
       <c r="O70">
-        <v>2007.170043945312</v>
+        <v>904.3599853515625</v>
       </c>
       <c r="P70">
-        <v>3276.199951171875</v>
+        <v>2459.2099609375</v>
       </c>
       <c r="Q70">
-        <v>346.6300048828125</v>
+        <v>203.24000549316409</v>
       </c>
       <c r="R70">
-        <v>2.437000036239624</v>
+        <v>3.752000093460083</v>
       </c>
       <c r="S70">
-        <v>1.6729999780654909</v>
+        <v>2.3580000400543208</v>
       </c>
       <c r="T70">
-        <v>6.1304998397827148</v>
+        <v>6.820000171661377</v>
       </c>
       <c r="U70">
-        <v>105.1490020751953</v>
+        <v>97.603996276855469</v>
       </c>
       <c r="V70">
-        <v>12.64000034332275</v>
+        <v>62.599998474121087</v>
       </c>
     </row>
     <row r="71" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>36</v>
+      </c>
       <c r="B71">
-        <v>15</v>
+        <v>46.5</v>
       </c>
       <c r="C71">
-        <v>85</v>
+        <v>53.5</v>
+      </c>
+      <c r="D71">
+        <v>3370.860107421875</v>
+      </c>
+      <c r="E71">
+        <v>4723.2900390625</v>
+      </c>
+      <c r="F71">
+        <v>86.339996337890625</v>
+      </c>
+      <c r="G71">
+        <v>8822.1904296875</v>
+      </c>
+      <c r="H71">
+        <v>1.278805136680603</v>
+      </c>
+      <c r="I71">
+        <v>4169.2001953125</v>
+      </c>
+      <c r="J71">
+        <v>726.5</v>
+      </c>
+      <c r="K71">
+        <v>7127.0400390625</v>
+      </c>
+      <c r="L71">
+        <v>1560.589965820312</v>
+      </c>
+      <c r="M71">
+        <v>8378.1298828125</v>
+      </c>
+      <c r="N71">
+        <v>59.389999389648438</v>
+      </c>
+      <c r="O71">
+        <v>904.3599853515625</v>
+      </c>
+      <c r="P71">
+        <v>2459.2099609375</v>
+      </c>
+      <c r="Q71">
+        <v>203.24000549316409</v>
+      </c>
+      <c r="R71">
+        <v>3.752000093460083</v>
+      </c>
+      <c r="S71">
+        <v>2.3580000400543208</v>
+      </c>
+      <c r="T71">
+        <v>6.820000171661377</v>
+      </c>
+      <c r="U71">
+        <v>97.603996276855469</v>
+      </c>
+      <c r="V71">
+        <v>62.599998474121087</v>
       </c>
     </row>
     <row r="72" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>37</v>
+      </c>
       <c r="B72">
-        <v>14.5</v>
+        <v>47</v>
       </c>
       <c r="C72">
-        <v>85.5</v>
+        <v>53</v>
+      </c>
+      <c r="D72">
+        <v>5051.68017578125</v>
+      </c>
+      <c r="E72">
+        <v>11467.0703125</v>
+      </c>
+      <c r="F72">
+        <v>97.44000244140625</v>
+      </c>
+      <c r="G72">
+        <v>18033.330078125</v>
+      </c>
+      <c r="H72">
+        <v>1.0922753810882571</v>
+      </c>
+      <c r="I72">
+        <v>6953.60009765625</v>
+      </c>
+      <c r="J72">
+        <v>1189</v>
+      </c>
+      <c r="K72">
+        <v>14227.419921875</v>
+      </c>
+      <c r="L72">
+        <v>5063.47021484375</v>
+      </c>
+      <c r="M72">
+        <v>20604.669921875</v>
+      </c>
+      <c r="N72">
+        <v>60.180000305175781</v>
+      </c>
+      <c r="O72">
+        <v>2110.409912109375</v>
+      </c>
+      <c r="P72">
+        <v>3588.699951171875</v>
+      </c>
+      <c r="Q72">
+        <v>400.8699951171875</v>
+      </c>
+      <c r="R72">
+        <v>2.2130000591278081</v>
+      </c>
+      <c r="S72">
+        <v>1.570000052452087</v>
+      </c>
+      <c r="T72">
+        <v>6.1894998550415039</v>
+      </c>
+      <c r="U72">
+        <v>124.86399841308589</v>
+      </c>
+      <c r="V72">
+        <v>14.72000026702881</v>
       </c>
     </row>
     <row r="73" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>38</v>
+      </c>
       <c r="B73">
-        <v>14</v>
+        <v>47.5</v>
       </c>
       <c r="C73">
-        <v>86</v>
+        <v>52.5</v>
+      </c>
+      <c r="D73">
+        <v>3892.64990234375</v>
+      </c>
+      <c r="E73">
+        <v>6892.02001953125</v>
+      </c>
+      <c r="F73">
+        <v>78.209999084472656</v>
+      </c>
+      <c r="G73">
+        <v>11201.66015625</v>
+      </c>
+      <c r="H73">
+        <v>1.374494791030884</v>
+      </c>
+      <c r="I73">
+        <v>5732.7998046875</v>
+      </c>
+      <c r="J73">
+        <v>1357.699951171875</v>
+      </c>
+      <c r="K73">
+        <v>13160.349609375</v>
+      </c>
+      <c r="L73">
+        <v>2509.389892578125</v>
+      </c>
+      <c r="M73">
+        <v>10133.48046875</v>
+      </c>
+      <c r="N73">
+        <v>82.150001525878906</v>
+      </c>
+      <c r="O73">
+        <v>1198.069946289062</v>
+      </c>
+      <c r="P73">
+        <v>2845.919921875</v>
+      </c>
+      <c r="Q73">
+        <v>269.6099853515625</v>
+      </c>
+      <c r="R73">
+        <v>2.839999914169312</v>
+      </c>
+      <c r="S73">
+        <v>1.4989999532699581</v>
+      </c>
+      <c r="T73">
+        <v>6.6321001052856454</v>
+      </c>
+      <c r="U73">
+        <v>83.463996887207031</v>
+      </c>
+      <c r="V73">
+        <v>19.45000076293945</v>
       </c>
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>38</v>
+      </c>
       <c r="B74">
-        <v>13.5</v>
+        <v>48</v>
       </c>
       <c r="C74">
-        <v>86.5</v>
+        <v>52</v>
+      </c>
+      <c r="D74">
+        <v>3892.64990234375</v>
+      </c>
+      <c r="E74">
+        <v>6892.02001953125</v>
+      </c>
+      <c r="F74">
+        <v>78.209999084472656</v>
+      </c>
+      <c r="G74">
+        <v>11201.66015625</v>
+      </c>
+      <c r="H74">
+        <v>1.374494791030884</v>
+      </c>
+      <c r="I74">
+        <v>5732.7998046875</v>
+      </c>
+      <c r="J74">
+        <v>1357.699951171875</v>
+      </c>
+      <c r="K74">
+        <v>13160.349609375</v>
+      </c>
+      <c r="L74">
+        <v>2509.389892578125</v>
+      </c>
+      <c r="M74">
+        <v>10133.48046875</v>
+      </c>
+      <c r="N74">
+        <v>82.150001525878906</v>
+      </c>
+      <c r="O74">
+        <v>1198.069946289062</v>
+      </c>
+      <c r="P74">
+        <v>2845.919921875</v>
+      </c>
+      <c r="Q74">
+        <v>269.6099853515625</v>
+      </c>
+      <c r="R74">
+        <v>2.839999914169312</v>
+      </c>
+      <c r="S74">
+        <v>1.4989999532699581</v>
+      </c>
+      <c r="T74">
+        <v>6.6321001052856454</v>
+      </c>
+      <c r="U74">
+        <v>83.463996887207031</v>
+      </c>
+      <c r="V74">
+        <v>19.45000076293945</v>
       </c>
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>39</v>
+      </c>
       <c r="B75">
-        <v>13</v>
+        <v>48.5</v>
       </c>
       <c r="C75">
-        <v>87</v>
+        <v>51.5</v>
+      </c>
+      <c r="D75">
+        <v>3170.159912109375</v>
+      </c>
+      <c r="E75">
+        <v>6045.8701171875</v>
+      </c>
+      <c r="F75">
+        <v>76.669998168945313</v>
+      </c>
+      <c r="G75">
+        <v>12166.400390625</v>
+      </c>
+      <c r="H75">
+        <v>1.382705092430115</v>
+      </c>
+      <c r="I75">
+        <v>5567.2998046875</v>
+      </c>
+      <c r="J75">
+        <v>1793</v>
+      </c>
+      <c r="K75">
+        <v>10957.7099609375</v>
+      </c>
+      <c r="L75">
+        <v>2662.56005859375</v>
+      </c>
+      <c r="M75">
+        <v>8724.599609375</v>
+      </c>
+      <c r="N75">
+        <v>96.80999755859375</v>
+      </c>
+      <c r="O75">
+        <v>1275.180053710938</v>
+      </c>
+      <c r="P75">
+        <v>2318.949951171875</v>
+      </c>
+      <c r="Q75">
+        <v>240.55000305175781</v>
+      </c>
+      <c r="R75">
+        <v>1.986999988555908</v>
+      </c>
+      <c r="S75">
+        <v>0.86500000953674316</v>
+      </c>
+      <c r="T75">
+        <v>6.3292999267578116</v>
+      </c>
+      <c r="U75">
+        <v>77.717002868652344</v>
+      </c>
+      <c r="V75">
+        <v>31.319999694824219</v>
       </c>
     </row>
     <row r="76" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>39</v>
+      </c>
       <c r="B76">
-        <v>12.5</v>
+        <v>49</v>
       </c>
       <c r="C76">
-        <v>87.5</v>
+        <v>51</v>
+      </c>
+      <c r="D76">
+        <v>3170.159912109375</v>
+      </c>
+      <c r="E76">
+        <v>6045.8701171875</v>
+      </c>
+      <c r="F76">
+        <v>76.669998168945313</v>
+      </c>
+      <c r="G76">
+        <v>12166.400390625</v>
+      </c>
+      <c r="H76">
+        <v>1.382705092430115</v>
+      </c>
+      <c r="I76">
+        <v>5567.2998046875</v>
+      </c>
+      <c r="J76">
+        <v>1793</v>
+      </c>
+      <c r="K76">
+        <v>10957.7099609375</v>
+      </c>
+      <c r="L76">
+        <v>2662.56005859375</v>
+      </c>
+      <c r="M76">
+        <v>8724.599609375</v>
+      </c>
+      <c r="N76">
+        <v>96.80999755859375</v>
+      </c>
+      <c r="O76">
+        <v>1275.180053710938</v>
+      </c>
+      <c r="P76">
+        <v>2318.949951171875</v>
+      </c>
+      <c r="Q76">
+        <v>240.55000305175781</v>
+      </c>
+      <c r="R76">
+        <v>1.986999988555908</v>
+      </c>
+      <c r="S76">
+        <v>0.86500000953674316</v>
+      </c>
+      <c r="T76">
+        <v>6.3292999267578116</v>
+      </c>
+      <c r="U76">
+        <v>77.717002868652344</v>
+      </c>
+      <c r="V76">
+        <v>31.319999694824219</v>
       </c>
     </row>
     <row r="77" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>40</v>
+      </c>
       <c r="B77">
-        <v>12</v>
+        <v>49.5</v>
       </c>
       <c r="C77">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B78">
-        <v>11.5</v>
-      </c>
-      <c r="C78">
-        <v>88.5</v>
-      </c>
-    </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B79">
-        <v>11</v>
-      </c>
-      <c r="C79">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B80">
-        <v>10.5</v>
-      </c>
-      <c r="C80">
-        <v>89.5</v>
-      </c>
-    </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B81">
-        <v>10</v>
-      </c>
-      <c r="C81">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B82">
-        <v>9.5</v>
-      </c>
-      <c r="C82">
-        <v>90.5</v>
+        <v>50.5</v>
+      </c>
+      <c r="D77">
+        <v>3337.840087890625</v>
+      </c>
+      <c r="E77">
+        <v>4891.580078125</v>
+      </c>
+      <c r="F77">
+        <v>81.639999389648438</v>
+      </c>
+      <c r="G77">
+        <v>8738.7998046875</v>
+      </c>
+      <c r="H77">
+        <v>1.3699755668640139</v>
+      </c>
+      <c r="I77">
+        <v>4505.39990234375</v>
+      </c>
+      <c r="J77">
+        <v>855.9000244140625</v>
+      </c>
+      <c r="K77">
+        <v>7796.14013671875</v>
+      </c>
+      <c r="L77">
+        <v>1617.050048828125</v>
+      </c>
+      <c r="M77">
+        <v>8932.7099609375</v>
+      </c>
+      <c r="N77">
+        <v>42.450000762939453</v>
+      </c>
+      <c r="O77">
+        <v>909.90997314453125</v>
+      </c>
+      <c r="P77">
+        <v>2524.739990234375</v>
+      </c>
+      <c r="Q77">
+        <v>209.63999938964841</v>
+      </c>
+      <c r="R77">
+        <v>2.4460000991821289</v>
+      </c>
+      <c r="S77">
+        <v>1.595000028610229</v>
+      </c>
+      <c r="T77">
+        <v>6.824699878692627</v>
+      </c>
+      <c r="U77">
+        <v>91.370002746582031</v>
+      </c>
+      <c r="V77">
+        <v>41.180000305175781</v>
       </c>
     </row>
   </sheetData>

--- a/Code_python/Data/training/training_set.xlsx
+++ b/Code_python/Data/training/training_set.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matno\Desktop\Télecom\2A\MALIS\Project\GIT\MALIS-project\Code_python\Data\training\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1694CE1-87BC-4F25-9D6C-B3E7CB691CCC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CE8968B-2B04-413A-AB9C-08B52E6437D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2466,10 +2466,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2811,17 +2817,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V776"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
+      <selection activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.5546875" customWidth="1"/>
+    <col min="1" max="1" width="24.5546875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A1" s="1">
+      <c r="A1" s="2">
         <v>0</v>
       </c>
       <c r="B1" s="1">
@@ -2889,7 +2895,7 @@
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
@@ -2957,7 +2963,7 @@
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B3">
@@ -3025,7 +3031,7 @@
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B4">
@@ -3093,7 +3099,7 @@
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B5">
@@ -3161,7 +3167,7 @@
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B6">
@@ -3229,7 +3235,7 @@
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B7">
@@ -3297,7 +3303,7 @@
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B8">
@@ -3365,7 +3371,7 @@
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B9">
@@ -3433,7 +3439,7 @@
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B10">
@@ -3501,7 +3507,7 @@
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B11">
@@ -3569,7 +3575,7 @@
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="A12" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B12">
@@ -3637,7 +3643,7 @@
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="A13" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B13">
@@ -3705,7 +3711,7 @@
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="A14" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B14">
@@ -3773,7 +3779,7 @@
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="A15" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B15">
@@ -3841,7 +3847,7 @@
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="A16" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B16">
@@ -3909,7 +3915,7 @@
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="A17" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B17">
@@ -3977,7 +3983,7 @@
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="A18" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B18">
@@ -4045,7 +4051,7 @@
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="A19" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B19">
@@ -4113,7 +4119,7 @@
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="A20" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B20">
@@ -4181,7 +4187,7 @@
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="A21" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B21">
@@ -4249,7 +4255,7 @@
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+      <c r="A22" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B22">
@@ -4317,7 +4323,7 @@
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+      <c r="A23" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B23">
@@ -4385,7 +4391,7 @@
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+      <c r="A24" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B24">
@@ -4453,7 +4459,7 @@
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+      <c r="A25" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B25">
@@ -4521,7 +4527,7 @@
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+      <c r="A26" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B26">
@@ -4589,7 +4595,7 @@
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+      <c r="A27" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B27">
@@ -4657,7 +4663,7 @@
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+      <c r="A28" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B28">
@@ -4725,7 +4731,7 @@
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+      <c r="A29" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B29">
@@ -4793,7 +4799,7 @@
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+      <c r="A30" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B30">
@@ -4861,7 +4867,7 @@
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+      <c r="A31" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B31">
@@ -4929,7 +4935,7 @@
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+      <c r="A32" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B32">
@@ -4997,7 +5003,7 @@
       </c>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
+      <c r="A33" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B33">
@@ -5065,7 +5071,7 @@
       </c>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
+      <c r="A34" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B34">
@@ -5133,7 +5139,7 @@
       </c>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
+      <c r="A35" s="3" t="s">
         <v>33</v>
       </c>
       <c r="B35">
@@ -5201,7 +5207,7 @@
       </c>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
+      <c r="A36" s="3" t="s">
         <v>34</v>
       </c>
       <c r="B36">
@@ -5269,7 +5275,7 @@
       </c>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
+      <c r="A37" s="3" t="s">
         <v>35</v>
       </c>
       <c r="B37">
@@ -5337,7 +5343,7 @@
       </c>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
+      <c r="A38" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B38">
@@ -5405,7 +5411,7 @@
       </c>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
+      <c r="A39" s="3" t="s">
         <v>37</v>
       </c>
       <c r="B39">
@@ -5473,7 +5479,7 @@
       </c>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
+      <c r="A40" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B40">
@@ -5541,7 +5547,7 @@
       </c>
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
+      <c r="A41" s="3" t="s">
         <v>39</v>
       </c>
       <c r="B41">
@@ -5609,7 +5615,7 @@
       </c>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
+      <c r="A42" s="3" t="s">
         <v>40</v>
       </c>
       <c r="B42">
@@ -5677,7 +5683,7 @@
       </c>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
+      <c r="A43" s="3" t="s">
         <v>41</v>
       </c>
       <c r="B43">
@@ -5745,7 +5751,7 @@
       </c>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
+      <c r="A44" s="3" t="s">
         <v>42</v>
       </c>
       <c r="B44">
@@ -5813,7 +5819,7 @@
       </c>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
+      <c r="A45" s="3" t="s">
         <v>43</v>
       </c>
       <c r="B45">
@@ -5881,7 +5887,7 @@
       </c>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
+      <c r="A46" s="3" t="s">
         <v>44</v>
       </c>
       <c r="B46">
@@ -5949,7 +5955,7 @@
       </c>
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
+      <c r="A47" s="3" t="s">
         <v>45</v>
       </c>
       <c r="B47">
@@ -6017,7 +6023,7 @@
       </c>
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
+      <c r="A48" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B48">
@@ -6085,7 +6091,7 @@
       </c>
     </row>
     <row r="49" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
+      <c r="A49" s="3" t="s">
         <v>47</v>
       </c>
       <c r="B49">
@@ -6153,7 +6159,7 @@
       </c>
     </row>
     <row r="50" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
+      <c r="A50" s="3" t="s">
         <v>48</v>
       </c>
       <c r="B50">
@@ -6221,7 +6227,7 @@
       </c>
     </row>
     <row r="51" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
+      <c r="A51" s="3" t="s">
         <v>49</v>
       </c>
       <c r="B51">
@@ -6289,7 +6295,7 @@
       </c>
     </row>
     <row r="52" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
+      <c r="A52" s="3" t="s">
         <v>50</v>
       </c>
       <c r="B52">
@@ -6357,7 +6363,7 @@
       </c>
     </row>
     <row r="53" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
+      <c r="A53" s="3" t="s">
         <v>51</v>
       </c>
       <c r="B53">
@@ -6425,7 +6431,7 @@
       </c>
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
+      <c r="A54" s="3" t="s">
         <v>52</v>
       </c>
       <c r="B54">
@@ -6493,7 +6499,7 @@
       </c>
     </row>
     <row r="55" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
+      <c r="A55" s="3" t="s">
         <v>53</v>
       </c>
       <c r="B55">
@@ -6561,7 +6567,7 @@
       </c>
     </row>
     <row r="56" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
+      <c r="A56" s="3" t="s">
         <v>54</v>
       </c>
       <c r="B56">
@@ -6629,7 +6635,7 @@
       </c>
     </row>
     <row r="57" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
+      <c r="A57" s="3" t="s">
         <v>55</v>
       </c>
       <c r="B57">
@@ -6697,7 +6703,7 @@
       </c>
     </row>
     <row r="58" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
+      <c r="A58" s="3" t="s">
         <v>56</v>
       </c>
       <c r="B58">
@@ -6765,7 +6771,7 @@
       </c>
     </row>
     <row r="59" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
+      <c r="A59" s="3" t="s">
         <v>57</v>
       </c>
       <c r="B59">
@@ -6833,7 +6839,7 @@
       </c>
     </row>
     <row r="60" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
+      <c r="A60" s="3" t="s">
         <v>58</v>
       </c>
       <c r="B60">
@@ -6901,7 +6907,7 @@
       </c>
     </row>
     <row r="61" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
+      <c r="A61" s="3" t="s">
         <v>59</v>
       </c>
       <c r="B61">
@@ -6969,7 +6975,7 @@
       </c>
     </row>
     <row r="62" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
+      <c r="A62" s="3" t="s">
         <v>60</v>
       </c>
       <c r="B62">
@@ -7037,7 +7043,7 @@
       </c>
     </row>
     <row r="63" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
+      <c r="A63" s="3" t="s">
         <v>61</v>
       </c>
       <c r="B63">
@@ -7105,7 +7111,7 @@
       </c>
     </row>
     <row r="64" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
+      <c r="A64" s="3" t="s">
         <v>62</v>
       </c>
       <c r="B64">
@@ -7173,7 +7179,7 @@
       </c>
     </row>
     <row r="65" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
+      <c r="A65" s="3" t="s">
         <v>63</v>
       </c>
       <c r="B65">
@@ -7241,7 +7247,7 @@
       </c>
     </row>
     <row r="66" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
+      <c r="A66" s="3" t="s">
         <v>64</v>
       </c>
       <c r="B66">
@@ -7309,7 +7315,7 @@
       </c>
     </row>
     <row r="67" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
+      <c r="A67" s="3" t="s">
         <v>65</v>
       </c>
       <c r="B67">
@@ -7377,7 +7383,7 @@
       </c>
     </row>
     <row r="68" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
+      <c r="A68" s="3" t="s">
         <v>66</v>
       </c>
       <c r="B68">
@@ -7445,7 +7451,7 @@
       </c>
     </row>
     <row r="69" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
+      <c r="A69" s="3" t="s">
         <v>67</v>
       </c>
       <c r="B69">
@@ -7513,7 +7519,7 @@
       </c>
     </row>
     <row r="70" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
+      <c r="A70" s="3" t="s">
         <v>68</v>
       </c>
       <c r="B70">
@@ -7581,7 +7587,7 @@
       </c>
     </row>
     <row r="71" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
+      <c r="A71" s="3" t="s">
         <v>69</v>
       </c>
       <c r="B71">
@@ -7649,7 +7655,7 @@
       </c>
     </row>
     <row r="72" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
+      <c r="A72" s="3" t="s">
         <v>70</v>
       </c>
       <c r="B72">
@@ -7717,7 +7723,7 @@
       </c>
     </row>
     <row r="73" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
+      <c r="A73" s="3" t="s">
         <v>71</v>
       </c>
       <c r="B73">
@@ -7785,7 +7791,7 @@
       </c>
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
+      <c r="A74" s="3" t="s">
         <v>72</v>
       </c>
       <c r="B74">
@@ -7853,7 +7859,7 @@
       </c>
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
+      <c r="A75" s="3" t="s">
         <v>73</v>
       </c>
       <c r="B75">
@@ -7921,7 +7927,7 @@
       </c>
     </row>
     <row r="76" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
+      <c r="A76" s="3" t="s">
         <v>74</v>
       </c>
       <c r="B76">
@@ -7989,7 +7995,7 @@
       </c>
     </row>
     <row r="77" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
+      <c r="A77" s="3" t="s">
         <v>75</v>
       </c>
       <c r="B77">
@@ -8057,7 +8063,7 @@
       </c>
     </row>
     <row r="78" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
+      <c r="A78" s="3" t="s">
         <v>76</v>
       </c>
       <c r="B78">
@@ -8125,7 +8131,7 @@
       </c>
     </row>
     <row r="79" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
+      <c r="A79" s="3" t="s">
         <v>77</v>
       </c>
       <c r="B79">
@@ -8193,7 +8199,7 @@
       </c>
     </row>
     <row r="80" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
+      <c r="A80" s="3" t="s">
         <v>78</v>
       </c>
       <c r="B80">
@@ -8261,7 +8267,7 @@
       </c>
     </row>
     <row r="81" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
+      <c r="A81" s="3" t="s">
         <v>79</v>
       </c>
       <c r="B81">
@@ -8329,7 +8335,7 @@
       </c>
     </row>
     <row r="82" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
+      <c r="A82" s="3" t="s">
         <v>80</v>
       </c>
       <c r="B82">
@@ -8397,7 +8403,7 @@
       </c>
     </row>
     <row r="83" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
+      <c r="A83" s="3" t="s">
         <v>81</v>
       </c>
       <c r="B83">
@@ -8465,7 +8471,7 @@
       </c>
     </row>
     <row r="84" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
+      <c r="A84" s="3" t="s">
         <v>82</v>
       </c>
       <c r="B84">
@@ -8533,7 +8539,7 @@
       </c>
     </row>
     <row r="85" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
+      <c r="A85" s="3" t="s">
         <v>83</v>
       </c>
       <c r="B85">
@@ -8601,7 +8607,7 @@
       </c>
     </row>
     <row r="86" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
+      <c r="A86" s="3" t="s">
         <v>84</v>
       </c>
       <c r="B86">
@@ -8669,7 +8675,7 @@
       </c>
     </row>
     <row r="87" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
+      <c r="A87" s="3" t="s">
         <v>85</v>
       </c>
       <c r="B87">
@@ -8737,7 +8743,7 @@
       </c>
     </row>
     <row r="88" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
+      <c r="A88" s="3" t="s">
         <v>86</v>
       </c>
       <c r="B88">
@@ -8805,7 +8811,7 @@
       </c>
     </row>
     <row r="89" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
+      <c r="A89" s="3" t="s">
         <v>87</v>
       </c>
       <c r="B89">
@@ -8873,7 +8879,7 @@
       </c>
     </row>
     <row r="90" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
+      <c r="A90" s="3" t="s">
         <v>88</v>
       </c>
       <c r="B90">
@@ -8941,7 +8947,7 @@
       </c>
     </row>
     <row r="91" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
+      <c r="A91" s="3" t="s">
         <v>89</v>
       </c>
       <c r="B91">
@@ -9009,7 +9015,7 @@
       </c>
     </row>
     <row r="92" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
+      <c r="A92" s="3" t="s">
         <v>90</v>
       </c>
       <c r="B92">
@@ -9077,7 +9083,7 @@
       </c>
     </row>
     <row r="93" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
+      <c r="A93" s="3" t="s">
         <v>91</v>
       </c>
       <c r="B93">
@@ -9145,7 +9151,7 @@
       </c>
     </row>
     <row r="94" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
+      <c r="A94" s="3" t="s">
         <v>92</v>
       </c>
       <c r="B94">
@@ -9213,7 +9219,7 @@
       </c>
     </row>
     <row r="95" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
+      <c r="A95" s="3" t="s">
         <v>93</v>
       </c>
       <c r="B95">
@@ -9281,7 +9287,7 @@
       </c>
     </row>
     <row r="96" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A96" t="s">
+      <c r="A96" s="3" t="s">
         <v>94</v>
       </c>
       <c r="B96">
@@ -9349,7 +9355,7 @@
       </c>
     </row>
     <row r="97" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A97" t="s">
+      <c r="A97" s="3" t="s">
         <v>95</v>
       </c>
       <c r="B97">
@@ -9417,7 +9423,7 @@
       </c>
     </row>
     <row r="98" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A98" t="s">
+      <c r="A98" s="3" t="s">
         <v>96</v>
       </c>
       <c r="B98">
@@ -9485,7 +9491,7 @@
       </c>
     </row>
     <row r="99" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A99" t="s">
+      <c r="A99" s="3" t="s">
         <v>97</v>
       </c>
       <c r="B99">
@@ -9553,7 +9559,7 @@
       </c>
     </row>
     <row r="100" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A100" t="s">
+      <c r="A100" s="3" t="s">
         <v>98</v>
       </c>
       <c r="B100">
@@ -9621,7 +9627,7 @@
       </c>
     </row>
     <row r="101" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A101" t="s">
+      <c r="A101" s="3" t="s">
         <v>99</v>
       </c>
       <c r="B101">
@@ -9689,7 +9695,7 @@
       </c>
     </row>
     <row r="102" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A102" t="s">
+      <c r="A102" s="3" t="s">
         <v>100</v>
       </c>
       <c r="B102">
@@ -9757,7 +9763,7 @@
       </c>
     </row>
     <row r="103" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A103" t="s">
+      <c r="A103" s="3" t="s">
         <v>101</v>
       </c>
       <c r="B103">
@@ -9825,7 +9831,7 @@
       </c>
     </row>
     <row r="104" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A104" t="s">
+      <c r="A104" s="3" t="s">
         <v>102</v>
       </c>
       <c r="B104">
@@ -9893,7 +9899,7 @@
       </c>
     </row>
     <row r="105" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A105" t="s">
+      <c r="A105" s="3" t="s">
         <v>103</v>
       </c>
       <c r="B105">
@@ -9961,7 +9967,7 @@
       </c>
     </row>
     <row r="106" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A106" t="s">
+      <c r="A106" s="3" t="s">
         <v>104</v>
       </c>
       <c r="B106">
@@ -10029,7 +10035,7 @@
       </c>
     </row>
     <row r="107" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A107" t="s">
+      <c r="A107" s="3" t="s">
         <v>105</v>
       </c>
       <c r="B107">
@@ -10097,7 +10103,7 @@
       </c>
     </row>
     <row r="108" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A108" t="s">
+      <c r="A108" s="3" t="s">
         <v>106</v>
       </c>
       <c r="B108">
@@ -10165,7 +10171,7 @@
       </c>
     </row>
     <row r="109" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A109" t="s">
+      <c r="A109" s="3" t="s">
         <v>107</v>
       </c>
       <c r="B109">
@@ -10233,7 +10239,7 @@
       </c>
     </row>
     <row r="110" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A110" t="s">
+      <c r="A110" s="3" t="s">
         <v>108</v>
       </c>
       <c r="B110">
@@ -10301,7 +10307,7 @@
       </c>
     </row>
     <row r="111" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A111" t="s">
+      <c r="A111" s="3" t="s">
         <v>109</v>
       </c>
       <c r="B111">
@@ -10369,7 +10375,7 @@
       </c>
     </row>
     <row r="112" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A112" t="s">
+      <c r="A112" s="3" t="s">
         <v>110</v>
       </c>
       <c r="B112">
@@ -10437,7 +10443,7 @@
       </c>
     </row>
     <row r="113" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A113" t="s">
+      <c r="A113" s="3" t="s">
         <v>111</v>
       </c>
       <c r="B113">
@@ -10505,7 +10511,7 @@
       </c>
     </row>
     <row r="114" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A114" t="s">
+      <c r="A114" s="3" t="s">
         <v>112</v>
       </c>
       <c r="B114">
@@ -10573,7 +10579,7 @@
       </c>
     </row>
     <row r="115" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A115" t="s">
+      <c r="A115" s="3" t="s">
         <v>113</v>
       </c>
       <c r="B115">
@@ -10641,7 +10647,7 @@
       </c>
     </row>
     <row r="116" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A116" t="s">
+      <c r="A116" s="3" t="s">
         <v>114</v>
       </c>
       <c r="B116">
@@ -10709,7 +10715,7 @@
       </c>
     </row>
     <row r="117" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A117" t="s">
+      <c r="A117" s="3" t="s">
         <v>115</v>
       </c>
       <c r="B117">
@@ -10777,7 +10783,7 @@
       </c>
     </row>
     <row r="118" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A118" t="s">
+      <c r="A118" s="3" t="s">
         <v>116</v>
       </c>
       <c r="B118">
@@ -10845,7 +10851,7 @@
       </c>
     </row>
     <row r="119" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A119" t="s">
+      <c r="A119" s="3" t="s">
         <v>117</v>
       </c>
       <c r="B119">
@@ -10913,7 +10919,7 @@
       </c>
     </row>
     <row r="120" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A120" t="s">
+      <c r="A120" s="3" t="s">
         <v>118</v>
       </c>
       <c r="B120">
@@ -10981,7 +10987,7 @@
       </c>
     </row>
     <row r="121" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A121" t="s">
+      <c r="A121" s="3" t="s">
         <v>119</v>
       </c>
       <c r="B121">
@@ -11049,7 +11055,7 @@
       </c>
     </row>
     <row r="122" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A122" t="s">
+      <c r="A122" s="3" t="s">
         <v>120</v>
       </c>
       <c r="B122">
@@ -11117,7 +11123,7 @@
       </c>
     </row>
     <row r="123" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A123" t="s">
+      <c r="A123" s="3" t="s">
         <v>121</v>
       </c>
       <c r="B123">
@@ -11185,7 +11191,7 @@
       </c>
     </row>
     <row r="124" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A124" t="s">
+      <c r="A124" s="3" t="s">
         <v>122</v>
       </c>
       <c r="B124">
@@ -11253,7 +11259,7 @@
       </c>
     </row>
     <row r="125" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A125" t="s">
+      <c r="A125" s="3" t="s">
         <v>123</v>
       </c>
       <c r="B125">
@@ -11321,7 +11327,7 @@
       </c>
     </row>
     <row r="126" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A126" t="s">
+      <c r="A126" s="3" t="s">
         <v>124</v>
       </c>
       <c r="B126">
@@ -11389,7 +11395,7 @@
       </c>
     </row>
     <row r="127" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A127" t="s">
+      <c r="A127" s="3" t="s">
         <v>125</v>
       </c>
       <c r="B127">
@@ -11457,7 +11463,7 @@
       </c>
     </row>
     <row r="128" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A128" t="s">
+      <c r="A128" s="3" t="s">
         <v>126</v>
       </c>
       <c r="B128">
@@ -11525,7 +11531,7 @@
       </c>
     </row>
     <row r="129" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A129" t="s">
+      <c r="A129" s="3" t="s">
         <v>127</v>
       </c>
       <c r="B129">
@@ -11593,7 +11599,7 @@
       </c>
     </row>
     <row r="130" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A130" t="s">
+      <c r="A130" s="3" t="s">
         <v>128</v>
       </c>
       <c r="B130">
@@ -11661,7 +11667,7 @@
       </c>
     </row>
     <row r="131" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A131" t="s">
+      <c r="A131" s="3" t="s">
         <v>129</v>
       </c>
       <c r="B131">
@@ -11729,7 +11735,7 @@
       </c>
     </row>
     <row r="132" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A132" t="s">
+      <c r="A132" s="3" t="s">
         <v>130</v>
       </c>
       <c r="B132">
@@ -11797,7 +11803,7 @@
       </c>
     </row>
     <row r="133" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A133" t="s">
+      <c r="A133" s="3" t="s">
         <v>131</v>
       </c>
       <c r="B133">
@@ -11865,7 +11871,7 @@
       </c>
     </row>
     <row r="134" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A134" t="s">
+      <c r="A134" s="3" t="s">
         <v>132</v>
       </c>
       <c r="B134">
@@ -11933,7 +11939,7 @@
       </c>
     </row>
     <row r="135" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A135" t="s">
+      <c r="A135" s="3" t="s">
         <v>133</v>
       </c>
       <c r="B135">
@@ -12001,7 +12007,7 @@
       </c>
     </row>
     <row r="136" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A136" t="s">
+      <c r="A136" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B136">
@@ -12069,7 +12075,7 @@
       </c>
     </row>
     <row r="137" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A137" t="s">
+      <c r="A137" s="3" t="s">
         <v>135</v>
       </c>
       <c r="B137">
@@ -12137,7 +12143,7 @@
       </c>
     </row>
     <row r="138" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A138" t="s">
+      <c r="A138" s="3" t="s">
         <v>136</v>
       </c>
       <c r="B138">
@@ -12205,7 +12211,7 @@
       </c>
     </row>
     <row r="139" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A139" t="s">
+      <c r="A139" s="3" t="s">
         <v>137</v>
       </c>
       <c r="B139">
@@ -12273,7 +12279,7 @@
       </c>
     </row>
     <row r="140" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A140" t="s">
+      <c r="A140" s="3" t="s">
         <v>138</v>
       </c>
       <c r="B140">
@@ -12341,7 +12347,7 @@
       </c>
     </row>
     <row r="141" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A141" t="s">
+      <c r="A141" s="3" t="s">
         <v>139</v>
       </c>
       <c r="B141">
@@ -12409,7 +12415,7 @@
       </c>
     </row>
     <row r="142" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A142" t="s">
+      <c r="A142" s="3" t="s">
         <v>140</v>
       </c>
       <c r="B142">
@@ -12477,7 +12483,7 @@
       </c>
     </row>
     <row r="143" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A143" t="s">
+      <c r="A143" s="3" t="s">
         <v>141</v>
       </c>
       <c r="B143">
@@ -12545,7 +12551,7 @@
       </c>
     </row>
     <row r="144" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A144" t="s">
+      <c r="A144" s="3" t="s">
         <v>142</v>
       </c>
       <c r="B144">
@@ -12613,7 +12619,7 @@
       </c>
     </row>
     <row r="145" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A145" t="s">
+      <c r="A145" s="3" t="s">
         <v>143</v>
       </c>
       <c r="B145">
@@ -12681,7 +12687,7 @@
       </c>
     </row>
     <row r="146" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A146" t="s">
+      <c r="A146" s="3" t="s">
         <v>144</v>
       </c>
       <c r="B146">
@@ -12749,7 +12755,7 @@
       </c>
     </row>
     <row r="147" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A147" t="s">
+      <c r="A147" s="3" t="s">
         <v>145</v>
       </c>
       <c r="B147">
@@ -12817,7 +12823,7 @@
       </c>
     </row>
     <row r="148" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A148" t="s">
+      <c r="A148" s="3" t="s">
         <v>146</v>
       </c>
       <c r="B148">
@@ -12885,7 +12891,7 @@
       </c>
     </row>
     <row r="149" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A149" t="s">
+      <c r="A149" s="3" t="s">
         <v>147</v>
       </c>
       <c r="B149">
@@ -12953,7 +12959,7 @@
       </c>
     </row>
     <row r="150" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A150" t="s">
+      <c r="A150" s="3" t="s">
         <v>148</v>
       </c>
       <c r="B150">
@@ -13021,7 +13027,7 @@
       </c>
     </row>
     <row r="151" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A151" t="s">
+      <c r="A151" s="3" t="s">
         <v>149</v>
       </c>
       <c r="B151">
@@ -13089,7 +13095,7 @@
       </c>
     </row>
     <row r="152" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A152" t="s">
+      <c r="A152" s="3" t="s">
         <v>150</v>
       </c>
       <c r="B152">
@@ -13157,7 +13163,7 @@
       </c>
     </row>
     <row r="153" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A153" t="s">
+      <c r="A153" s="3" t="s">
         <v>151</v>
       </c>
       <c r="B153">
@@ -13225,7 +13231,7 @@
       </c>
     </row>
     <row r="154" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A154" t="s">
+      <c r="A154" s="3" t="s">
         <v>152</v>
       </c>
       <c r="B154">
@@ -13293,7 +13299,7 @@
       </c>
     </row>
     <row r="155" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A155" t="s">
+      <c r="A155" s="3" t="s">
         <v>153</v>
       </c>
       <c r="B155">
@@ -13361,7 +13367,7 @@
       </c>
     </row>
     <row r="156" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A156" t="s">
+      <c r="A156" s="3" t="s">
         <v>154</v>
       </c>
       <c r="B156">
@@ -13429,7 +13435,7 @@
       </c>
     </row>
     <row r="157" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A157" t="s">
+      <c r="A157" s="3" t="s">
         <v>155</v>
       </c>
       <c r="B157">
@@ -13497,7 +13503,7 @@
       </c>
     </row>
     <row r="158" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A158" t="s">
+      <c r="A158" s="3" t="s">
         <v>156</v>
       </c>
       <c r="B158">
@@ -13565,7 +13571,7 @@
       </c>
     </row>
     <row r="159" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A159" t="s">
+      <c r="A159" s="3" t="s">
         <v>157</v>
       </c>
       <c r="B159">
@@ -13633,7 +13639,7 @@
       </c>
     </row>
     <row r="160" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A160" t="s">
+      <c r="A160" s="3" t="s">
         <v>158</v>
       </c>
       <c r="B160">
@@ -13701,7 +13707,7 @@
       </c>
     </row>
     <row r="161" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A161" t="s">
+      <c r="A161" s="3" t="s">
         <v>159</v>
       </c>
       <c r="B161">
@@ -13769,7 +13775,7 @@
       </c>
     </row>
     <row r="162" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A162" t="s">
+      <c r="A162" s="3" t="s">
         <v>160</v>
       </c>
       <c r="B162">
@@ -13837,7 +13843,7 @@
       </c>
     </row>
     <row r="163" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A163" t="s">
+      <c r="A163" s="3" t="s">
         <v>161</v>
       </c>
       <c r="B163">
@@ -13905,7 +13911,7 @@
       </c>
     </row>
     <row r="164" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A164" t="s">
+      <c r="A164" s="3" t="s">
         <v>162</v>
       </c>
       <c r="B164">
@@ -13973,7 +13979,7 @@
       </c>
     </row>
     <row r="165" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A165" t="s">
+      <c r="A165" s="3" t="s">
         <v>163</v>
       </c>
       <c r="B165">
@@ -14041,7 +14047,7 @@
       </c>
     </row>
     <row r="166" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A166" t="s">
+      <c r="A166" s="3" t="s">
         <v>164</v>
       </c>
       <c r="B166">
@@ -14109,7 +14115,7 @@
       </c>
     </row>
     <row r="167" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A167" t="s">
+      <c r="A167" s="3" t="s">
         <v>165</v>
       </c>
       <c r="B167">
@@ -14177,7 +14183,7 @@
       </c>
     </row>
     <row r="168" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A168" t="s">
+      <c r="A168" s="3" t="s">
         <v>166</v>
       </c>
       <c r="B168">
@@ -14245,7 +14251,7 @@
       </c>
     </row>
     <row r="169" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A169" t="s">
+      <c r="A169" s="3" t="s">
         <v>167</v>
       </c>
       <c r="B169">
@@ -14313,7 +14319,7 @@
       </c>
     </row>
     <row r="170" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A170" t="s">
+      <c r="A170" s="3" t="s">
         <v>168</v>
       </c>
       <c r="B170">
@@ -14381,7 +14387,7 @@
       </c>
     </row>
     <row r="171" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A171" t="s">
+      <c r="A171" s="3" t="s">
         <v>169</v>
       </c>
       <c r="B171">
@@ -14449,7 +14455,7 @@
       </c>
     </row>
     <row r="172" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A172" t="s">
+      <c r="A172" s="3" t="s">
         <v>170</v>
       </c>
       <c r="B172">
@@ -14517,7 +14523,7 @@
       </c>
     </row>
     <row r="173" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A173" t="s">
+      <c r="A173" s="3" t="s">
         <v>171</v>
       </c>
       <c r="B173">
@@ -14585,7 +14591,7 @@
       </c>
     </row>
     <row r="174" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A174" t="s">
+      <c r="A174" s="3" t="s">
         <v>172</v>
       </c>
       <c r="B174">
@@ -14653,7 +14659,7 @@
       </c>
     </row>
     <row r="175" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A175" t="s">
+      <c r="A175" s="3" t="s">
         <v>173</v>
       </c>
       <c r="B175">
@@ -14721,7 +14727,7 @@
       </c>
     </row>
     <row r="176" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A176" t="s">
+      <c r="A176" s="3" t="s">
         <v>174</v>
       </c>
       <c r="B176">
@@ -14789,7 +14795,7 @@
       </c>
     </row>
     <row r="177" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A177" t="s">
+      <c r="A177" s="3" t="s">
         <v>175</v>
       </c>
       <c r="B177">
@@ -14857,7 +14863,7 @@
       </c>
     </row>
     <row r="178" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A178" t="s">
+      <c r="A178" s="3" t="s">
         <v>176</v>
       </c>
       <c r="B178">
@@ -14925,7 +14931,7 @@
       </c>
     </row>
     <row r="179" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A179" t="s">
+      <c r="A179" s="3" t="s">
         <v>177</v>
       </c>
       <c r="B179">
@@ -14993,7 +14999,7 @@
       </c>
     </row>
     <row r="180" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A180" t="s">
+      <c r="A180" s="3" t="s">
         <v>178</v>
       </c>
       <c r="B180">
@@ -15061,7 +15067,7 @@
       </c>
     </row>
     <row r="181" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A181" t="s">
+      <c r="A181" s="3" t="s">
         <v>179</v>
       </c>
       <c r="B181">
@@ -15129,7 +15135,7 @@
       </c>
     </row>
     <row r="182" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A182" t="s">
+      <c r="A182" s="3" t="s">
         <v>180</v>
       </c>
       <c r="B182">
@@ -15197,7 +15203,7 @@
       </c>
     </row>
     <row r="183" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A183" t="s">
+      <c r="A183" s="3" t="s">
         <v>181</v>
       </c>
       <c r="B183">
@@ -15265,7 +15271,7 @@
       </c>
     </row>
     <row r="184" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A184" t="s">
+      <c r="A184" s="3" t="s">
         <v>182</v>
       </c>
       <c r="B184">
@@ -15333,7 +15339,7 @@
       </c>
     </row>
     <row r="185" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A185" t="s">
+      <c r="A185" s="3" t="s">
         <v>183</v>
       </c>
       <c r="B185">
@@ -15401,7 +15407,7 @@
       </c>
     </row>
     <row r="186" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A186" t="s">
+      <c r="A186" s="3" t="s">
         <v>184</v>
       </c>
       <c r="B186">
@@ -15469,7 +15475,7 @@
       </c>
     </row>
     <row r="187" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A187" t="s">
+      <c r="A187" s="3" t="s">
         <v>185</v>
       </c>
       <c r="B187">
@@ -15537,7 +15543,7 @@
       </c>
     </row>
     <row r="188" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A188" t="s">
+      <c r="A188" s="3" t="s">
         <v>186</v>
       </c>
       <c r="B188">
@@ -15605,7 +15611,7 @@
       </c>
     </row>
     <row r="189" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A189" t="s">
+      <c r="A189" s="3" t="s">
         <v>187</v>
       </c>
       <c r="B189">
@@ -15673,7 +15679,7 @@
       </c>
     </row>
     <row r="190" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A190" t="s">
+      <c r="A190" s="3" t="s">
         <v>188</v>
       </c>
       <c r="B190">
@@ -15741,7 +15747,7 @@
       </c>
     </row>
     <row r="191" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A191" t="s">
+      <c r="A191" s="3" t="s">
         <v>189</v>
       </c>
       <c r="B191">
@@ -15809,7 +15815,7 @@
       </c>
     </row>
     <row r="192" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A192" t="s">
+      <c r="A192" s="3" t="s">
         <v>190</v>
       </c>
       <c r="B192">
@@ -15877,7 +15883,7 @@
       </c>
     </row>
     <row r="193" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A193" t="s">
+      <c r="A193" s="3" t="s">
         <v>191</v>
       </c>
       <c r="B193">
@@ -15945,7 +15951,7 @@
       </c>
     </row>
     <row r="194" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A194" t="s">
+      <c r="A194" s="3" t="s">
         <v>192</v>
       </c>
       <c r="B194">
@@ -16013,7 +16019,7 @@
       </c>
     </row>
     <row r="195" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A195" t="s">
+      <c r="A195" s="3" t="s">
         <v>193</v>
       </c>
       <c r="B195">
@@ -16081,7 +16087,7 @@
       </c>
     </row>
     <row r="196" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A196" t="s">
+      <c r="A196" s="3" t="s">
         <v>194</v>
       </c>
       <c r="B196">
@@ -16149,7 +16155,7 @@
       </c>
     </row>
     <row r="197" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A197" t="s">
+      <c r="A197" s="3" t="s">
         <v>195</v>
       </c>
       <c r="B197">
@@ -16217,7 +16223,7 @@
       </c>
     </row>
     <row r="198" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A198" t="s">
+      <c r="A198" s="3" t="s">
         <v>196</v>
       </c>
       <c r="B198">
@@ -16285,7 +16291,7 @@
       </c>
     </row>
     <row r="199" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A199" t="s">
+      <c r="A199" s="3" t="s">
         <v>197</v>
       </c>
       <c r="B199">
@@ -16353,7 +16359,7 @@
       </c>
     </row>
     <row r="200" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A200" t="s">
+      <c r="A200" s="3" t="s">
         <v>198</v>
       </c>
       <c r="B200">
@@ -16421,7 +16427,7 @@
       </c>
     </row>
     <row r="201" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A201" t="s">
+      <c r="A201" s="3" t="s">
         <v>199</v>
       </c>
       <c r="B201">
@@ -16489,7 +16495,7 @@
       </c>
     </row>
     <row r="202" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A202" t="s">
+      <c r="A202" s="3" t="s">
         <v>200</v>
       </c>
       <c r="B202">
@@ -16557,7 +16563,7 @@
       </c>
     </row>
     <row r="203" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A203" t="s">
+      <c r="A203" s="3" t="s">
         <v>201</v>
       </c>
       <c r="B203">
@@ -16625,7 +16631,7 @@
       </c>
     </row>
     <row r="204" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A204" t="s">
+      <c r="A204" s="3" t="s">
         <v>202</v>
       </c>
       <c r="B204">
@@ -16693,7 +16699,7 @@
       </c>
     </row>
     <row r="205" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A205" t="s">
+      <c r="A205" s="3" t="s">
         <v>203</v>
       </c>
       <c r="B205">
@@ -16761,7 +16767,7 @@
       </c>
     </row>
     <row r="206" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A206" t="s">
+      <c r="A206" s="3" t="s">
         <v>204</v>
       </c>
       <c r="B206">
@@ -16829,7 +16835,7 @@
       </c>
     </row>
     <row r="207" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A207" t="s">
+      <c r="A207" s="3" t="s">
         <v>205</v>
       </c>
       <c r="B207">
@@ -16897,7 +16903,7 @@
       </c>
     </row>
     <row r="208" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A208" t="s">
+      <c r="A208" s="3" t="s">
         <v>206</v>
       </c>
       <c r="B208">
@@ -16965,7 +16971,7 @@
       </c>
     </row>
     <row r="209" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A209" t="s">
+      <c r="A209" s="3" t="s">
         <v>207</v>
       </c>
       <c r="B209">
@@ -17033,7 +17039,7 @@
       </c>
     </row>
     <row r="210" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A210" t="s">
+      <c r="A210" s="3" t="s">
         <v>208</v>
       </c>
       <c r="B210">
@@ -17101,7 +17107,7 @@
       </c>
     </row>
     <row r="211" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A211" t="s">
+      <c r="A211" s="3" t="s">
         <v>209</v>
       </c>
       <c r="B211">
@@ -17169,7 +17175,7 @@
       </c>
     </row>
     <row r="212" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A212" t="s">
+      <c r="A212" s="3" t="s">
         <v>210</v>
       </c>
       <c r="B212">
@@ -17237,7 +17243,7 @@
       </c>
     </row>
     <row r="213" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A213" t="s">
+      <c r="A213" s="3" t="s">
         <v>211</v>
       </c>
       <c r="B213">
@@ -17305,7 +17311,7 @@
       </c>
     </row>
     <row r="214" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A214" t="s">
+      <c r="A214" s="3" t="s">
         <v>212</v>
       </c>
       <c r="B214">
@@ -17373,7 +17379,7 @@
       </c>
     </row>
     <row r="215" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A215" t="s">
+      <c r="A215" s="3" t="s">
         <v>213</v>
       </c>
       <c r="B215">
@@ -17441,7 +17447,7 @@
       </c>
     </row>
     <row r="216" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A216" t="s">
+      <c r="A216" s="3" t="s">
         <v>214</v>
       </c>
       <c r="B216">
@@ -17509,7 +17515,7 @@
       </c>
     </row>
     <row r="217" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A217" t="s">
+      <c r="A217" s="3" t="s">
         <v>215</v>
       </c>
       <c r="B217">
@@ -17577,7 +17583,7 @@
       </c>
     </row>
     <row r="218" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A218" t="s">
+      <c r="A218" s="3" t="s">
         <v>216</v>
       </c>
       <c r="B218">
@@ -17645,7 +17651,7 @@
       </c>
     </row>
     <row r="219" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A219" t="s">
+      <c r="A219" s="3" t="s">
         <v>217</v>
       </c>
       <c r="B219">
@@ -17713,7 +17719,7 @@
       </c>
     </row>
     <row r="220" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A220" t="s">
+      <c r="A220" s="3" t="s">
         <v>218</v>
       </c>
       <c r="B220">
@@ -17781,7 +17787,7 @@
       </c>
     </row>
     <row r="221" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A221" t="s">
+      <c r="A221" s="3" t="s">
         <v>219</v>
       </c>
       <c r="B221">
@@ -17849,7 +17855,7 @@
       </c>
     </row>
     <row r="222" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A222" t="s">
+      <c r="A222" s="3" t="s">
         <v>220</v>
       </c>
       <c r="B222">
@@ -17917,7 +17923,7 @@
       </c>
     </row>
     <row r="223" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A223" t="s">
+      <c r="A223" s="3" t="s">
         <v>221</v>
       </c>
       <c r="B223">
@@ -17985,7 +17991,7 @@
       </c>
     </row>
     <row r="224" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A224" t="s">
+      <c r="A224" s="3" t="s">
         <v>222</v>
       </c>
       <c r="B224">
@@ -18053,7 +18059,7 @@
       </c>
     </row>
     <row r="225" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A225" t="s">
+      <c r="A225" s="3" t="s">
         <v>223</v>
       </c>
       <c r="B225">
@@ -18121,7 +18127,7 @@
       </c>
     </row>
     <row r="226" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A226" t="s">
+      <c r="A226" s="3" t="s">
         <v>224</v>
       </c>
       <c r="B226">
@@ -18189,7 +18195,7 @@
       </c>
     </row>
     <row r="227" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A227" t="s">
+      <c r="A227" s="3" t="s">
         <v>225</v>
       </c>
       <c r="B227">
@@ -18257,7 +18263,7 @@
       </c>
     </row>
     <row r="228" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A228" t="s">
+      <c r="A228" s="3" t="s">
         <v>226</v>
       </c>
       <c r="B228">
@@ -18325,7 +18331,7 @@
       </c>
     </row>
     <row r="229" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A229" t="s">
+      <c r="A229" s="3" t="s">
         <v>227</v>
       </c>
       <c r="B229">
@@ -18393,7 +18399,7 @@
       </c>
     </row>
     <row r="230" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A230" t="s">
+      <c r="A230" s="3" t="s">
         <v>228</v>
       </c>
       <c r="B230">
@@ -18461,7 +18467,7 @@
       </c>
     </row>
     <row r="231" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A231" t="s">
+      <c r="A231" s="3" t="s">
         <v>229</v>
       </c>
       <c r="B231">
@@ -18529,7 +18535,7 @@
       </c>
     </row>
     <row r="232" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A232" t="s">
+      <c r="A232" s="3" t="s">
         <v>230</v>
       </c>
       <c r="B232">
@@ -18597,7 +18603,7 @@
       </c>
     </row>
     <row r="233" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A233" t="s">
+      <c r="A233" s="3" t="s">
         <v>231</v>
       </c>
       <c r="B233">
@@ -18665,7 +18671,7 @@
       </c>
     </row>
     <row r="234" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A234" t="s">
+      <c r="A234" s="3" t="s">
         <v>232</v>
       </c>
       <c r="B234">
@@ -18733,7 +18739,7 @@
       </c>
     </row>
     <row r="235" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A235" t="s">
+      <c r="A235" s="3" t="s">
         <v>233</v>
       </c>
       <c r="B235">
@@ -18801,7 +18807,7 @@
       </c>
     </row>
     <row r="236" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A236" t="s">
+      <c r="A236" s="3" t="s">
         <v>234</v>
       </c>
       <c r="B236">
@@ -18869,7 +18875,7 @@
       </c>
     </row>
     <row r="237" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A237" t="s">
+      <c r="A237" s="3" t="s">
         <v>235</v>
       </c>
       <c r="B237">
@@ -18937,7 +18943,7 @@
       </c>
     </row>
     <row r="238" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A238" t="s">
+      <c r="A238" s="3" t="s">
         <v>236</v>
       </c>
       <c r="B238">
@@ -19005,7 +19011,7 @@
       </c>
     </row>
     <row r="239" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A239" t="s">
+      <c r="A239" s="3" t="s">
         <v>237</v>
       </c>
       <c r="B239">
@@ -19073,7 +19079,7 @@
       </c>
     </row>
     <row r="240" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A240" t="s">
+      <c r="A240" s="3" t="s">
         <v>238</v>
       </c>
       <c r="B240">
@@ -19141,7 +19147,7 @@
       </c>
     </row>
     <row r="241" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A241" t="s">
+      <c r="A241" s="3" t="s">
         <v>239</v>
       </c>
       <c r="B241">
@@ -19209,7 +19215,7 @@
       </c>
     </row>
     <row r="242" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A242" t="s">
+      <c r="A242" s="3" t="s">
         <v>240</v>
       </c>
       <c r="B242">
@@ -19277,7 +19283,7 @@
       </c>
     </row>
     <row r="243" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A243" t="s">
+      <c r="A243" s="3" t="s">
         <v>241</v>
       </c>
       <c r="B243">
@@ -19345,7 +19351,7 @@
       </c>
     </row>
     <row r="244" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A244" t="s">
+      <c r="A244" s="3" t="s">
         <v>242</v>
       </c>
       <c r="B244">
@@ -19413,7 +19419,7 @@
       </c>
     </row>
     <row r="245" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A245" t="s">
+      <c r="A245" s="3" t="s">
         <v>243</v>
       </c>
       <c r="B245">
@@ -19481,7 +19487,7 @@
       </c>
     </row>
     <row r="246" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A246" t="s">
+      <c r="A246" s="3" t="s">
         <v>244</v>
       </c>
       <c r="B246">
@@ -19549,7 +19555,7 @@
       </c>
     </row>
     <row r="247" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A247" t="s">
+      <c r="A247" s="3" t="s">
         <v>245</v>
       </c>
       <c r="B247">
@@ -19617,7 +19623,7 @@
       </c>
     </row>
     <row r="248" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A248" t="s">
+      <c r="A248" s="3" t="s">
         <v>246</v>
       </c>
       <c r="B248">
@@ -19685,7 +19691,7 @@
       </c>
     </row>
     <row r="249" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A249" t="s">
+      <c r="A249" s="3" t="s">
         <v>247</v>
       </c>
       <c r="B249">
@@ -19753,7 +19759,7 @@
       </c>
     </row>
     <row r="250" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A250" t="s">
+      <c r="A250" s="3" t="s">
         <v>248</v>
       </c>
       <c r="B250">
@@ -19821,7 +19827,7 @@
       </c>
     </row>
     <row r="251" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A251" t="s">
+      <c r="A251" s="3" t="s">
         <v>249</v>
       </c>
       <c r="B251">
@@ -19889,7 +19895,7 @@
       </c>
     </row>
     <row r="252" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A252" t="s">
+      <c r="A252" s="3" t="s">
         <v>250</v>
       </c>
       <c r="B252">
@@ -19957,7 +19963,7 @@
       </c>
     </row>
     <row r="253" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A253" t="s">
+      <c r="A253" s="3" t="s">
         <v>251</v>
       </c>
       <c r="B253">
@@ -20025,7 +20031,7 @@
       </c>
     </row>
     <row r="254" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A254" t="s">
+      <c r="A254" s="3" t="s">
         <v>252</v>
       </c>
       <c r="B254">
@@ -20093,7 +20099,7 @@
       </c>
     </row>
     <row r="255" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A255" t="s">
+      <c r="A255" s="3" t="s">
         <v>253</v>
       </c>
       <c r="B255">
@@ -20161,7 +20167,7 @@
       </c>
     </row>
     <row r="256" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A256" t="s">
+      <c r="A256" s="3" t="s">
         <v>254</v>
       </c>
       <c r="B256">
@@ -20229,7 +20235,7 @@
       </c>
     </row>
     <row r="257" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A257" t="s">
+      <c r="A257" s="3" t="s">
         <v>255</v>
       </c>
       <c r="B257">
@@ -20297,7 +20303,7 @@
       </c>
     </row>
     <row r="258" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A258" t="s">
+      <c r="A258" s="3" t="s">
         <v>256</v>
       </c>
       <c r="B258">
@@ -20365,7 +20371,7 @@
       </c>
     </row>
     <row r="259" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A259" t="s">
+      <c r="A259" s="3" t="s">
         <v>257</v>
       </c>
       <c r="B259">
@@ -20433,7 +20439,7 @@
       </c>
     </row>
     <row r="260" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A260" t="s">
+      <c r="A260" s="3" t="s">
         <v>258</v>
       </c>
       <c r="B260">
@@ -20501,7 +20507,7 @@
       </c>
     </row>
     <row r="261" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A261" t="s">
+      <c r="A261" s="3" t="s">
         <v>259</v>
       </c>
       <c r="B261">
@@ -20569,7 +20575,7 @@
       </c>
     </row>
     <row r="262" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A262" t="s">
+      <c r="A262" s="3" t="s">
         <v>260</v>
       </c>
       <c r="B262">
@@ -20637,7 +20643,7 @@
       </c>
     </row>
     <row r="263" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A263" t="s">
+      <c r="A263" s="3" t="s">
         <v>261</v>
       </c>
       <c r="B263">
@@ -20705,7 +20711,7 @@
       </c>
     </row>
     <row r="264" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A264" t="s">
+      <c r="A264" s="3" t="s">
         <v>262</v>
       </c>
       <c r="B264">
@@ -20773,7 +20779,7 @@
       </c>
     </row>
     <row r="265" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A265" t="s">
+      <c r="A265" s="3" t="s">
         <v>263</v>
       </c>
       <c r="B265">
@@ -20841,7 +20847,7 @@
       </c>
     </row>
     <row r="266" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A266" t="s">
+      <c r="A266" s="3" t="s">
         <v>264</v>
       </c>
       <c r="B266">
@@ -20909,7 +20915,7 @@
       </c>
     </row>
     <row r="267" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A267" t="s">
+      <c r="A267" s="3" t="s">
         <v>265</v>
       </c>
       <c r="B267">
@@ -20977,7 +20983,7 @@
       </c>
     </row>
     <row r="268" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A268" t="s">
+      <c r="A268" s="3" t="s">
         <v>266</v>
       </c>
       <c r="B268">
@@ -21045,7 +21051,7 @@
       </c>
     </row>
     <row r="269" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A269" t="s">
+      <c r="A269" s="3" t="s">
         <v>267</v>
       </c>
       <c r="B269">
@@ -21113,7 +21119,7 @@
       </c>
     </row>
     <row r="270" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A270" t="s">
+      <c r="A270" s="3" t="s">
         <v>268</v>
       </c>
       <c r="B270">
@@ -21181,7 +21187,7 @@
       </c>
     </row>
     <row r="271" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A271" t="s">
+      <c r="A271" s="3" t="s">
         <v>269</v>
       </c>
       <c r="B271">
@@ -21249,7 +21255,7 @@
       </c>
     </row>
     <row r="272" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A272" t="s">
+      <c r="A272" s="3" t="s">
         <v>270</v>
       </c>
       <c r="B272">
@@ -21317,7 +21323,7 @@
       </c>
     </row>
     <row r="273" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A273" t="s">
+      <c r="A273" s="3" t="s">
         <v>271</v>
       </c>
       <c r="B273">
@@ -21385,7 +21391,7 @@
       </c>
     </row>
     <row r="274" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A274" t="s">
+      <c r="A274" s="3" t="s">
         <v>272</v>
       </c>
       <c r="B274">
@@ -21453,7 +21459,7 @@
       </c>
     </row>
     <row r="275" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A275" t="s">
+      <c r="A275" s="3" t="s">
         <v>273</v>
       </c>
       <c r="B275">
@@ -21521,7 +21527,7 @@
       </c>
     </row>
     <row r="276" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A276" t="s">
+      <c r="A276" s="3" t="s">
         <v>274</v>
       </c>
       <c r="B276">
@@ -21589,7 +21595,7 @@
       </c>
     </row>
     <row r="277" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A277" t="s">
+      <c r="A277" s="3" t="s">
         <v>275</v>
       </c>
       <c r="B277">
@@ -21657,7 +21663,7 @@
       </c>
     </row>
     <row r="278" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A278" t="s">
+      <c r="A278" s="3" t="s">
         <v>276</v>
       </c>
       <c r="B278">
@@ -21725,7 +21731,7 @@
       </c>
     </row>
     <row r="279" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A279" t="s">
+      <c r="A279" s="3" t="s">
         <v>277</v>
       </c>
       <c r="B279">
@@ -21793,7 +21799,7 @@
       </c>
     </row>
     <row r="280" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A280" t="s">
+      <c r="A280" s="3" t="s">
         <v>278</v>
       </c>
       <c r="B280">
@@ -21861,7 +21867,7 @@
       </c>
     </row>
     <row r="281" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A281" t="s">
+      <c r="A281" s="3" t="s">
         <v>279</v>
       </c>
       <c r="B281">
@@ -21929,7 +21935,7 @@
       </c>
     </row>
     <row r="282" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A282" t="s">
+      <c r="A282" s="3" t="s">
         <v>280</v>
       </c>
       <c r="B282">
@@ -21997,7 +22003,7 @@
       </c>
     </row>
     <row r="283" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A283" t="s">
+      <c r="A283" s="3" t="s">
         <v>281</v>
       </c>
       <c r="B283">
@@ -22065,7 +22071,7 @@
       </c>
     </row>
     <row r="284" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A284" t="s">
+      <c r="A284" s="3" t="s">
         <v>282</v>
       </c>
       <c r="B284">
@@ -22133,7 +22139,7 @@
       </c>
     </row>
     <row r="285" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A285" t="s">
+      <c r="A285" s="3" t="s">
         <v>283</v>
       </c>
       <c r="B285">
@@ -22201,7 +22207,7 @@
       </c>
     </row>
     <row r="286" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A286" t="s">
+      <c r="A286" s="3" t="s">
         <v>284</v>
       </c>
       <c r="B286">
@@ -22269,7 +22275,7 @@
       </c>
     </row>
     <row r="287" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A287" t="s">
+      <c r="A287" s="3" t="s">
         <v>285</v>
       </c>
       <c r="B287">
@@ -22337,7 +22343,7 @@
       </c>
     </row>
     <row r="288" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A288" t="s">
+      <c r="A288" s="3" t="s">
         <v>286</v>
       </c>
       <c r="B288">
@@ -22405,7 +22411,7 @@
       </c>
     </row>
     <row r="289" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A289" t="s">
+      <c r="A289" s="3" t="s">
         <v>287</v>
       </c>
       <c r="B289">
@@ -22473,7 +22479,7 @@
       </c>
     </row>
     <row r="290" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A290" t="s">
+      <c r="A290" s="3" t="s">
         <v>288</v>
       </c>
       <c r="B290">
@@ -22541,7 +22547,7 @@
       </c>
     </row>
     <row r="291" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A291" t="s">
+      <c r="A291" s="3" t="s">
         <v>289</v>
       </c>
       <c r="B291">
@@ -22609,7 +22615,7 @@
       </c>
     </row>
     <row r="292" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A292" t="s">
+      <c r="A292" s="3" t="s">
         <v>290</v>
       </c>
       <c r="B292">
@@ -22677,7 +22683,7 @@
       </c>
     </row>
     <row r="293" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A293" t="s">
+      <c r="A293" s="3" t="s">
         <v>291</v>
       </c>
       <c r="B293">
@@ -22745,7 +22751,7 @@
       </c>
     </row>
     <row r="294" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A294" t="s">
+      <c r="A294" s="3" t="s">
         <v>292</v>
       </c>
       <c r="B294">
@@ -22813,7 +22819,7 @@
       </c>
     </row>
     <row r="295" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A295" t="s">
+      <c r="A295" s="3" t="s">
         <v>293</v>
       </c>
       <c r="B295">
@@ -22881,7 +22887,7 @@
       </c>
     </row>
     <row r="296" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A296" t="s">
+      <c r="A296" s="3" t="s">
         <v>294</v>
       </c>
       <c r="B296">
@@ -22949,7 +22955,7 @@
       </c>
     </row>
     <row r="297" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A297" t="s">
+      <c r="A297" s="3" t="s">
         <v>295</v>
       </c>
       <c r="B297">
@@ -23017,7 +23023,7 @@
       </c>
     </row>
     <row r="298" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A298" t="s">
+      <c r="A298" s="3" t="s">
         <v>296</v>
       </c>
       <c r="B298">
@@ -23085,7 +23091,7 @@
       </c>
     </row>
     <row r="299" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A299" t="s">
+      <c r="A299" s="3" t="s">
         <v>297</v>
       </c>
       <c r="B299">
@@ -23153,7 +23159,7 @@
       </c>
     </row>
     <row r="300" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A300" t="s">
+      <c r="A300" s="3" t="s">
         <v>298</v>
       </c>
       <c r="B300">
@@ -23221,7 +23227,7 @@
       </c>
     </row>
     <row r="301" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A301" t="s">
+      <c r="A301" s="3" t="s">
         <v>299</v>
       </c>
       <c r="B301">
@@ -23289,7 +23295,7 @@
       </c>
     </row>
     <row r="302" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A302" t="s">
+      <c r="A302" s="3" t="s">
         <v>300</v>
       </c>
       <c r="B302">
@@ -23357,7 +23363,7 @@
       </c>
     </row>
     <row r="303" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A303" t="s">
+      <c r="A303" s="3" t="s">
         <v>301</v>
       </c>
       <c r="B303">
@@ -23425,7 +23431,7 @@
       </c>
     </row>
     <row r="304" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A304" t="s">
+      <c r="A304" s="3" t="s">
         <v>302</v>
       </c>
       <c r="B304">
@@ -23493,7 +23499,7 @@
       </c>
     </row>
     <row r="305" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A305" t="s">
+      <c r="A305" s="3" t="s">
         <v>303</v>
       </c>
       <c r="B305">
@@ -23561,7 +23567,7 @@
       </c>
     </row>
     <row r="306" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A306" t="s">
+      <c r="A306" s="3" t="s">
         <v>304</v>
       </c>
       <c r="B306">
@@ -23629,7 +23635,7 @@
       </c>
     </row>
     <row r="307" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A307" t="s">
+      <c r="A307" s="3" t="s">
         <v>305</v>
       </c>
       <c r="B307">
@@ -23697,7 +23703,7 @@
       </c>
     </row>
     <row r="308" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A308" t="s">
+      <c r="A308" s="3" t="s">
         <v>306</v>
       </c>
       <c r="B308">
@@ -23765,7 +23771,7 @@
       </c>
     </row>
     <row r="309" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A309" t="s">
+      <c r="A309" s="3" t="s">
         <v>307</v>
       </c>
       <c r="B309">
@@ -23833,7 +23839,7 @@
       </c>
     </row>
     <row r="310" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A310" t="s">
+      <c r="A310" s="3" t="s">
         <v>308</v>
       </c>
       <c r="B310">
@@ -23901,7 +23907,7 @@
       </c>
     </row>
     <row r="311" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A311" t="s">
+      <c r="A311" s="3" t="s">
         <v>309</v>
       </c>
       <c r="B311">
@@ -23969,7 +23975,7 @@
       </c>
     </row>
     <row r="312" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A312" t="s">
+      <c r="A312" s="3" t="s">
         <v>310</v>
       </c>
       <c r="B312">
@@ -24037,7 +24043,7 @@
       </c>
     </row>
     <row r="313" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A313" t="s">
+      <c r="A313" s="3" t="s">
         <v>311</v>
       </c>
       <c r="B313">
@@ -24105,7 +24111,7 @@
       </c>
     </row>
     <row r="314" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A314" t="s">
+      <c r="A314" s="3" t="s">
         <v>312</v>
       </c>
       <c r="B314">
@@ -24173,7 +24179,7 @@
       </c>
     </row>
     <row r="315" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A315" t="s">
+      <c r="A315" s="3" t="s">
         <v>313</v>
       </c>
       <c r="B315">
@@ -24241,7 +24247,7 @@
       </c>
     </row>
     <row r="316" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A316" t="s">
+      <c r="A316" s="3" t="s">
         <v>314</v>
       </c>
       <c r="B316">
@@ -24309,7 +24315,7 @@
       </c>
     </row>
     <row r="317" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A317" t="s">
+      <c r="A317" s="3" t="s">
         <v>315</v>
       </c>
       <c r="B317">
@@ -24377,7 +24383,7 @@
       </c>
     </row>
     <row r="318" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A318" t="s">
+      <c r="A318" s="3" t="s">
         <v>316</v>
       </c>
       <c r="B318">
@@ -24445,7 +24451,7 @@
       </c>
     </row>
     <row r="319" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A319" t="s">
+      <c r="A319" s="3" t="s">
         <v>317</v>
       </c>
       <c r="B319">
@@ -24513,7 +24519,7 @@
       </c>
     </row>
     <row r="320" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A320" t="s">
+      <c r="A320" s="3" t="s">
         <v>318</v>
       </c>
       <c r="B320">
@@ -24581,7 +24587,7 @@
       </c>
     </row>
     <row r="321" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A321" t="s">
+      <c r="A321" s="3" t="s">
         <v>319</v>
       </c>
       <c r="B321">
@@ -24649,7 +24655,7 @@
       </c>
     </row>
     <row r="322" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A322" t="s">
+      <c r="A322" s="3" t="s">
         <v>320</v>
       </c>
       <c r="B322">
@@ -24717,7 +24723,7 @@
       </c>
     </row>
     <row r="323" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A323" t="s">
+      <c r="A323" s="3" t="s">
         <v>321</v>
       </c>
       <c r="B323">
@@ -24785,7 +24791,7 @@
       </c>
     </row>
     <row r="324" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A324" t="s">
+      <c r="A324" s="3" t="s">
         <v>322</v>
       </c>
       <c r="B324">
@@ -24853,7 +24859,7 @@
       </c>
     </row>
     <row r="325" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A325" t="s">
+      <c r="A325" s="3" t="s">
         <v>323</v>
       </c>
       <c r="B325">
@@ -24921,7 +24927,7 @@
       </c>
     </row>
     <row r="326" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A326" t="s">
+      <c r="A326" s="3" t="s">
         <v>324</v>
       </c>
       <c r="B326">
@@ -24989,7 +24995,7 @@
       </c>
     </row>
     <row r="327" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A327" t="s">
+      <c r="A327" s="3" t="s">
         <v>325</v>
       </c>
       <c r="B327">
@@ -25057,7 +25063,7 @@
       </c>
     </row>
     <row r="328" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A328" t="s">
+      <c r="A328" s="3" t="s">
         <v>326</v>
       </c>
       <c r="B328">
@@ -25125,7 +25131,7 @@
       </c>
     </row>
     <row r="329" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A329" t="s">
+      <c r="A329" s="3" t="s">
         <v>327</v>
       </c>
       <c r="B329">
@@ -25193,7 +25199,7 @@
       </c>
     </row>
     <row r="330" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A330" t="s">
+      <c r="A330" s="3" t="s">
         <v>328</v>
       </c>
       <c r="B330">
@@ -25261,7 +25267,7 @@
       </c>
     </row>
     <row r="331" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A331" t="s">
+      <c r="A331" s="3" t="s">
         <v>329</v>
       </c>
       <c r="B331">
@@ -25329,7 +25335,7 @@
       </c>
     </row>
     <row r="332" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A332" t="s">
+      <c r="A332" s="3" t="s">
         <v>330</v>
       </c>
       <c r="B332">
@@ -25397,7 +25403,7 @@
       </c>
     </row>
     <row r="333" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A333" t="s">
+      <c r="A333" s="3" t="s">
         <v>331</v>
       </c>
       <c r="B333">
@@ -25465,7 +25471,7 @@
       </c>
     </row>
     <row r="334" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A334" t="s">
+      <c r="A334" s="3" t="s">
         <v>332</v>
       </c>
       <c r="B334">
@@ -25533,7 +25539,7 @@
       </c>
     </row>
     <row r="335" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A335" t="s">
+      <c r="A335" s="3" t="s">
         <v>333</v>
       </c>
       <c r="B335">
@@ -25601,7 +25607,7 @@
       </c>
     </row>
     <row r="336" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A336" t="s">
+      <c r="A336" s="3" t="s">
         <v>334</v>
       </c>
       <c r="B336">
@@ -25669,7 +25675,7 @@
       </c>
     </row>
     <row r="337" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A337" t="s">
+      <c r="A337" s="3" t="s">
         <v>335</v>
       </c>
       <c r="B337">
@@ -25737,7 +25743,7 @@
       </c>
     </row>
     <row r="338" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A338" t="s">
+      <c r="A338" s="3" t="s">
         <v>336</v>
       </c>
       <c r="B338">
@@ -25805,7 +25811,7 @@
       </c>
     </row>
     <row r="339" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A339" t="s">
+      <c r="A339" s="3" t="s">
         <v>337</v>
       </c>
       <c r="B339">
@@ -25873,7 +25879,7 @@
       </c>
     </row>
     <row r="340" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A340" t="s">
+      <c r="A340" s="3" t="s">
         <v>338</v>
       </c>
       <c r="B340">
@@ -25941,7 +25947,7 @@
       </c>
     </row>
     <row r="341" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A341" t="s">
+      <c r="A341" s="3" t="s">
         <v>339</v>
       </c>
       <c r="B341">
@@ -26009,7 +26015,7 @@
       </c>
     </row>
     <row r="342" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A342" t="s">
+      <c r="A342" s="3" t="s">
         <v>340</v>
       </c>
       <c r="B342">
@@ -26077,7 +26083,7 @@
       </c>
     </row>
     <row r="343" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A343" t="s">
+      <c r="A343" s="3" t="s">
         <v>341</v>
       </c>
       <c r="B343">
@@ -26145,7 +26151,7 @@
       </c>
     </row>
     <row r="344" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A344" t="s">
+      <c r="A344" s="3" t="s">
         <v>342</v>
       </c>
       <c r="B344">
@@ -26213,7 +26219,7 @@
       </c>
     </row>
     <row r="345" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A345" t="s">
+      <c r="A345" s="3" t="s">
         <v>343</v>
       </c>
       <c r="B345">
@@ -26281,7 +26287,7 @@
       </c>
     </row>
     <row r="346" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A346" t="s">
+      <c r="A346" s="3" t="s">
         <v>344</v>
       </c>
       <c r="B346">
@@ -26349,7 +26355,7 @@
       </c>
     </row>
     <row r="347" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A347" t="s">
+      <c r="A347" s="3" t="s">
         <v>345</v>
       </c>
       <c r="B347">
@@ -26417,7 +26423,7 @@
       </c>
     </row>
     <row r="348" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A348" t="s">
+      <c r="A348" s="3" t="s">
         <v>346</v>
       </c>
       <c r="B348">
@@ -26485,7 +26491,7 @@
       </c>
     </row>
     <row r="349" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A349" t="s">
+      <c r="A349" s="3" t="s">
         <v>347</v>
       </c>
       <c r="B349">
@@ -26553,7 +26559,7 @@
       </c>
     </row>
     <row r="350" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A350" t="s">
+      <c r="A350" s="3" t="s">
         <v>348</v>
       </c>
       <c r="B350">
@@ -26621,7 +26627,7 @@
       </c>
     </row>
     <row r="351" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A351" t="s">
+      <c r="A351" s="3" t="s">
         <v>349</v>
       </c>
       <c r="B351">
@@ -26689,7 +26695,7 @@
       </c>
     </row>
     <row r="352" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A352" t="s">
+      <c r="A352" s="3" t="s">
         <v>350</v>
       </c>
       <c r="B352">
@@ -26757,7 +26763,7 @@
       </c>
     </row>
     <row r="353" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A353" t="s">
+      <c r="A353" s="3" t="s">
         <v>351</v>
       </c>
       <c r="B353">
@@ -26825,7 +26831,7 @@
       </c>
     </row>
     <row r="354" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A354" t="s">
+      <c r="A354" s="3" t="s">
         <v>352</v>
       </c>
       <c r="B354">
@@ -26893,7 +26899,7 @@
       </c>
     </row>
     <row r="355" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A355" t="s">
+      <c r="A355" s="3" t="s">
         <v>353</v>
       </c>
       <c r="B355">
@@ -26961,7 +26967,7 @@
       </c>
     </row>
     <row r="356" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A356" t="s">
+      <c r="A356" s="3" t="s">
         <v>354</v>
       </c>
       <c r="B356">
@@ -27029,7 +27035,7 @@
       </c>
     </row>
     <row r="357" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A357" t="s">
+      <c r="A357" s="3" t="s">
         <v>355</v>
       </c>
       <c r="B357">
@@ -27097,7 +27103,7 @@
       </c>
     </row>
     <row r="358" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A358" t="s">
+      <c r="A358" s="3" t="s">
         <v>356</v>
       </c>
       <c r="B358">
@@ -27165,7 +27171,7 @@
       </c>
     </row>
     <row r="359" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A359" t="s">
+      <c r="A359" s="3" t="s">
         <v>357</v>
       </c>
       <c r="B359">
@@ -27233,7 +27239,7 @@
       </c>
     </row>
     <row r="360" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A360" t="s">
+      <c r="A360" s="3" t="s">
         <v>358</v>
       </c>
       <c r="B360">
@@ -27301,7 +27307,7 @@
       </c>
     </row>
     <row r="361" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A361" t="s">
+      <c r="A361" s="3" t="s">
         <v>359</v>
       </c>
       <c r="B361">
@@ -27369,7 +27375,7 @@
       </c>
     </row>
     <row r="362" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A362" t="s">
+      <c r="A362" s="3" t="s">
         <v>360</v>
       </c>
       <c r="B362">
@@ -27437,7 +27443,7 @@
       </c>
     </row>
     <row r="363" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A363" t="s">
+      <c r="A363" s="3" t="s">
         <v>361</v>
       </c>
       <c r="B363">
@@ -27505,7 +27511,7 @@
       </c>
     </row>
     <row r="364" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A364" t="s">
+      <c r="A364" s="3" t="s">
         <v>362</v>
       </c>
       <c r="B364">
@@ -27573,7 +27579,7 @@
       </c>
     </row>
     <row r="365" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A365" t="s">
+      <c r="A365" s="3" t="s">
         <v>363</v>
       </c>
       <c r="B365">
@@ -27641,7 +27647,7 @@
       </c>
     </row>
     <row r="366" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A366" t="s">
+      <c r="A366" s="3" t="s">
         <v>364</v>
       </c>
       <c r="B366">
@@ -27709,7 +27715,7 @@
       </c>
     </row>
     <row r="367" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A367" t="s">
+      <c r="A367" s="3" t="s">
         <v>365</v>
       </c>
       <c r="B367">
@@ -27777,7 +27783,7 @@
       </c>
     </row>
     <row r="368" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A368" t="s">
+      <c r="A368" s="3" t="s">
         <v>366</v>
       </c>
       <c r="B368">
@@ -27845,7 +27851,7 @@
       </c>
     </row>
     <row r="369" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A369" t="s">
+      <c r="A369" s="3" t="s">
         <v>367</v>
       </c>
       <c r="B369">
@@ -27913,7 +27919,7 @@
       </c>
     </row>
     <row r="370" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A370" t="s">
+      <c r="A370" s="3" t="s">
         <v>368</v>
       </c>
       <c r="B370">
@@ -27981,7 +27987,7 @@
       </c>
     </row>
     <row r="371" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A371" t="s">
+      <c r="A371" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B371">
@@ -28049,7 +28055,7 @@
       </c>
     </row>
     <row r="372" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A372" t="s">
+      <c r="A372" s="3" t="s">
         <v>370</v>
       </c>
       <c r="B372">
@@ -28117,7 +28123,7 @@
       </c>
     </row>
     <row r="373" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A373" t="s">
+      <c r="A373" s="3" t="s">
         <v>371</v>
       </c>
       <c r="B373">
@@ -28185,7 +28191,7 @@
       </c>
     </row>
     <row r="374" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A374" t="s">
+      <c r="A374" s="3" t="s">
         <v>372</v>
       </c>
       <c r="B374">
@@ -28253,7 +28259,7 @@
       </c>
     </row>
     <row r="375" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A375" t="s">
+      <c r="A375" s="3" t="s">
         <v>373</v>
       </c>
       <c r="B375">
@@ -28321,7 +28327,7 @@
       </c>
     </row>
     <row r="376" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A376" t="s">
+      <c r="A376" s="3" t="s">
         <v>374</v>
       </c>
       <c r="B376">
@@ -28389,7 +28395,7 @@
       </c>
     </row>
     <row r="377" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A377" t="s">
+      <c r="A377" s="3" t="s">
         <v>375</v>
       </c>
       <c r="B377">
@@ -28457,7 +28463,7 @@
       </c>
     </row>
     <row r="378" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A378" t="s">
+      <c r="A378" s="3" t="s">
         <v>376</v>
       </c>
       <c r="B378">
@@ -28525,7 +28531,7 @@
       </c>
     </row>
     <row r="379" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A379" t="s">
+      <c r="A379" s="3" t="s">
         <v>377</v>
       </c>
       <c r="B379">
@@ -28593,7 +28599,7 @@
       </c>
     </row>
     <row r="380" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A380" t="s">
+      <c r="A380" s="3" t="s">
         <v>378</v>
       </c>
       <c r="B380">
@@ -28661,7 +28667,7 @@
       </c>
     </row>
     <row r="381" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A381" t="s">
+      <c r="A381" s="3" t="s">
         <v>379</v>
       </c>
       <c r="B381">
@@ -28729,7 +28735,7 @@
       </c>
     </row>
     <row r="382" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A382" t="s">
+      <c r="A382" s="3" t="s">
         <v>380</v>
       </c>
       <c r="B382">
@@ -28797,7 +28803,7 @@
       </c>
     </row>
     <row r="383" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A383" t="s">
+      <c r="A383" s="3" t="s">
         <v>381</v>
       </c>
       <c r="B383">
@@ -28865,7 +28871,7 @@
       </c>
     </row>
     <row r="384" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A384" t="s">
+      <c r="A384" s="3" t="s">
         <v>382</v>
       </c>
       <c r="B384">
@@ -28933,7 +28939,7 @@
       </c>
     </row>
     <row r="385" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A385" t="s">
+      <c r="A385" s="3" t="s">
         <v>383</v>
       </c>
       <c r="B385">
@@ -29001,7 +29007,7 @@
       </c>
     </row>
     <row r="386" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A386" t="s">
+      <c r="A386" s="3" t="s">
         <v>384</v>
       </c>
       <c r="B386">
@@ -29069,7 +29075,7 @@
       </c>
     </row>
     <row r="387" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A387" t="s">
+      <c r="A387" s="3" t="s">
         <v>385</v>
       </c>
       <c r="B387">
@@ -29137,7 +29143,7 @@
       </c>
     </row>
     <row r="388" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A388" t="s">
+      <c r="A388" s="3" t="s">
         <v>386</v>
       </c>
       <c r="B388">
@@ -29205,7 +29211,7 @@
       </c>
     </row>
     <row r="389" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A389" t="s">
+      <c r="A389" s="3" t="s">
         <v>387</v>
       </c>
       <c r="B389">
@@ -29273,7 +29279,7 @@
       </c>
     </row>
     <row r="390" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A390" t="s">
+      <c r="A390" s="3" t="s">
         <v>388</v>
       </c>
       <c r="B390">
@@ -29341,7 +29347,7 @@
       </c>
     </row>
     <row r="391" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A391" t="s">
+      <c r="A391" s="3" t="s">
         <v>389</v>
       </c>
       <c r="B391">
@@ -29409,7 +29415,7 @@
       </c>
     </row>
     <row r="392" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A392" t="s">
+      <c r="A392" s="3" t="s">
         <v>390</v>
       </c>
       <c r="B392">
@@ -29477,7 +29483,7 @@
       </c>
     </row>
     <row r="393" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A393" t="s">
+      <c r="A393" s="3" t="s">
         <v>391</v>
       </c>
       <c r="B393">
@@ -29545,7 +29551,7 @@
       </c>
     </row>
     <row r="394" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A394" t="s">
+      <c r="A394" s="3" t="s">
         <v>392</v>
       </c>
       <c r="B394">
@@ -29613,7 +29619,7 @@
       </c>
     </row>
     <row r="395" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A395" t="s">
+      <c r="A395" s="3" t="s">
         <v>393</v>
       </c>
       <c r="B395">
@@ -29681,7 +29687,7 @@
       </c>
     </row>
     <row r="396" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A396" t="s">
+      <c r="A396" s="3" t="s">
         <v>394</v>
       </c>
       <c r="B396">
@@ -29749,7 +29755,7 @@
       </c>
     </row>
     <row r="397" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A397" t="s">
+      <c r="A397" s="3" t="s">
         <v>395</v>
       </c>
       <c r="B397">
@@ -29817,7 +29823,7 @@
       </c>
     </row>
     <row r="398" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A398" t="s">
+      <c r="A398" s="3" t="s">
         <v>396</v>
       </c>
       <c r="B398">
@@ -29885,7 +29891,7 @@
       </c>
     </row>
     <row r="399" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A399" t="s">
+      <c r="A399" s="3" t="s">
         <v>397</v>
       </c>
       <c r="B399">
@@ -29953,7 +29959,7 @@
       </c>
     </row>
     <row r="400" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A400" t="s">
+      <c r="A400" s="3" t="s">
         <v>398</v>
       </c>
       <c r="B400">
@@ -30021,7 +30027,7 @@
       </c>
     </row>
     <row r="401" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A401" t="s">
+      <c r="A401" s="3" t="s">
         <v>399</v>
       </c>
       <c r="B401">
@@ -30089,7 +30095,7 @@
       </c>
     </row>
     <row r="402" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A402" t="s">
+      <c r="A402" s="3" t="s">
         <v>400</v>
       </c>
       <c r="B402">
@@ -30157,7 +30163,7 @@
       </c>
     </row>
     <row r="403" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A403" t="s">
+      <c r="A403" s="3" t="s">
         <v>401</v>
       </c>
       <c r="B403">
@@ -30225,7 +30231,7 @@
       </c>
     </row>
     <row r="404" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A404" t="s">
+      <c r="A404" s="3" t="s">
         <v>402</v>
       </c>
       <c r="B404">
@@ -30293,7 +30299,7 @@
       </c>
     </row>
     <row r="405" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A405" t="s">
+      <c r="A405" s="3" t="s">
         <v>403</v>
       </c>
       <c r="B405">
@@ -30361,7 +30367,7 @@
       </c>
     </row>
     <row r="406" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A406" t="s">
+      <c r="A406" s="3" t="s">
         <v>404</v>
       </c>
       <c r="B406">
@@ -30429,7 +30435,7 @@
       </c>
     </row>
     <row r="407" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A407" t="s">
+      <c r="A407" s="3" t="s">
         <v>405</v>
       </c>
       <c r="B407">
@@ -30497,7 +30503,7 @@
       </c>
     </row>
     <row r="408" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A408" t="s">
+      <c r="A408" s="3" t="s">
         <v>406</v>
       </c>
       <c r="B408">
@@ -30565,7 +30571,7 @@
       </c>
     </row>
     <row r="409" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A409" t="s">
+      <c r="A409" s="3" t="s">
         <v>407</v>
       </c>
       <c r="B409">
@@ -30633,7 +30639,7 @@
       </c>
     </row>
     <row r="410" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A410" t="s">
+      <c r="A410" s="3" t="s">
         <v>408</v>
       </c>
       <c r="B410">
@@ -30701,7 +30707,7 @@
       </c>
     </row>
     <row r="411" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A411" t="s">
+      <c r="A411" s="3" t="s">
         <v>409</v>
       </c>
       <c r="B411">
@@ -30769,7 +30775,7 @@
       </c>
     </row>
     <row r="412" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A412" t="s">
+      <c r="A412" s="3" t="s">
         <v>410</v>
       </c>
       <c r="B412">
@@ -30837,7 +30843,7 @@
       </c>
     </row>
     <row r="413" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A413" t="s">
+      <c r="A413" s="3" t="s">
         <v>411</v>
       </c>
       <c r="B413">
@@ -30905,7 +30911,7 @@
       </c>
     </row>
     <row r="414" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A414" t="s">
+      <c r="A414" s="3" t="s">
         <v>412</v>
       </c>
       <c r="B414">
@@ -30973,7 +30979,7 @@
       </c>
     </row>
     <row r="415" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A415" t="s">
+      <c r="A415" s="3" t="s">
         <v>413</v>
       </c>
       <c r="B415">
@@ -31041,7 +31047,7 @@
       </c>
     </row>
     <row r="416" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A416" t="s">
+      <c r="A416" s="3" t="s">
         <v>414</v>
       </c>
       <c r="B416">
@@ -31109,7 +31115,7 @@
       </c>
     </row>
     <row r="417" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A417" t="s">
+      <c r="A417" s="3" t="s">
         <v>415</v>
       </c>
       <c r="B417">
@@ -31177,7 +31183,7 @@
       </c>
     </row>
     <row r="418" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A418" t="s">
+      <c r="A418" s="3" t="s">
         <v>416</v>
       </c>
       <c r="B418">
@@ -31245,7 +31251,7 @@
       </c>
     </row>
     <row r="419" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A419" t="s">
+      <c r="A419" s="3" t="s">
         <v>417</v>
       </c>
       <c r="B419">
@@ -31313,7 +31319,7 @@
       </c>
     </row>
     <row r="420" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A420" t="s">
+      <c r="A420" s="3" t="s">
         <v>418</v>
       </c>
       <c r="B420">
@@ -31381,7 +31387,7 @@
       </c>
     </row>
     <row r="421" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A421" t="s">
+      <c r="A421" s="3" t="s">
         <v>419</v>
       </c>
       <c r="B421">
@@ -31449,7 +31455,7 @@
       </c>
     </row>
     <row r="422" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A422" t="s">
+      <c r="A422" s="3" t="s">
         <v>420</v>
       </c>
       <c r="B422">
@@ -31517,7 +31523,7 @@
       </c>
     </row>
     <row r="423" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A423" t="s">
+      <c r="A423" s="3" t="s">
         <v>421</v>
       </c>
       <c r="B423">
@@ -31585,7 +31591,7 @@
       </c>
     </row>
     <row r="424" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A424" t="s">
+      <c r="A424" s="3" t="s">
         <v>422</v>
       </c>
       <c r="B424">
@@ -31653,7 +31659,7 @@
       </c>
     </row>
     <row r="425" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A425" t="s">
+      <c r="A425" s="3" t="s">
         <v>423</v>
       </c>
       <c r="B425">
@@ -31721,7 +31727,7 @@
       </c>
     </row>
     <row r="426" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A426" t="s">
+      <c r="A426" s="3" t="s">
         <v>424</v>
       </c>
       <c r="B426">
@@ -31789,7 +31795,7 @@
       </c>
     </row>
     <row r="427" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A427" t="s">
+      <c r="A427" s="3" t="s">
         <v>425</v>
       </c>
       <c r="B427">
@@ -31857,7 +31863,7 @@
       </c>
     </row>
     <row r="428" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A428" t="s">
+      <c r="A428" s="3" t="s">
         <v>426</v>
       </c>
       <c r="B428">
@@ -31925,7 +31931,7 @@
       </c>
     </row>
     <row r="429" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A429" t="s">
+      <c r="A429" s="3" t="s">
         <v>427</v>
       </c>
       <c r="B429">
@@ -31993,7 +31999,7 @@
       </c>
     </row>
     <row r="430" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A430" t="s">
+      <c r="A430" s="3" t="s">
         <v>428</v>
       </c>
       <c r="B430">
@@ -32061,7 +32067,7 @@
       </c>
     </row>
     <row r="431" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A431" t="s">
+      <c r="A431" s="3" t="s">
         <v>429</v>
       </c>
       <c r="B431">
@@ -32129,7 +32135,7 @@
       </c>
     </row>
     <row r="432" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A432" t="s">
+      <c r="A432" s="3" t="s">
         <v>430</v>
       </c>
       <c r="B432">
@@ -32197,7 +32203,7 @@
       </c>
     </row>
     <row r="433" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A433" t="s">
+      <c r="A433" s="3" t="s">
         <v>431</v>
       </c>
       <c r="B433">
@@ -32265,7 +32271,7 @@
       </c>
     </row>
     <row r="434" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A434" t="s">
+      <c r="A434" s="3" t="s">
         <v>432</v>
       </c>
       <c r="B434">
@@ -32333,7 +32339,7 @@
       </c>
     </row>
     <row r="435" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A435" t="s">
+      <c r="A435" s="3" t="s">
         <v>433</v>
       </c>
       <c r="B435">
@@ -32401,7 +32407,7 @@
       </c>
     </row>
     <row r="436" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A436" t="s">
+      <c r="A436" s="3" t="s">
         <v>434</v>
       </c>
       <c r="B436">
@@ -32469,7 +32475,7 @@
       </c>
     </row>
     <row r="437" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A437" t="s">
+      <c r="A437" s="3" t="s">
         <v>435</v>
       </c>
       <c r="B437">
@@ -32537,7 +32543,7 @@
       </c>
     </row>
     <row r="438" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A438" t="s">
+      <c r="A438" s="3" t="s">
         <v>436</v>
       </c>
       <c r="B438">
@@ -32605,7 +32611,7 @@
       </c>
     </row>
     <row r="439" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A439" t="s">
+      <c r="A439" s="3" t="s">
         <v>437</v>
       </c>
       <c r="B439">
@@ -32673,7 +32679,7 @@
       </c>
     </row>
     <row r="440" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A440" t="s">
+      <c r="A440" s="3" t="s">
         <v>438</v>
       </c>
       <c r="B440">
@@ -32741,7 +32747,7 @@
       </c>
     </row>
     <row r="441" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A441" t="s">
+      <c r="A441" s="3" t="s">
         <v>439</v>
       </c>
       <c r="B441">
@@ -32809,7 +32815,7 @@
       </c>
     </row>
     <row r="442" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A442" t="s">
+      <c r="A442" s="3" t="s">
         <v>440</v>
       </c>
       <c r="B442">
@@ -32877,7 +32883,7 @@
       </c>
     </row>
     <row r="443" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A443" t="s">
+      <c r="A443" s="3" t="s">
         <v>441</v>
       </c>
       <c r="B443">
@@ -32945,7 +32951,7 @@
       </c>
     </row>
     <row r="444" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A444" t="s">
+      <c r="A444" s="3" t="s">
         <v>442</v>
       </c>
       <c r="B444">
@@ -33013,7 +33019,7 @@
       </c>
     </row>
     <row r="445" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A445" t="s">
+      <c r="A445" s="3" t="s">
         <v>443</v>
       </c>
       <c r="B445">
@@ -33081,7 +33087,7 @@
       </c>
     </row>
     <row r="446" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A446" t="s">
+      <c r="A446" s="3" t="s">
         <v>444</v>
       </c>
       <c r="B446">
@@ -33149,7 +33155,7 @@
       </c>
     </row>
     <row r="447" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A447" t="s">
+      <c r="A447" s="3" t="s">
         <v>445</v>
       </c>
       <c r="B447">
@@ -33217,7 +33223,7 @@
       </c>
     </row>
     <row r="448" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A448" t="s">
+      <c r="A448" s="3" t="s">
         <v>446</v>
       </c>
       <c r="B448">
@@ -33285,7 +33291,7 @@
       </c>
     </row>
     <row r="449" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A449" t="s">
+      <c r="A449" s="3" t="s">
         <v>447</v>
       </c>
       <c r="B449">
@@ -33353,7 +33359,7 @@
       </c>
     </row>
     <row r="450" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A450" t="s">
+      <c r="A450" s="3" t="s">
         <v>448</v>
       </c>
       <c r="B450">
@@ -33421,7 +33427,7 @@
       </c>
     </row>
     <row r="451" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A451" t="s">
+      <c r="A451" s="3" t="s">
         <v>449</v>
       </c>
       <c r="B451">
@@ -33489,7 +33495,7 @@
       </c>
     </row>
     <row r="452" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A452" t="s">
+      <c r="A452" s="3" t="s">
         <v>450</v>
       </c>
       <c r="B452">
@@ -33557,7 +33563,7 @@
       </c>
     </row>
     <row r="453" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A453" t="s">
+      <c r="A453" s="3" t="s">
         <v>451</v>
       </c>
       <c r="B453">
@@ -33625,7 +33631,7 @@
       </c>
     </row>
     <row r="454" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A454" t="s">
+      <c r="A454" s="3" t="s">
         <v>452</v>
       </c>
       <c r="B454">
@@ -33693,7 +33699,7 @@
       </c>
     </row>
     <row r="455" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A455" t="s">
+      <c r="A455" s="3" t="s">
         <v>453</v>
       </c>
       <c r="B455">
@@ -33761,7 +33767,7 @@
       </c>
     </row>
     <row r="456" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A456" t="s">
+      <c r="A456" s="3" t="s">
         <v>454</v>
       </c>
       <c r="B456">
@@ -33829,7 +33835,7 @@
       </c>
     </row>
     <row r="457" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A457" t="s">
+      <c r="A457" s="3" t="s">
         <v>455</v>
       </c>
       <c r="B457">
@@ -33897,7 +33903,7 @@
       </c>
     </row>
     <row r="458" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A458" t="s">
+      <c r="A458" s="3" t="s">
         <v>456</v>
       </c>
       <c r="B458">
@@ -33965,7 +33971,7 @@
       </c>
     </row>
     <row r="459" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A459" t="s">
+      <c r="A459" s="3" t="s">
         <v>457</v>
       </c>
       <c r="B459">
@@ -34033,7 +34039,7 @@
       </c>
     </row>
     <row r="460" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A460" t="s">
+      <c r="A460" s="3" t="s">
         <v>458</v>
       </c>
       <c r="B460">
@@ -34101,7 +34107,7 @@
       </c>
     </row>
     <row r="461" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A461" t="s">
+      <c r="A461" s="3" t="s">
         <v>459</v>
       </c>
       <c r="B461">
@@ -34169,7 +34175,7 @@
       </c>
     </row>
     <row r="462" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A462" t="s">
+      <c r="A462" s="3" t="s">
         <v>460</v>
       </c>
       <c r="B462">
@@ -34237,7 +34243,7 @@
       </c>
     </row>
     <row r="463" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A463" t="s">
+      <c r="A463" s="3" t="s">
         <v>461</v>
       </c>
       <c r="B463">
@@ -34305,7 +34311,7 @@
       </c>
     </row>
     <row r="464" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A464" t="s">
+      <c r="A464" s="3" t="s">
         <v>462</v>
       </c>
       <c r="B464">
@@ -34373,7 +34379,7 @@
       </c>
     </row>
     <row r="465" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A465" t="s">
+      <c r="A465" s="3" t="s">
         <v>463</v>
       </c>
       <c r="B465">
@@ -34441,7 +34447,7 @@
       </c>
     </row>
     <row r="466" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A466" t="s">
+      <c r="A466" s="3" t="s">
         <v>464</v>
       </c>
       <c r="B466">
@@ -34509,7 +34515,7 @@
       </c>
     </row>
     <row r="467" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A467" t="s">
+      <c r="A467" s="3" t="s">
         <v>465</v>
       </c>
       <c r="B467">
@@ -34577,7 +34583,7 @@
       </c>
     </row>
     <row r="468" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A468" t="s">
+      <c r="A468" s="3" t="s">
         <v>466</v>
       </c>
       <c r="B468">
@@ -34645,7 +34651,7 @@
       </c>
     </row>
     <row r="469" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A469" t="s">
+      <c r="A469" s="3" t="s">
         <v>467</v>
       </c>
       <c r="B469">
@@ -34713,7 +34719,7 @@
       </c>
     </row>
     <row r="470" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A470" t="s">
+      <c r="A470" s="3" t="s">
         <v>468</v>
       </c>
       <c r="B470">
@@ -34781,7 +34787,7 @@
       </c>
     </row>
     <row r="471" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A471" t="s">
+      <c r="A471" s="3" t="s">
         <v>469</v>
       </c>
       <c r="B471">
@@ -34849,7 +34855,7 @@
       </c>
     </row>
     <row r="472" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A472" t="s">
+      <c r="A472" s="3" t="s">
         <v>470</v>
       </c>
       <c r="B472">
@@ -34917,7 +34923,7 @@
       </c>
     </row>
     <row r="473" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A473" t="s">
+      <c r="A473" s="3" t="s">
         <v>471</v>
       </c>
       <c r="B473">
@@ -34985,7 +34991,7 @@
       </c>
     </row>
     <row r="474" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A474" t="s">
+      <c r="A474" s="3" t="s">
         <v>472</v>
       </c>
       <c r="B474">
@@ -35053,7 +35059,7 @@
       </c>
     </row>
     <row r="475" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A475" t="s">
+      <c r="A475" s="3" t="s">
         <v>473</v>
       </c>
       <c r="B475">
@@ -35121,7 +35127,7 @@
       </c>
     </row>
     <row r="476" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A476" t="s">
+      <c r="A476" s="3" t="s">
         <v>474</v>
       </c>
       <c r="B476">
@@ -35189,7 +35195,7 @@
       </c>
     </row>
     <row r="477" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A477" t="s">
+      <c r="A477" s="3" t="s">
         <v>475</v>
       </c>
       <c r="B477">
@@ -35257,7 +35263,7 @@
       </c>
     </row>
     <row r="478" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A478" t="s">
+      <c r="A478" s="3" t="s">
         <v>476</v>
       </c>
       <c r="B478">
@@ -35325,7 +35331,7 @@
       </c>
     </row>
     <row r="479" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A479" t="s">
+      <c r="A479" s="3" t="s">
         <v>477</v>
       </c>
       <c r="B479">
@@ -35393,7 +35399,7 @@
       </c>
     </row>
     <row r="480" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A480" t="s">
+      <c r="A480" s="3" t="s">
         <v>478</v>
       </c>
       <c r="B480">
@@ -35461,7 +35467,7 @@
       </c>
     </row>
     <row r="481" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A481" t="s">
+      <c r="A481" s="3" t="s">
         <v>479</v>
       </c>
       <c r="B481">
@@ -35529,7 +35535,7 @@
       </c>
     </row>
     <row r="482" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A482" t="s">
+      <c r="A482" s="3" t="s">
         <v>480</v>
       </c>
       <c r="B482">
@@ -35597,7 +35603,7 @@
       </c>
     </row>
     <row r="483" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A483" t="s">
+      <c r="A483" s="3" t="s">
         <v>481</v>
       </c>
       <c r="B483">
@@ -35665,7 +35671,7 @@
       </c>
     </row>
     <row r="484" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A484" t="s">
+      <c r="A484" s="3" t="s">
         <v>482</v>
       </c>
       <c r="B484">
@@ -35733,7 +35739,7 @@
       </c>
     </row>
     <row r="485" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A485" t="s">
+      <c r="A485" s="3" t="s">
         <v>483</v>
       </c>
       <c r="B485">
@@ -35801,7 +35807,7 @@
       </c>
     </row>
     <row r="486" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A486" t="s">
+      <c r="A486" s="3" t="s">
         <v>484</v>
       </c>
       <c r="B486">
@@ -35869,7 +35875,7 @@
       </c>
     </row>
     <row r="487" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A487" t="s">
+      <c r="A487" s="3" t="s">
         <v>485</v>
       </c>
       <c r="B487">
@@ -35937,7 +35943,7 @@
       </c>
     </row>
     <row r="488" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A488" t="s">
+      <c r="A488" s="3" t="s">
         <v>486</v>
       </c>
       <c r="B488">
@@ -36005,7 +36011,7 @@
       </c>
     </row>
     <row r="489" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A489" t="s">
+      <c r="A489" s="3" t="s">
         <v>487</v>
       </c>
       <c r="B489">
@@ -36073,7 +36079,7 @@
       </c>
     </row>
     <row r="490" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A490" t="s">
+      <c r="A490" s="3" t="s">
         <v>488</v>
       </c>
       <c r="B490">
@@ -36141,7 +36147,7 @@
       </c>
     </row>
     <row r="491" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A491" t="s">
+      <c r="A491" s="3" t="s">
         <v>489</v>
       </c>
       <c r="B491">
@@ -36209,7 +36215,7 @@
       </c>
     </row>
     <row r="492" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A492" t="s">
+      <c r="A492" s="3" t="s">
         <v>490</v>
       </c>
       <c r="B492">
@@ -36277,7 +36283,7 @@
       </c>
     </row>
     <row r="493" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A493" t="s">
+      <c r="A493" s="3" t="s">
         <v>491</v>
       </c>
       <c r="B493">
@@ -36345,7 +36351,7 @@
       </c>
     </row>
     <row r="494" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A494" t="s">
+      <c r="A494" s="3" t="s">
         <v>492</v>
       </c>
       <c r="B494">
@@ -36413,7 +36419,7 @@
       </c>
     </row>
     <row r="495" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A495" t="s">
+      <c r="A495" s="3" t="s">
         <v>493</v>
       </c>
       <c r="B495">
@@ -36481,7 +36487,7 @@
       </c>
     </row>
     <row r="496" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A496" t="s">
+      <c r="A496" s="3" t="s">
         <v>494</v>
       </c>
       <c r="B496">
@@ -36549,7 +36555,7 @@
       </c>
     </row>
     <row r="497" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A497" t="s">
+      <c r="A497" s="3" t="s">
         <v>495</v>
       </c>
       <c r="B497">
@@ -36617,7 +36623,7 @@
       </c>
     </row>
     <row r="498" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A498" t="s">
+      <c r="A498" s="3" t="s">
         <v>496</v>
       </c>
       <c r="B498">
@@ -36685,7 +36691,7 @@
       </c>
     </row>
     <row r="499" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A499" t="s">
+      <c r="A499" s="3" t="s">
         <v>497</v>
       </c>
       <c r="B499">
@@ -36753,7 +36759,7 @@
       </c>
     </row>
     <row r="500" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A500" t="s">
+      <c r="A500" s="3" t="s">
         <v>498</v>
       </c>
       <c r="B500">
@@ -36821,7 +36827,7 @@
       </c>
     </row>
     <row r="501" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A501" t="s">
+      <c r="A501" s="3" t="s">
         <v>499</v>
       </c>
       <c r="B501">
@@ -36889,7 +36895,7 @@
       </c>
     </row>
     <row r="502" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A502" t="s">
+      <c r="A502" s="3" t="s">
         <v>500</v>
       </c>
       <c r="B502">
@@ -36957,7 +36963,7 @@
       </c>
     </row>
     <row r="503" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A503" t="s">
+      <c r="A503" s="3" t="s">
         <v>501</v>
       </c>
       <c r="B503">
@@ -37025,7 +37031,7 @@
       </c>
     </row>
     <row r="504" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A504" t="s">
+      <c r="A504" s="3" t="s">
         <v>502</v>
       </c>
       <c r="B504">
@@ -37093,7 +37099,7 @@
       </c>
     </row>
     <row r="505" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A505" t="s">
+      <c r="A505" s="3" t="s">
         <v>503</v>
       </c>
       <c r="B505">
@@ -37161,7 +37167,7 @@
       </c>
     </row>
     <row r="506" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A506" t="s">
+      <c r="A506" s="3" t="s">
         <v>504</v>
       </c>
       <c r="B506">
@@ -37229,7 +37235,7 @@
       </c>
     </row>
     <row r="507" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A507" t="s">
+      <c r="A507" s="3" t="s">
         <v>505</v>
       </c>
       <c r="B507">
@@ -37297,7 +37303,7 @@
       </c>
     </row>
     <row r="508" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A508" t="s">
+      <c r="A508" s="3" t="s">
         <v>506</v>
       </c>
       <c r="B508">
@@ -37365,7 +37371,7 @@
       </c>
     </row>
     <row r="509" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A509" t="s">
+      <c r="A509" s="3" t="s">
         <v>507</v>
       </c>
       <c r="B509">
@@ -37433,7 +37439,7 @@
       </c>
     </row>
     <row r="510" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A510" t="s">
+      <c r="A510" s="3" t="s">
         <v>508</v>
       </c>
       <c r="B510">
@@ -37501,7 +37507,7 @@
       </c>
     </row>
     <row r="511" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A511" t="s">
+      <c r="A511" s="3" t="s">
         <v>509</v>
       </c>
       <c r="B511">
@@ -37569,7 +37575,7 @@
       </c>
     </row>
     <row r="512" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A512" t="s">
+      <c r="A512" s="3" t="s">
         <v>510</v>
       </c>
       <c r="B512">
@@ -37637,7 +37643,7 @@
       </c>
     </row>
     <row r="513" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A513" t="s">
+      <c r="A513" s="3" t="s">
         <v>511</v>
       </c>
       <c r="B513">
@@ -37705,7 +37711,7 @@
       </c>
     </row>
     <row r="514" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A514" t="s">
+      <c r="A514" s="3" t="s">
         <v>512</v>
       </c>
       <c r="B514">
@@ -37773,7 +37779,7 @@
       </c>
     </row>
     <row r="515" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A515" t="s">
+      <c r="A515" s="3" t="s">
         <v>513</v>
       </c>
       <c r="B515">
@@ -37841,7 +37847,7 @@
       </c>
     </row>
     <row r="516" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A516" t="s">
+      <c r="A516" s="3" t="s">
         <v>514</v>
       </c>
       <c r="B516">
@@ -37909,7 +37915,7 @@
       </c>
     </row>
     <row r="517" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A517" t="s">
+      <c r="A517" s="3" t="s">
         <v>515</v>
       </c>
       <c r="B517">
@@ -37977,7 +37983,7 @@
       </c>
     </row>
     <row r="518" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A518" t="s">
+      <c r="A518" s="3" t="s">
         <v>516</v>
       </c>
       <c r="B518">
@@ -38045,7 +38051,7 @@
       </c>
     </row>
     <row r="519" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A519" t="s">
+      <c r="A519" s="3" t="s">
         <v>517</v>
       </c>
       <c r="B519">
@@ -38113,7 +38119,7 @@
       </c>
     </row>
     <row r="520" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A520" t="s">
+      <c r="A520" s="3" t="s">
         <v>518</v>
       </c>
       <c r="B520">
@@ -38181,7 +38187,7 @@
       </c>
     </row>
     <row r="521" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A521" t="s">
+      <c r="A521" s="3" t="s">
         <v>519</v>
       </c>
       <c r="B521">
@@ -38249,7 +38255,7 @@
       </c>
     </row>
     <row r="522" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A522" t="s">
+      <c r="A522" s="3" t="s">
         <v>520</v>
       </c>
       <c r="B522">
@@ -38317,7 +38323,7 @@
       </c>
     </row>
     <row r="523" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A523" t="s">
+      <c r="A523" s="3" t="s">
         <v>521</v>
       </c>
       <c r="B523">
@@ -38385,7 +38391,7 @@
       </c>
     </row>
     <row r="524" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A524" t="s">
+      <c r="A524" s="3" t="s">
         <v>522</v>
       </c>
       <c r="B524">
@@ -38453,7 +38459,7 @@
       </c>
     </row>
     <row r="525" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A525" t="s">
+      <c r="A525" s="3" t="s">
         <v>523</v>
       </c>
       <c r="B525">
@@ -38521,7 +38527,7 @@
       </c>
     </row>
     <row r="526" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A526" t="s">
+      <c r="A526" s="3" t="s">
         <v>524</v>
       </c>
       <c r="B526">
@@ -38589,7 +38595,7 @@
       </c>
     </row>
     <row r="527" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A527" t="s">
+      <c r="A527" s="3" t="s">
         <v>525</v>
       </c>
       <c r="B527">
@@ -38657,7 +38663,7 @@
       </c>
     </row>
     <row r="528" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A528" t="s">
+      <c r="A528" s="3" t="s">
         <v>526</v>
       </c>
       <c r="B528">
@@ -38725,7 +38731,7 @@
       </c>
     </row>
     <row r="529" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A529" t="s">
+      <c r="A529" s="3" t="s">
         <v>527</v>
       </c>
       <c r="B529">
@@ -38793,7 +38799,7 @@
       </c>
     </row>
     <row r="530" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A530" t="s">
+      <c r="A530" s="3" t="s">
         <v>528</v>
       </c>
       <c r="B530">
@@ -38861,7 +38867,7 @@
       </c>
     </row>
     <row r="531" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A531" t="s">
+      <c r="A531" s="3" t="s">
         <v>529</v>
       </c>
       <c r="B531">
@@ -38929,7 +38935,7 @@
       </c>
     </row>
     <row r="532" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A532" t="s">
+      <c r="A532" s="3" t="s">
         <v>530</v>
       </c>
       <c r="B532">
@@ -38997,7 +39003,7 @@
       </c>
     </row>
     <row r="533" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A533" t="s">
+      <c r="A533" s="3" t="s">
         <v>531</v>
       </c>
       <c r="B533">
@@ -39065,7 +39071,7 @@
       </c>
     </row>
     <row r="534" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A534" t="s">
+      <c r="A534" s="3" t="s">
         <v>532</v>
       </c>
       <c r="B534">
@@ -39133,7 +39139,7 @@
       </c>
     </row>
     <row r="535" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A535" t="s">
+      <c r="A535" s="3" t="s">
         <v>533</v>
       </c>
       <c r="B535">
@@ -39201,7 +39207,7 @@
       </c>
     </row>
     <row r="536" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A536" t="s">
+      <c r="A536" s="3" t="s">
         <v>534</v>
       </c>
       <c r="B536">
@@ -39269,7 +39275,7 @@
       </c>
     </row>
     <row r="537" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A537" t="s">
+      <c r="A537" s="3" t="s">
         <v>535</v>
       </c>
       <c r="B537">
@@ -39337,7 +39343,7 @@
       </c>
     </row>
     <row r="538" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A538" t="s">
+      <c r="A538" s="3" t="s">
         <v>536</v>
       </c>
       <c r="B538">
@@ -39405,7 +39411,7 @@
       </c>
     </row>
     <row r="539" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A539" t="s">
+      <c r="A539" s="3" t="s">
         <v>537</v>
       </c>
       <c r="B539">
@@ -39473,7 +39479,7 @@
       </c>
     </row>
     <row r="540" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A540" t="s">
+      <c r="A540" s="3" t="s">
         <v>538</v>
       </c>
       <c r="B540">
@@ -39541,7 +39547,7 @@
       </c>
     </row>
     <row r="541" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A541" t="s">
+      <c r="A541" s="3" t="s">
         <v>539</v>
       </c>
       <c r="B541">
@@ -39609,7 +39615,7 @@
       </c>
     </row>
     <row r="542" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A542" t="s">
+      <c r="A542" s="3" t="s">
         <v>540</v>
       </c>
       <c r="B542">
@@ -39677,7 +39683,7 @@
       </c>
     </row>
     <row r="543" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A543" t="s">
+      <c r="A543" s="3" t="s">
         <v>541</v>
       </c>
       <c r="B543">
@@ -39745,7 +39751,7 @@
       </c>
     </row>
     <row r="544" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A544" t="s">
+      <c r="A544" s="3" t="s">
         <v>542</v>
       </c>
       <c r="B544">
@@ -39813,7 +39819,7 @@
       </c>
     </row>
     <row r="545" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A545" t="s">
+      <c r="A545" s="3" t="s">
         <v>543</v>
       </c>
       <c r="B545">
@@ -39881,7 +39887,7 @@
       </c>
     </row>
     <row r="546" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A546" t="s">
+      <c r="A546" s="3" t="s">
         <v>544</v>
       </c>
       <c r="B546">
@@ -39949,7 +39955,7 @@
       </c>
     </row>
     <row r="547" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A547" t="s">
+      <c r="A547" s="3" t="s">
         <v>545</v>
       </c>
       <c r="B547">
@@ -40017,7 +40023,7 @@
       </c>
     </row>
     <row r="548" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A548" t="s">
+      <c r="A548" s="3" t="s">
         <v>546</v>
       </c>
       <c r="B548">
@@ -40085,7 +40091,7 @@
       </c>
     </row>
     <row r="549" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A549" t="s">
+      <c r="A549" s="3" t="s">
         <v>547</v>
       </c>
       <c r="B549">
@@ -40153,7 +40159,7 @@
       </c>
     </row>
     <row r="550" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A550" t="s">
+      <c r="A550" s="3" t="s">
         <v>548</v>
       </c>
       <c r="B550">
@@ -40221,7 +40227,7 @@
       </c>
     </row>
     <row r="551" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A551" t="s">
+      <c r="A551" s="3" t="s">
         <v>549</v>
       </c>
       <c r="B551">
@@ -40289,7 +40295,7 @@
       </c>
     </row>
     <row r="552" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A552" t="s">
+      <c r="A552" s="3" t="s">
         <v>550</v>
       </c>
       <c r="B552">
@@ -40357,7 +40363,7 @@
       </c>
     </row>
     <row r="553" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A553" t="s">
+      <c r="A553" s="3" t="s">
         <v>551</v>
       </c>
       <c r="B553">
@@ -40425,7 +40431,7 @@
       </c>
     </row>
     <row r="554" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A554" t="s">
+      <c r="A554" s="3" t="s">
         <v>552</v>
       </c>
       <c r="B554">
@@ -40493,7 +40499,7 @@
       </c>
     </row>
     <row r="555" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A555" t="s">
+      <c r="A555" s="3" t="s">
         <v>553</v>
       </c>
       <c r="B555">
@@ -40561,7 +40567,7 @@
       </c>
     </row>
     <row r="556" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A556" t="s">
+      <c r="A556" s="3" t="s">
         <v>554</v>
       </c>
       <c r="B556">
@@ -40629,7 +40635,7 @@
       </c>
     </row>
     <row r="557" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A557" t="s">
+      <c r="A557" s="3" t="s">
         <v>555</v>
       </c>
       <c r="B557">
@@ -40697,7 +40703,7 @@
       </c>
     </row>
     <row r="558" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A558" t="s">
+      <c r="A558" s="3" t="s">
         <v>556</v>
       </c>
       <c r="B558">
@@ -40765,7 +40771,7 @@
       </c>
     </row>
     <row r="559" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A559" t="s">
+      <c r="A559" s="3" t="s">
         <v>557</v>
       </c>
       <c r="B559">
@@ -40833,7 +40839,7 @@
       </c>
     </row>
     <row r="560" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A560" t="s">
+      <c r="A560" s="3" t="s">
         <v>558</v>
       </c>
       <c r="B560">
@@ -40901,7 +40907,7 @@
       </c>
     </row>
     <row r="561" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A561" t="s">
+      <c r="A561" s="3" t="s">
         <v>559</v>
       </c>
       <c r="B561">
@@ -40969,7 +40975,7 @@
       </c>
     </row>
     <row r="562" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A562" t="s">
+      <c r="A562" s="3" t="s">
         <v>560</v>
       </c>
       <c r="B562">
@@ -41037,7 +41043,7 @@
       </c>
     </row>
     <row r="563" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A563" t="s">
+      <c r="A563" s="3" t="s">
         <v>561</v>
       </c>
       <c r="B563">
@@ -41105,7 +41111,7 @@
       </c>
     </row>
     <row r="564" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A564" t="s">
+      <c r="A564" s="3" t="s">
         <v>562</v>
       </c>
       <c r="B564">
@@ -41173,7 +41179,7 @@
       </c>
     </row>
     <row r="565" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A565" t="s">
+      <c r="A565" s="3" t="s">
         <v>563</v>
       </c>
       <c r="B565">
@@ -41241,7 +41247,7 @@
       </c>
     </row>
     <row r="566" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A566" t="s">
+      <c r="A566" s="3" t="s">
         <v>564</v>
       </c>
       <c r="B566">
@@ -41309,7 +41315,7 @@
       </c>
     </row>
     <row r="567" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A567" t="s">
+      <c r="A567" s="3" t="s">
         <v>565</v>
       </c>
       <c r="B567">
@@ -41377,7 +41383,7 @@
       </c>
     </row>
     <row r="568" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A568" t="s">
+      <c r="A568" s="3" t="s">
         <v>566</v>
       </c>
       <c r="B568">
@@ -41445,7 +41451,7 @@
       </c>
     </row>
     <row r="569" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A569" t="s">
+      <c r="A569" s="3" t="s">
         <v>567</v>
       </c>
       <c r="B569">
@@ -41513,7 +41519,7 @@
       </c>
     </row>
     <row r="570" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A570" t="s">
+      <c r="A570" s="3" t="s">
         <v>568</v>
       </c>
       <c r="B570">
@@ -41581,7 +41587,7 @@
       </c>
     </row>
     <row r="571" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A571" t="s">
+      <c r="A571" s="3" t="s">
         <v>569</v>
       </c>
       <c r="B571">
@@ -41649,7 +41655,7 @@
       </c>
     </row>
     <row r="572" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A572" t="s">
+      <c r="A572" s="3" t="s">
         <v>570</v>
       </c>
       <c r="B572">
@@ -41717,7 +41723,7 @@
       </c>
     </row>
     <row r="573" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A573" t="s">
+      <c r="A573" s="3" t="s">
         <v>571</v>
       </c>
       <c r="B573">
@@ -41785,7 +41791,7 @@
       </c>
     </row>
     <row r="574" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A574" t="s">
+      <c r="A574" s="3" t="s">
         <v>572</v>
       </c>
       <c r="B574">
@@ -41853,7 +41859,7 @@
       </c>
     </row>
     <row r="575" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A575" t="s">
+      <c r="A575" s="3" t="s">
         <v>573</v>
       </c>
       <c r="B575">
@@ -41921,7 +41927,7 @@
       </c>
     </row>
     <row r="576" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A576" t="s">
+      <c r="A576" s="3" t="s">
         <v>574</v>
       </c>
       <c r="B576">
@@ -41989,7 +41995,7 @@
       </c>
     </row>
     <row r="577" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A577" t="s">
+      <c r="A577" s="3" t="s">
         <v>575</v>
       </c>
       <c r="B577">
@@ -42057,7 +42063,7 @@
       </c>
     </row>
     <row r="578" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A578" t="s">
+      <c r="A578" s="3" t="s">
         <v>576</v>
       </c>
       <c r="B578">
@@ -42125,7 +42131,7 @@
       </c>
     </row>
     <row r="579" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A579" t="s">
+      <c r="A579" s="3" t="s">
         <v>577</v>
       </c>
       <c r="B579">
@@ -42193,7 +42199,7 @@
       </c>
     </row>
     <row r="580" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A580" t="s">
+      <c r="A580" s="3" t="s">
         <v>578</v>
       </c>
       <c r="B580">
@@ -42261,7 +42267,7 @@
       </c>
     </row>
     <row r="581" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A581" t="s">
+      <c r="A581" s="3" t="s">
         <v>579</v>
       </c>
       <c r="B581">
@@ -42329,7 +42335,7 @@
       </c>
     </row>
     <row r="582" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A582" t="s">
+      <c r="A582" s="3" t="s">
         <v>580</v>
       </c>
       <c r="B582">
@@ -42397,7 +42403,7 @@
       </c>
     </row>
     <row r="583" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A583" t="s">
+      <c r="A583" s="3" t="s">
         <v>581</v>
       </c>
       <c r="B583">
@@ -42465,7 +42471,7 @@
       </c>
     </row>
     <row r="584" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A584" t="s">
+      <c r="A584" s="3" t="s">
         <v>582</v>
       </c>
       <c r="B584">
@@ -42533,7 +42539,7 @@
       </c>
     </row>
     <row r="585" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A585" t="s">
+      <c r="A585" s="3" t="s">
         <v>583</v>
       </c>
       <c r="B585">
@@ -42601,7 +42607,7 @@
       </c>
     </row>
     <row r="586" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A586" t="s">
+      <c r="A586" s="3" t="s">
         <v>584</v>
       </c>
       <c r="B586">
@@ -42669,7 +42675,7 @@
       </c>
     </row>
     <row r="587" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A587" t="s">
+      <c r="A587" s="3" t="s">
         <v>585</v>
       </c>
       <c r="B587">
@@ -42737,7 +42743,7 @@
       </c>
     </row>
     <row r="588" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A588" t="s">
+      <c r="A588" s="3" t="s">
         <v>586</v>
       </c>
       <c r="B588">
@@ -42805,7 +42811,7 @@
       </c>
     </row>
     <row r="589" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A589" t="s">
+      <c r="A589" s="3" t="s">
         <v>587</v>
       </c>
       <c r="B589">
@@ -42873,7 +42879,7 @@
       </c>
     </row>
     <row r="590" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A590" t="s">
+      <c r="A590" s="3" t="s">
         <v>588</v>
       </c>
       <c r="B590">
@@ -42941,7 +42947,7 @@
       </c>
     </row>
     <row r="591" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A591" t="s">
+      <c r="A591" s="3" t="s">
         <v>589</v>
       </c>
       <c r="B591">
@@ -43009,7 +43015,7 @@
       </c>
     </row>
     <row r="592" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A592" t="s">
+      <c r="A592" s="3" t="s">
         <v>590</v>
       </c>
       <c r="B592">
@@ -43077,7 +43083,7 @@
       </c>
     </row>
     <row r="593" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A593" t="s">
+      <c r="A593" s="3" t="s">
         <v>591</v>
       </c>
       <c r="B593">
@@ -43145,7 +43151,7 @@
       </c>
     </row>
     <row r="594" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A594" t="s">
+      <c r="A594" s="3" t="s">
         <v>592</v>
       </c>
       <c r="B594">
@@ -43213,7 +43219,7 @@
       </c>
     </row>
     <row r="595" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A595" t="s">
+      <c r="A595" s="3" t="s">
         <v>593</v>
       </c>
       <c r="B595">
@@ -43281,7 +43287,7 @@
       </c>
     </row>
     <row r="596" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A596" t="s">
+      <c r="A596" s="3" t="s">
         <v>594</v>
       </c>
       <c r="B596">
@@ -43349,7 +43355,7 @@
       </c>
     </row>
     <row r="597" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A597" t="s">
+      <c r="A597" s="3" t="s">
         <v>595</v>
       </c>
       <c r="B597">
@@ -43417,7 +43423,7 @@
       </c>
     </row>
     <row r="598" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A598" t="s">
+      <c r="A598" s="3" t="s">
         <v>596</v>
       </c>
       <c r="B598">
@@ -43485,7 +43491,7 @@
       </c>
     </row>
     <row r="599" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A599" t="s">
+      <c r="A599" s="3" t="s">
         <v>597</v>
       </c>
       <c r="B599">
@@ -43553,7 +43559,7 @@
       </c>
     </row>
     <row r="600" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A600" t="s">
+      <c r="A600" s="3" t="s">
         <v>598</v>
       </c>
       <c r="B600">
@@ -43621,7 +43627,7 @@
       </c>
     </row>
     <row r="601" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A601" t="s">
+      <c r="A601" s="3" t="s">
         <v>599</v>
       </c>
       <c r="B601">
@@ -43689,7 +43695,7 @@
       </c>
     </row>
     <row r="602" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A602" t="s">
+      <c r="A602" s="3" t="s">
         <v>600</v>
       </c>
       <c r="B602">
@@ -43757,7 +43763,7 @@
       </c>
     </row>
     <row r="603" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A603" t="s">
+      <c r="A603" s="3" t="s">
         <v>601</v>
       </c>
       <c r="B603">
@@ -43825,7 +43831,7 @@
       </c>
     </row>
     <row r="604" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A604" t="s">
+      <c r="A604" s="3" t="s">
         <v>602</v>
       </c>
       <c r="B604">
@@ -43893,7 +43899,7 @@
       </c>
     </row>
     <row r="605" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A605" t="s">
+      <c r="A605" s="3" t="s">
         <v>603</v>
       </c>
       <c r="B605">
@@ -43961,7 +43967,7 @@
       </c>
     </row>
     <row r="606" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A606" t="s">
+      <c r="A606" s="3" t="s">
         <v>604</v>
       </c>
       <c r="B606">
@@ -44029,7 +44035,7 @@
       </c>
     </row>
     <row r="607" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A607" t="s">
+      <c r="A607" s="3" t="s">
         <v>605</v>
       </c>
       <c r="B607">
@@ -44097,7 +44103,7 @@
       </c>
     </row>
     <row r="608" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A608" t="s">
+      <c r="A608" s="3" t="s">
         <v>606</v>
       </c>
       <c r="B608">
@@ -44165,7 +44171,7 @@
       </c>
     </row>
     <row r="609" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A609" t="s">
+      <c r="A609" s="3" t="s">
         <v>607</v>
       </c>
       <c r="B609">
@@ -44233,7 +44239,7 @@
       </c>
     </row>
     <row r="610" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A610" t="s">
+      <c r="A610" s="3" t="s">
         <v>608</v>
       </c>
       <c r="B610">
@@ -44301,7 +44307,7 @@
       </c>
     </row>
     <row r="611" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A611" t="s">
+      <c r="A611" s="3" t="s">
         <v>609</v>
       </c>
       <c r="B611">
@@ -44369,7 +44375,7 @@
       </c>
     </row>
     <row r="612" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A612" t="s">
+      <c r="A612" s="3" t="s">
         <v>610</v>
       </c>
       <c r="B612">
@@ -44437,7 +44443,7 @@
       </c>
     </row>
     <row r="613" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A613" t="s">
+      <c r="A613" s="3" t="s">
         <v>611</v>
       </c>
       <c r="B613">
@@ -44505,7 +44511,7 @@
       </c>
     </row>
     <row r="614" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A614" t="s">
+      <c r="A614" s="3" t="s">
         <v>612</v>
       </c>
       <c r="B614">
@@ -44573,7 +44579,7 @@
       </c>
     </row>
     <row r="615" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A615" t="s">
+      <c r="A615" s="3" t="s">
         <v>613</v>
       </c>
       <c r="B615">
@@ -44641,7 +44647,7 @@
       </c>
     </row>
     <row r="616" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A616" t="s">
+      <c r="A616" s="3" t="s">
         <v>614</v>
       </c>
       <c r="B616">
@@ -44709,7 +44715,7 @@
       </c>
     </row>
     <row r="617" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A617" t="s">
+      <c r="A617" s="3" t="s">
         <v>615</v>
       </c>
       <c r="B617">
@@ -44777,7 +44783,7 @@
       </c>
     </row>
     <row r="618" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A618" t="s">
+      <c r="A618" s="3" t="s">
         <v>616</v>
       </c>
       <c r="B618">
@@ -44845,7 +44851,7 @@
       </c>
     </row>
     <row r="619" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A619" t="s">
+      <c r="A619" s="3" t="s">
         <v>617</v>
       </c>
       <c r="B619">
@@ -44913,7 +44919,7 @@
       </c>
     </row>
     <row r="620" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A620" t="s">
+      <c r="A620" s="3" t="s">
         <v>618</v>
       </c>
       <c r="B620">
@@ -44981,7 +44987,7 @@
       </c>
     </row>
     <row r="621" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A621" t="s">
+      <c r="A621" s="3" t="s">
         <v>619</v>
       </c>
       <c r="B621">
@@ -45049,7 +45055,7 @@
       </c>
     </row>
     <row r="622" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A622" t="s">
+      <c r="A622" s="3" t="s">
         <v>620</v>
       </c>
       <c r="B622">
@@ -45117,7 +45123,7 @@
       </c>
     </row>
     <row r="623" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A623" t="s">
+      <c r="A623" s="3" t="s">
         <v>621</v>
       </c>
       <c r="B623">
@@ -45185,7 +45191,7 @@
       </c>
     </row>
     <row r="624" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A624" t="s">
+      <c r="A624" s="3" t="s">
         <v>622</v>
       </c>
       <c r="B624">
@@ -45253,7 +45259,7 @@
       </c>
     </row>
     <row r="625" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A625" t="s">
+      <c r="A625" s="3" t="s">
         <v>623</v>
       </c>
       <c r="B625">
@@ -45321,7 +45327,7 @@
       </c>
     </row>
     <row r="626" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A626" t="s">
+      <c r="A626" s="3" t="s">
         <v>624</v>
       </c>
       <c r="B626">
@@ -45389,7 +45395,7 @@
       </c>
     </row>
     <row r="627" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A627" t="s">
+      <c r="A627" s="3" t="s">
         <v>625</v>
       </c>
       <c r="B627">
@@ -45457,7 +45463,7 @@
       </c>
     </row>
     <row r="628" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A628" t="s">
+      <c r="A628" s="3" t="s">
         <v>626</v>
       </c>
       <c r="B628">
@@ -45525,7 +45531,7 @@
       </c>
     </row>
     <row r="629" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A629" t="s">
+      <c r="A629" s="3" t="s">
         <v>627</v>
       </c>
       <c r="B629">
@@ -45593,7 +45599,7 @@
       </c>
     </row>
     <row r="630" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A630" t="s">
+      <c r="A630" s="3" t="s">
         <v>628</v>
       </c>
       <c r="B630">
@@ -45661,7 +45667,7 @@
       </c>
     </row>
     <row r="631" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A631" t="s">
+      <c r="A631" s="3" t="s">
         <v>629</v>
       </c>
       <c r="B631">
@@ -45729,7 +45735,7 @@
       </c>
     </row>
     <row r="632" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A632" t="s">
+      <c r="A632" s="3" t="s">
         <v>630</v>
       </c>
       <c r="B632">
@@ -45797,7 +45803,7 @@
       </c>
     </row>
     <row r="633" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A633" t="s">
+      <c r="A633" s="3" t="s">
         <v>631</v>
       </c>
       <c r="B633">
@@ -45865,7 +45871,7 @@
       </c>
     </row>
     <row r="634" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A634" t="s">
+      <c r="A634" s="3" t="s">
         <v>632</v>
       </c>
       <c r="B634">
@@ -45933,7 +45939,7 @@
       </c>
     </row>
     <row r="635" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A635" t="s">
+      <c r="A635" s="3" t="s">
         <v>633</v>
       </c>
       <c r="B635">
@@ -46001,7 +46007,7 @@
       </c>
     </row>
     <row r="636" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A636" t="s">
+      <c r="A636" s="3" t="s">
         <v>634</v>
       </c>
       <c r="B636">
@@ -46069,7 +46075,7 @@
       </c>
     </row>
     <row r="637" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A637" t="s">
+      <c r="A637" s="3" t="s">
         <v>635</v>
       </c>
       <c r="B637">
@@ -46137,7 +46143,7 @@
       </c>
     </row>
     <row r="638" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A638" t="s">
+      <c r="A638" s="3" t="s">
         <v>636</v>
       </c>
       <c r="B638">
@@ -46205,7 +46211,7 @@
       </c>
     </row>
     <row r="639" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A639" t="s">
+      <c r="A639" s="3" t="s">
         <v>637</v>
       </c>
       <c r="B639">
@@ -46273,7 +46279,7 @@
       </c>
     </row>
     <row r="640" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A640" t="s">
+      <c r="A640" s="3" t="s">
         <v>638</v>
       </c>
       <c r="B640">
@@ -46341,7 +46347,7 @@
       </c>
     </row>
     <row r="641" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A641" t="s">
+      <c r="A641" s="3" t="s">
         <v>639</v>
       </c>
       <c r="B641">
@@ -46409,7 +46415,7 @@
       </c>
     </row>
     <row r="642" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A642" t="s">
+      <c r="A642" s="3" t="s">
         <v>640</v>
       </c>
       <c r="B642">
@@ -46477,7 +46483,7 @@
       </c>
     </row>
     <row r="643" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A643" t="s">
+      <c r="A643" s="3" t="s">
         <v>641</v>
       </c>
       <c r="B643">
@@ -46545,7 +46551,7 @@
       </c>
     </row>
     <row r="644" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A644" t="s">
+      <c r="A644" s="3" t="s">
         <v>642</v>
       </c>
       <c r="B644">
@@ -46613,7 +46619,7 @@
       </c>
     </row>
     <row r="645" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A645" t="s">
+      <c r="A645" s="3" t="s">
         <v>643</v>
       </c>
       <c r="B645">
@@ -46681,7 +46687,7 @@
       </c>
     </row>
     <row r="646" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A646" t="s">
+      <c r="A646" s="3" t="s">
         <v>644</v>
       </c>
       <c r="B646">
@@ -46749,7 +46755,7 @@
       </c>
     </row>
     <row r="647" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A647" t="s">
+      <c r="A647" s="3" t="s">
         <v>645</v>
       </c>
       <c r="B647">
@@ -46817,7 +46823,7 @@
       </c>
     </row>
     <row r="648" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A648" t="s">
+      <c r="A648" s="3" t="s">
         <v>646</v>
       </c>
       <c r="B648">
@@ -46885,7 +46891,7 @@
       </c>
     </row>
     <row r="649" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A649" t="s">
+      <c r="A649" s="3" t="s">
         <v>647</v>
       </c>
       <c r="B649">
@@ -46953,7 +46959,7 @@
       </c>
     </row>
     <row r="650" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A650" t="s">
+      <c r="A650" s="3" t="s">
         <v>648</v>
       </c>
       <c r="B650">
@@ -47021,7 +47027,7 @@
       </c>
     </row>
     <row r="651" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A651" t="s">
+      <c r="A651" s="3" t="s">
         <v>649</v>
       </c>
       <c r="B651">
@@ -47089,7 +47095,7 @@
       </c>
     </row>
     <row r="652" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A652" t="s">
+      <c r="A652" s="3" t="s">
         <v>650</v>
       </c>
       <c r="B652">
@@ -47157,7 +47163,7 @@
       </c>
     </row>
     <row r="653" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A653" t="s">
+      <c r="A653" s="3" t="s">
         <v>651</v>
       </c>
       <c r="B653">
@@ -47225,7 +47231,7 @@
       </c>
     </row>
     <row r="654" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A654" t="s">
+      <c r="A654" s="3" t="s">
         <v>652</v>
       </c>
       <c r="B654">
@@ -47293,7 +47299,7 @@
       </c>
     </row>
     <row r="655" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A655" t="s">
+      <c r="A655" s="3" t="s">
         <v>653</v>
       </c>
       <c r="B655">
@@ -47361,7 +47367,7 @@
       </c>
     </row>
     <row r="656" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A656" t="s">
+      <c r="A656" s="3" t="s">
         <v>654</v>
       </c>
       <c r="B656">
@@ -47429,7 +47435,7 @@
       </c>
     </row>
     <row r="657" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A657" t="s">
+      <c r="A657" s="3" t="s">
         <v>655</v>
       </c>
       <c r="B657">
@@ -47497,7 +47503,7 @@
       </c>
     </row>
     <row r="658" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A658" t="s">
+      <c r="A658" s="3" t="s">
         <v>656</v>
       </c>
       <c r="B658">
@@ -47565,7 +47571,7 @@
       </c>
     </row>
     <row r="659" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A659" t="s">
+      <c r="A659" s="3" t="s">
         <v>657</v>
       </c>
       <c r="B659">
@@ -47633,7 +47639,7 @@
       </c>
     </row>
     <row r="660" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A660" t="s">
+      <c r="A660" s="3" t="s">
         <v>658</v>
       </c>
       <c r="B660">
@@ -47701,7 +47707,7 @@
       </c>
     </row>
     <row r="661" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A661" t="s">
+      <c r="A661" s="3" t="s">
         <v>659</v>
       </c>
       <c r="B661">
@@ -47769,7 +47775,7 @@
       </c>
     </row>
     <row r="662" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A662" t="s">
+      <c r="A662" s="3" t="s">
         <v>660</v>
       </c>
       <c r="B662">
@@ -47837,7 +47843,7 @@
       </c>
     </row>
     <row r="663" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A663" t="s">
+      <c r="A663" s="3" t="s">
         <v>661</v>
       </c>
       <c r="B663">
@@ -47905,7 +47911,7 @@
       </c>
     </row>
     <row r="664" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A664" t="s">
+      <c r="A664" s="3" t="s">
         <v>662</v>
       </c>
       <c r="B664">
@@ -47973,7 +47979,7 @@
       </c>
     </row>
     <row r="665" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A665" t="s">
+      <c r="A665" s="3" t="s">
         <v>663</v>
       </c>
       <c r="B665">
@@ -48041,7 +48047,7 @@
       </c>
     </row>
     <row r="666" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A666" t="s">
+      <c r="A666" s="3" t="s">
         <v>664</v>
       </c>
       <c r="B666">
@@ -48109,7 +48115,7 @@
       </c>
     </row>
     <row r="667" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A667" t="s">
+      <c r="A667" s="3" t="s">
         <v>665</v>
       </c>
       <c r="B667">
@@ -48177,7 +48183,7 @@
       </c>
     </row>
     <row r="668" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A668" t="s">
+      <c r="A668" s="3" t="s">
         <v>666</v>
       </c>
       <c r="B668">
@@ -48245,7 +48251,7 @@
       </c>
     </row>
     <row r="669" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A669" t="s">
+      <c r="A669" s="3" t="s">
         <v>667</v>
       </c>
       <c r="B669">
@@ -48313,7 +48319,7 @@
       </c>
     </row>
     <row r="670" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A670" t="s">
+      <c r="A670" s="3" t="s">
         <v>668</v>
       </c>
       <c r="B670">
@@ -48381,7 +48387,7 @@
       </c>
     </row>
     <row r="671" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A671" t="s">
+      <c r="A671" s="3" t="s">
         <v>669</v>
       </c>
       <c r="B671">
@@ -48449,7 +48455,7 @@
       </c>
     </row>
     <row r="672" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A672" t="s">
+      <c r="A672" s="3" t="s">
         <v>670</v>
       </c>
       <c r="B672">
@@ -48517,7 +48523,7 @@
       </c>
     </row>
     <row r="673" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A673" t="s">
+      <c r="A673" s="3" t="s">
         <v>671</v>
       </c>
       <c r="B673">
@@ -48585,7 +48591,7 @@
       </c>
     </row>
     <row r="674" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A674" t="s">
+      <c r="A674" s="3" t="s">
         <v>672</v>
       </c>
       <c r="B674">
@@ -48653,7 +48659,7 @@
       </c>
     </row>
     <row r="675" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A675" t="s">
+      <c r="A675" s="3" t="s">
         <v>673</v>
       </c>
       <c r="B675">
@@ -48721,7 +48727,7 @@
       </c>
     </row>
     <row r="676" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A676" t="s">
+      <c r="A676" s="3" t="s">
         <v>674</v>
       </c>
       <c r="B676">
@@ -48789,7 +48795,7 @@
       </c>
     </row>
     <row r="677" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A677" t="s">
+      <c r="A677" s="3" t="s">
         <v>675</v>
       </c>
       <c r="B677">
@@ -48857,7 +48863,7 @@
       </c>
     </row>
     <row r="678" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A678" t="s">
+      <c r="A678" s="3" t="s">
         <v>676</v>
       </c>
       <c r="B678">
@@ -48925,7 +48931,7 @@
       </c>
     </row>
     <row r="679" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A679" t="s">
+      <c r="A679" s="3" t="s">
         <v>677</v>
       </c>
       <c r="B679">
@@ -48993,7 +48999,7 @@
       </c>
     </row>
     <row r="680" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A680" t="s">
+      <c r="A680" s="3" t="s">
         <v>678</v>
       </c>
       <c r="B680">
@@ -49061,7 +49067,7 @@
       </c>
     </row>
     <row r="681" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A681" t="s">
+      <c r="A681" s="3" t="s">
         <v>679</v>
       </c>
       <c r="B681">
@@ -49129,7 +49135,7 @@
       </c>
     </row>
     <row r="682" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A682" t="s">
+      <c r="A682" s="3" t="s">
         <v>680</v>
       </c>
       <c r="B682">
@@ -49197,7 +49203,7 @@
       </c>
     </row>
     <row r="683" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A683" t="s">
+      <c r="A683" s="3" t="s">
         <v>681</v>
       </c>
       <c r="B683">
@@ -49265,7 +49271,7 @@
       </c>
     </row>
     <row r="684" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A684" t="s">
+      <c r="A684" s="3" t="s">
         <v>682</v>
       </c>
       <c r="B684">
@@ -49333,7 +49339,7 @@
       </c>
     </row>
     <row r="685" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A685" t="s">
+      <c r="A685" s="3" t="s">
         <v>683</v>
       </c>
       <c r="B685">
@@ -49401,7 +49407,7 @@
       </c>
     </row>
     <row r="686" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A686" t="s">
+      <c r="A686" s="3" t="s">
         <v>684</v>
       </c>
       <c r="B686">
@@ -49469,7 +49475,7 @@
       </c>
     </row>
     <row r="687" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A687" t="s">
+      <c r="A687" s="3" t="s">
         <v>685</v>
       </c>
       <c r="B687">
@@ -49537,7 +49543,7 @@
       </c>
     </row>
     <row r="688" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A688" t="s">
+      <c r="A688" s="3" t="s">
         <v>686</v>
       </c>
       <c r="B688">
@@ -49605,7 +49611,7 @@
       </c>
     </row>
     <row r="689" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A689" t="s">
+      <c r="A689" s="3" t="s">
         <v>687</v>
       </c>
       <c r="B689">
@@ -49673,7 +49679,7 @@
       </c>
     </row>
     <row r="690" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A690" t="s">
+      <c r="A690" s="3" t="s">
         <v>688</v>
       </c>
       <c r="B690">
@@ -49741,7 +49747,7 @@
       </c>
     </row>
     <row r="691" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A691" t="s">
+      <c r="A691" s="3" t="s">
         <v>689</v>
       </c>
       <c r="B691">
@@ -49809,7 +49815,7 @@
       </c>
     </row>
     <row r="692" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A692" t="s">
+      <c r="A692" s="3" t="s">
         <v>690</v>
       </c>
       <c r="B692">
@@ -49877,7 +49883,7 @@
       </c>
     </row>
     <row r="693" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A693" t="s">
+      <c r="A693" s="3" t="s">
         <v>691</v>
       </c>
       <c r="B693">
@@ -49945,7 +49951,7 @@
       </c>
     </row>
     <row r="694" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A694" t="s">
+      <c r="A694" s="3" t="s">
         <v>692</v>
       </c>
       <c r="B694">
@@ -50013,7 +50019,7 @@
       </c>
     </row>
     <row r="695" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A695" t="s">
+      <c r="A695" s="3" t="s">
         <v>693</v>
       </c>
       <c r="B695">
@@ -50081,7 +50087,7 @@
       </c>
     </row>
     <row r="696" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A696" t="s">
+      <c r="A696" s="3" t="s">
         <v>694</v>
       </c>
       <c r="B696">
@@ -50149,7 +50155,7 @@
       </c>
     </row>
     <row r="697" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A697" t="s">
+      <c r="A697" s="3" t="s">
         <v>695</v>
       </c>
       <c r="B697">
@@ -50217,7 +50223,7 @@
       </c>
     </row>
     <row r="698" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A698" t="s">
+      <c r="A698" s="3" t="s">
         <v>696</v>
       </c>
       <c r="B698">
@@ -50285,7 +50291,7 @@
       </c>
     </row>
     <row r="699" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A699" t="s">
+      <c r="A699" s="3" t="s">
         <v>697</v>
       </c>
       <c r="B699">
@@ -50353,7 +50359,7 @@
       </c>
     </row>
     <row r="700" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A700" t="s">
+      <c r="A700" s="3" t="s">
         <v>698</v>
       </c>
       <c r="B700">
@@ -50421,7 +50427,7 @@
       </c>
     </row>
     <row r="701" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A701" t="s">
+      <c r="A701" s="3" t="s">
         <v>699</v>
       </c>
       <c r="B701">
@@ -50489,7 +50495,7 @@
       </c>
     </row>
     <row r="702" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A702" t="s">
+      <c r="A702" s="3" t="s">
         <v>700</v>
       </c>
       <c r="B702">
@@ -50557,7 +50563,7 @@
       </c>
     </row>
     <row r="703" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A703" t="s">
+      <c r="A703" s="3" t="s">
         <v>701</v>
       </c>
       <c r="B703">
@@ -50625,7 +50631,7 @@
       </c>
     </row>
     <row r="704" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A704" t="s">
+      <c r="A704" s="3" t="s">
         <v>702</v>
       </c>
       <c r="B704">
@@ -50693,7 +50699,7 @@
       </c>
     </row>
     <row r="705" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A705" t="s">
+      <c r="A705" s="3" t="s">
         <v>703</v>
       </c>
       <c r="B705">
@@ -50761,7 +50767,7 @@
       </c>
     </row>
     <row r="706" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A706" t="s">
+      <c r="A706" s="3" t="s">
         <v>704</v>
       </c>
       <c r="B706">
@@ -50829,7 +50835,7 @@
       </c>
     </row>
     <row r="707" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A707" t="s">
+      <c r="A707" s="3" t="s">
         <v>705</v>
       </c>
       <c r="B707">
@@ -50897,7 +50903,7 @@
       </c>
     </row>
     <row r="708" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A708" t="s">
+      <c r="A708" s="3" t="s">
         <v>706</v>
       </c>
       <c r="B708">
@@ -50965,7 +50971,7 @@
       </c>
     </row>
     <row r="709" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A709" t="s">
+      <c r="A709" s="3" t="s">
         <v>707</v>
       </c>
       <c r="B709">
@@ -51033,7 +51039,7 @@
       </c>
     </row>
     <row r="710" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A710" t="s">
+      <c r="A710" s="3" t="s">
         <v>708</v>
       </c>
       <c r="B710">
@@ -51101,7 +51107,7 @@
       </c>
     </row>
     <row r="711" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A711" t="s">
+      <c r="A711" s="3" t="s">
         <v>709</v>
       </c>
       <c r="B711">
@@ -51169,7 +51175,7 @@
       </c>
     </row>
     <row r="712" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A712" t="s">
+      <c r="A712" s="3" t="s">
         <v>710</v>
       </c>
       <c r="B712">
@@ -51237,7 +51243,7 @@
       </c>
     </row>
     <row r="713" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A713" t="s">
+      <c r="A713" s="3" t="s">
         <v>711</v>
       </c>
       <c r="B713">
@@ -51305,7 +51311,7 @@
       </c>
     </row>
     <row r="714" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A714" t="s">
+      <c r="A714" s="3" t="s">
         <v>712</v>
       </c>
       <c r="B714">
@@ -51373,7 +51379,7 @@
       </c>
     </row>
     <row r="715" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A715" t="s">
+      <c r="A715" s="3" t="s">
         <v>713</v>
       </c>
       <c r="B715">
@@ -51441,7 +51447,7 @@
       </c>
     </row>
     <row r="716" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A716" t="s">
+      <c r="A716" s="3" t="s">
         <v>714</v>
       </c>
       <c r="B716">
@@ -51509,7 +51515,7 @@
       </c>
     </row>
     <row r="717" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A717" t="s">
+      <c r="A717" s="3" t="s">
         <v>715</v>
       </c>
       <c r="B717">
@@ -51577,7 +51583,7 @@
       </c>
     </row>
     <row r="718" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A718" t="s">
+      <c r="A718" s="3" t="s">
         <v>716</v>
       </c>
       <c r="B718">
@@ -51645,7 +51651,7 @@
       </c>
     </row>
     <row r="719" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A719" t="s">
+      <c r="A719" s="3" t="s">
         <v>717</v>
       </c>
       <c r="B719">
@@ -51713,7 +51719,7 @@
       </c>
     </row>
     <row r="720" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A720" t="s">
+      <c r="A720" s="3" t="s">
         <v>718</v>
       </c>
       <c r="B720">
@@ -51781,7 +51787,7 @@
       </c>
     </row>
     <row r="721" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A721" t="s">
+      <c r="A721" s="3" t="s">
         <v>719</v>
       </c>
       <c r="B721">
@@ -51849,7 +51855,7 @@
       </c>
     </row>
     <row r="722" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A722" t="s">
+      <c r="A722" s="3" t="s">
         <v>720</v>
       </c>
       <c r="B722">
@@ -51917,7 +51923,7 @@
       </c>
     </row>
     <row r="723" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A723" t="s">
+      <c r="A723" s="3" t="s">
         <v>721</v>
       </c>
       <c r="B723">
@@ -51985,7 +51991,7 @@
       </c>
     </row>
     <row r="724" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A724" t="s">
+      <c r="A724" s="3" t="s">
         <v>722</v>
       </c>
       <c r="B724">
@@ -52053,7 +52059,7 @@
       </c>
     </row>
     <row r="725" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A725" t="s">
+      <c r="A725" s="3" t="s">
         <v>723</v>
       </c>
       <c r="B725">
@@ -52121,7 +52127,7 @@
       </c>
     </row>
     <row r="726" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A726" t="s">
+      <c r="A726" s="3" t="s">
         <v>724</v>
       </c>
       <c r="B726">
@@ -52189,7 +52195,7 @@
       </c>
     </row>
     <row r="727" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A727" t="s">
+      <c r="A727" s="3" t="s">
         <v>725</v>
       </c>
       <c r="B727">
@@ -52257,7 +52263,7 @@
       </c>
     </row>
     <row r="728" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A728" t="s">
+      <c r="A728" s="3" t="s">
         <v>726</v>
       </c>
       <c r="B728">
@@ -52325,7 +52331,7 @@
       </c>
     </row>
     <row r="729" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A729" t="s">
+      <c r="A729" s="3" t="s">
         <v>727</v>
       </c>
       <c r="B729">
@@ -52393,7 +52399,7 @@
       </c>
     </row>
     <row r="730" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A730" t="s">
+      <c r="A730" s="3" t="s">
         <v>728</v>
       </c>
       <c r="B730">
@@ -52461,7 +52467,7 @@
       </c>
     </row>
     <row r="731" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A731" t="s">
+      <c r="A731" s="3" t="s">
         <v>729</v>
       </c>
       <c r="B731">
@@ -52529,7 +52535,7 @@
       </c>
     </row>
     <row r="732" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A732" t="s">
+      <c r="A732" s="3" t="s">
         <v>730</v>
       </c>
       <c r="B732">
@@ -52597,7 +52603,7 @@
       </c>
     </row>
     <row r="733" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A733" t="s">
+      <c r="A733" s="3" t="s">
         <v>731</v>
       </c>
       <c r="B733">
@@ -52665,7 +52671,7 @@
       </c>
     </row>
     <row r="734" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A734" t="s">
+      <c r="A734" s="3" t="s">
         <v>732</v>
       </c>
       <c r="B734">
@@ -52733,7 +52739,7 @@
       </c>
     </row>
     <row r="735" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A735" t="s">
+      <c r="A735" s="3" t="s">
         <v>733</v>
       </c>
       <c r="B735">
@@ -52801,7 +52807,7 @@
       </c>
     </row>
     <row r="736" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A736" t="s">
+      <c r="A736" s="3" t="s">
         <v>734</v>
       </c>
       <c r="B736">
@@ -52869,7 +52875,7 @@
       </c>
     </row>
     <row r="737" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A737" t="s">
+      <c r="A737" s="3" t="s">
         <v>735</v>
       </c>
       <c r="B737">
@@ -52937,7 +52943,7 @@
       </c>
     </row>
     <row r="738" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A738" t="s">
+      <c r="A738" s="3" t="s">
         <v>736</v>
       </c>
       <c r="B738">
@@ -53005,7 +53011,7 @@
       </c>
     </row>
     <row r="739" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A739" t="s">
+      <c r="A739" s="3" t="s">
         <v>737</v>
       </c>
       <c r="B739">
@@ -53073,7 +53079,7 @@
       </c>
     </row>
     <row r="740" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A740" t="s">
+      <c r="A740" s="3" t="s">
         <v>738</v>
       </c>
       <c r="B740">
@@ -53141,7 +53147,7 @@
       </c>
     </row>
     <row r="741" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A741" t="s">
+      <c r="A741" s="3" t="s">
         <v>739</v>
       </c>
       <c r="B741">
@@ -53209,7 +53215,7 @@
       </c>
     </row>
     <row r="742" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A742" t="s">
+      <c r="A742" s="3" t="s">
         <v>740</v>
       </c>
       <c r="B742">
@@ -53277,7 +53283,7 @@
       </c>
     </row>
     <row r="743" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A743" t="s">
+      <c r="A743" s="3" t="s">
         <v>741</v>
       </c>
       <c r="B743">
@@ -53345,7 +53351,7 @@
       </c>
     </row>
     <row r="744" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A744" t="s">
+      <c r="A744" s="3" t="s">
         <v>742</v>
       </c>
       <c r="B744">
@@ -53413,7 +53419,7 @@
       </c>
     </row>
     <row r="745" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A745" t="s">
+      <c r="A745" s="3" t="s">
         <v>743</v>
       </c>
       <c r="B745">
@@ -53481,7 +53487,7 @@
       </c>
     </row>
     <row r="746" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A746" t="s">
+      <c r="A746" s="3" t="s">
         <v>744</v>
       </c>
       <c r="B746">
@@ -53549,7 +53555,7 @@
       </c>
     </row>
     <row r="747" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A747" t="s">
+      <c r="A747" s="3" t="s">
         <v>745</v>
       </c>
       <c r="B747">
@@ -53617,7 +53623,7 @@
       </c>
     </row>
     <row r="748" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A748" t="s">
+      <c r="A748" s="3" t="s">
         <v>746</v>
       </c>
       <c r="B748">
@@ -53685,7 +53691,7 @@
       </c>
     </row>
     <row r="749" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A749" t="s">
+      <c r="A749" s="3" t="s">
         <v>747</v>
       </c>
       <c r="B749">
@@ -53753,7 +53759,7 @@
       </c>
     </row>
     <row r="750" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A750" t="s">
+      <c r="A750" s="3" t="s">
         <v>748</v>
       </c>
       <c r="B750">
@@ -53821,7 +53827,7 @@
       </c>
     </row>
     <row r="751" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A751" t="s">
+      <c r="A751" s="3" t="s">
         <v>749</v>
       </c>
       <c r="B751">
@@ -53889,7 +53895,7 @@
       </c>
     </row>
     <row r="752" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A752" t="s">
+      <c r="A752" s="3" t="s">
         <v>750</v>
       </c>
       <c r="B752">
@@ -53957,7 +53963,7 @@
       </c>
     </row>
     <row r="753" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A753" t="s">
+      <c r="A753" s="3" t="s">
         <v>751</v>
       </c>
       <c r="B753">
@@ -54025,7 +54031,7 @@
       </c>
     </row>
     <row r="754" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A754" t="s">
+      <c r="A754" s="3" t="s">
         <v>752</v>
       </c>
       <c r="B754">
@@ -54093,7 +54099,7 @@
       </c>
     </row>
     <row r="755" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A755" t="s">
+      <c r="A755" s="3" t="s">
         <v>753</v>
       </c>
       <c r="B755">
@@ -54161,7 +54167,7 @@
       </c>
     </row>
     <row r="756" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A756" t="s">
+      <c r="A756" s="3" t="s">
         <v>754</v>
       </c>
       <c r="B756">
@@ -54229,7 +54235,7 @@
       </c>
     </row>
     <row r="757" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A757" t="s">
+      <c r="A757" s="3" t="s">
         <v>755</v>
       </c>
       <c r="B757">
@@ -54297,7 +54303,7 @@
       </c>
     </row>
     <row r="758" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A758" t="s">
+      <c r="A758" s="3" t="s">
         <v>756</v>
       </c>
       <c r="B758">
@@ -54365,7 +54371,7 @@
       </c>
     </row>
     <row r="759" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A759" t="s">
+      <c r="A759" s="3" t="s">
         <v>757</v>
       </c>
       <c r="B759">
@@ -54433,7 +54439,7 @@
       </c>
     </row>
     <row r="760" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A760" t="s">
+      <c r="A760" s="3" t="s">
         <v>758</v>
       </c>
       <c r="B760">
@@ -54501,7 +54507,7 @@
       </c>
     </row>
     <row r="761" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A761" t="s">
+      <c r="A761" s="3" t="s">
         <v>759</v>
       </c>
       <c r="B761">
@@ -54569,7 +54575,7 @@
       </c>
     </row>
     <row r="762" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A762" t="s">
+      <c r="A762" s="3" t="s">
         <v>760</v>
       </c>
       <c r="B762">
@@ -54637,7 +54643,7 @@
       </c>
     </row>
     <row r="763" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A763" t="s">
+      <c r="A763" s="3" t="s">
         <v>761</v>
       </c>
       <c r="B763">
@@ -54705,7 +54711,7 @@
       </c>
     </row>
     <row r="764" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A764" t="s">
+      <c r="A764" s="3" t="s">
         <v>762</v>
       </c>
       <c r="B764">
@@ -54773,7 +54779,7 @@
       </c>
     </row>
     <row r="765" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A765" t="s">
+      <c r="A765" s="3" t="s">
         <v>763</v>
       </c>
       <c r="B765">
@@ -54841,7 +54847,7 @@
       </c>
     </row>
     <row r="766" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A766" t="s">
+      <c r="A766" s="3" t="s">
         <v>764</v>
       </c>
       <c r="B766">
@@ -54909,7 +54915,7 @@
       </c>
     </row>
     <row r="767" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A767" t="s">
+      <c r="A767" s="3" t="s">
         <v>765</v>
       </c>
       <c r="B767">
@@ -54977,7 +54983,7 @@
       </c>
     </row>
     <row r="768" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A768" t="s">
+      <c r="A768" s="3" t="s">
         <v>766</v>
       </c>
       <c r="B768">
@@ -55045,7 +55051,7 @@
       </c>
     </row>
     <row r="769" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A769" t="s">
+      <c r="A769" s="3" t="s">
         <v>767</v>
       </c>
       <c r="B769">
@@ -55113,7 +55119,7 @@
       </c>
     </row>
     <row r="770" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A770" t="s">
+      <c r="A770" s="3" t="s">
         <v>768</v>
       </c>
       <c r="B770">
@@ -55181,7 +55187,7 @@
       </c>
     </row>
     <row r="771" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A771" t="s">
+      <c r="A771" s="3" t="s">
         <v>769</v>
       </c>
       <c r="B771">
@@ -55249,7 +55255,7 @@
       </c>
     </row>
     <row r="772" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A772" t="s">
+      <c r="A772" s="3" t="s">
         <v>770</v>
       </c>
       <c r="B772">
@@ -55317,7 +55323,7 @@
       </c>
     </row>
     <row r="773" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A773" t="s">
+      <c r="A773" s="3" t="s">
         <v>771</v>
       </c>
       <c r="B773">
@@ -55385,7 +55391,7 @@
       </c>
     </row>
     <row r="774" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A774" t="s">
+      <c r="A774" s="3" t="s">
         <v>772</v>
       </c>
       <c r="B774">
@@ -55453,7 +55459,7 @@
       </c>
     </row>
     <row r="775" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A775" t="s">
+      <c r="A775" s="3" t="s">
         <v>773</v>
       </c>
       <c r="B775">
@@ -55521,7 +55527,7 @@
       </c>
     </row>
     <row r="776" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A776" t="s">
+      <c r="A776" s="3" t="s">
         <v>774</v>
       </c>
       <c r="B776">
